--- a/exe/TSV/Excel/TH71_Tsuzaki_UIList.xlsx
+++ b/exe/TSV/Excel/TH71_Tsuzaki_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0ECEFC-BE54-422E-ABC1-AAC400410F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF8E6AF-3B9E-49B8-AAEE-4427D60AA66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6435" yWindow="4020" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4050" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH71_津崎駅_UIList" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="198">
   <si>
     <t>Type</t>
   </si>
@@ -4605,7 +4605,9 @@
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
+      <c r="G56" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>

--- a/exe/TSV/Excel/TH71_Tsuzaki_UIList.xlsx
+++ b/exe/TSV/Excel/TH71_Tsuzaki_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF8E6AF-3B9E-49B8-AAEE-4427D60AA66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35798D29-A682-4612-AB85-D584EA9F56DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4050" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4935" yWindow="4935" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH71_津崎駅_UIList" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,9 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>サーバー側名称（未記入で良い）</t>
+          <t>親となる画像がある場合に指定
+X座標, Y座標
+　　→親画像の左上座標が0, 0起点となる</t>
         </r>
       </text>
     </comment>
@@ -74,13 +76,24 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>親となる画像がある場合に指定
-X座標, Y座標
-　　→親画像の左上座標が0, 0起点となる</t>
+          <t>サーバー側名称</t>
         </r>
       </text>
     </comment>
     <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>サーバー側分類</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -94,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -108,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -121,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -134,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -147,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -160,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -173,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -200,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -214,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -227,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -241,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -255,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -272,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -289,7 +302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -306,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -323,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -337,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -369,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -382,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -411,7 +424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -443,7 +456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -462,7 +475,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="204">
   <si>
     <t>Type</t>
   </si>
@@ -470,10 +483,13 @@
     <t>UniqueName</t>
   </si>
   <si>
+    <t>ParentName</t>
+  </si>
+  <si>
     <t>ServerName</t>
   </si>
   <si>
-    <t>ParentName</t>
+    <t>ServerType</t>
   </si>
   <si>
     <t>PointName</t>
@@ -608,6 +624,9 @@
     <t>1RA_G</t>
   </si>
   <si>
+    <t>信号機</t>
+  </si>
+  <si>
     <t>Image/Light/N.png,Image/Light/G.png</t>
   </si>
   <si>
@@ -761,6 +780,9 @@
     <t>P21_PG</t>
   </si>
   <si>
+    <t>分岐器</t>
+  </si>
+  <si>
     <t>Image/Light/N.png,Image/Light/PG.png</t>
   </si>
   <si>
@@ -827,12 +849,18 @@
     <t>駅扱切換_PY</t>
   </si>
   <si>
+    <t>てこ</t>
+  </si>
+  <si>
     <t>駅扱切換_PG</t>
   </si>
   <si>
     <t>56T_1</t>
   </si>
   <si>
+    <t>軌道回路</t>
+  </si>
+  <si>
     <t>0,1,2</t>
   </si>
   <si>
@@ -1002,6 +1030,9 @@
   </si>
   <si>
     <t>停電_R</t>
+  </si>
+  <si>
+    <t>ランプ</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/R.png</t>
@@ -1385,7 +1416,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI130"/>
+  <dimension ref="A1:AJ130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -1398,14 +1429,14 @@
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="24" width="15.140625" customWidth="1"/>
-    <col min="25" max="25" width="37.5703125" customWidth="1"/>
-    <col min="26" max="26" width="100.140625" customWidth="1"/>
-    <col min="27" max="27" width="62.5703125" customWidth="1"/>
-    <col min="28" max="35" width="14.42578125" customWidth="1"/>
+    <col min="3" max="25" width="15.140625" customWidth="1"/>
+    <col min="26" max="26" width="37.5703125" customWidth="1"/>
+    <col min="27" max="27" width="100.140625" customWidth="1"/>
+    <col min="28" max="28" width="62.5703125" customWidth="1"/>
+    <col min="29" max="36" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1481,13 +1512,15 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3"/>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
@@ -1495,31 +1528,32 @@
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ1" s="3"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J2" s="4"/>
-      <c r="K2" s="4">
-        <v>0</v>
-      </c>
+      <c r="K2" s="4"/>
       <c r="L2" s="4">
         <v>0</v>
       </c>
-      <c r="M2" s="4"/>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -1531,11 +1565,11 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA2" s="6"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
       <c r="AD2" s="6"/>
@@ -1544,37 +1578,38 @@
       <c r="AG2" s="6"/>
       <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ2" s="6"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="4"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="8"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J3" s="8"/>
-      <c r="K3" s="7">
+      <c r="K3" s="8"/>
+      <c r="L3" s="7">
         <v>1050</v>
       </c>
-      <c r="L3" s="7">
+      <c r="M3" s="7">
         <v>78</v>
       </c>
-      <c r="M3" s="7">
+      <c r="N3" s="7">
         <v>79</v>
       </c>
-      <c r="N3" s="7">
+      <c r="O3" s="7">
         <v>110</v>
       </c>
-      <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
@@ -1584,11 +1619,11 @@
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA3" s="6"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
@@ -1597,39 +1632,40 @@
       <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
       <c r="AI3" s="6"/>
-    </row>
-    <row r="4" spans="1:35" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="AJ3" s="6"/>
+    </row>
+    <row r="4" spans="1:36" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="8"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J4" s="8"/>
-      <c r="K4" s="7">
+      <c r="K4" s="8"/>
+      <c r="L4" s="7">
         <v>6</v>
       </c>
-      <c r="L4" s="7">
+      <c r="M4" s="7">
         <v>37</v>
-      </c>
-      <c r="M4" s="7">
-        <v>63</v>
       </c>
       <c r="N4" s="7">
         <v>63</v>
       </c>
-      <c r="O4" s="8"/>
+      <c r="O4" s="7">
+        <v>63</v>
+      </c>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
@@ -1639,13 +1675,13 @@
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
-      <c r="Y4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z4" s="10" t="s">
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AA4" s="6"/>
+      <c r="AA4" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
@@ -1654,33 +1690,34 @@
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ4" s="6"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="8"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="8"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J5" s="8"/>
-      <c r="K5" s="7">
-        <f>K3+11</f>
+      <c r="K5" s="8"/>
+      <c r="L5" s="7">
+        <f>L3+11</f>
         <v>1061</v>
       </c>
-      <c r="L5" s="7">
-        <f>L3-68</f>
+      <c r="M5" s="7">
+        <f>M3-68</f>
         <v>10</v>
       </c>
-      <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
@@ -1693,11 +1730,11 @@
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
-      <c r="Z5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="6"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB5" s="8"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
       <c r="AE5" s="6"/>
@@ -1705,31 +1742,32 @@
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
       <c r="AI5" s="6"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ5" s="6"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="4">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4">
         <v>167</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
         <v>266</v>
       </c>
-      <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -1738,25 +1776,25 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
-      <c r="V6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="W6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="8" t="s">
+      <c r="V6" s="4"/>
+      <c r="W6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="Z6" s="10" t="s">
+      <c r="Y6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA6" s="6" t="s">
+      <c r="AA6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AB6" s="6"/>
+      <c r="AB6" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
       <c r="AE6" s="6"/>
@@ -1764,31 +1802,34 @@
       <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ6" s="6"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="4">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4">
         <v>225</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
         <v>246</v>
       </c>
-      <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -1798,20 +1839,20 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
-      <c r="W7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB7" s="6"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
       <c r="AE7" s="6"/>
@@ -1819,31 +1860,34 @@
       <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ7" s="6"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="4">
+      <c r="K8" s="4"/>
+      <c r="L8" s="4">
         <v>233</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
         <v>264</v>
       </c>
-      <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -1853,17 +1897,17 @@
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
-      <c r="W8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA8" s="6"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
@@ -1872,62 +1916,63 @@
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ8" s="6"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="7"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="J9" s="7"/>
-      <c r="K9" s="7">
+      <c r="K9" s="7"/>
+      <c r="L9" s="7">
         <v>14</v>
       </c>
-      <c r="L9" s="7">
+      <c r="M9" s="7">
         <v>20</v>
-      </c>
-      <c r="M9" s="7">
-        <v>11</v>
       </c>
       <c r="N9" s="7">
         <v>11</v>
       </c>
-      <c r="O9" s="4"/>
+      <c r="O9" s="7">
+        <v>11</v>
+      </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="7">
+      <c r="R9" s="4"/>
+      <c r="S9" s="7">
         <v>1</v>
       </c>
-      <c r="S9" s="7">
+      <c r="T9" s="7">
         <v>10</v>
       </c>
-      <c r="T9" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="U9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="W9" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="X9" s="4"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="6"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="11"/>
       <c r="AC9" s="6"/>
       <c r="AD9" s="6"/>
       <c r="AE9" s="6"/>
@@ -1935,31 +1980,32 @@
       <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
       <c r="AI9" s="6"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ9" s="6"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="4">
+      <c r="K10" s="4"/>
+      <c r="L10" s="4">
         <v>467</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
         <v>326</v>
       </c>
-      <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -1968,22 +2014,22 @@
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
-      <c r="V10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="W10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="X10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="8" t="s">
+      <c r="V10" s="4"/>
+      <c r="W10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="Z10" s="10" t="s">
+      <c r="X10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AA10" s="6"/>
+      <c r="Y10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA10" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
@@ -1992,31 +2038,34 @@
       <c r="AG10" s="6"/>
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ10" s="6"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="4">
+      <c r="K11" s="4"/>
+      <c r="L11" s="4">
         <v>431</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
         <v>362</v>
       </c>
-      <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -2026,17 +2075,17 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
-      <c r="W11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X11" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA11" s="6"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
@@ -2045,62 +2094,63 @@
       <c r="AG11" s="6"/>
       <c r="AH11" s="6"/>
       <c r="AI11" s="6"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ11" s="6"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="7" t="s">
-        <v>55</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="7"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="J12" s="7"/>
-      <c r="K12" s="7">
+      <c r="K12" s="7"/>
+      <c r="L12" s="7">
         <v>14</v>
       </c>
-      <c r="L12" s="7">
+      <c r="M12" s="7">
         <v>20</v>
-      </c>
-      <c r="M12" s="7">
-        <v>11</v>
       </c>
       <c r="N12" s="7">
         <v>11</v>
       </c>
-      <c r="O12" s="4"/>
+      <c r="O12" s="7">
+        <v>11</v>
+      </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="7">
+      <c r="R12" s="4"/>
+      <c r="S12" s="7">
         <v>2</v>
       </c>
-      <c r="S12" s="7">
+      <c r="T12" s="7">
         <v>10</v>
       </c>
-      <c r="T12" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="U12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="W12" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="W12" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="X12" s="4"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="6"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="11"/>
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
       <c r="AE12" s="6"/>
@@ -2108,31 +2158,32 @@
       <c r="AG12" s="6"/>
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ12" s="6"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="4">
+      <c r="K13" s="4"/>
+      <c r="L13" s="4">
         <v>467</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <v>440</v>
       </c>
-      <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -2141,22 +2192,22 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
-      <c r="V13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="W13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="X13" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z13" s="10" t="s">
+      <c r="V13" s="4"/>
+      <c r="W13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AA13" s="6"/>
+      <c r="Y13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA13" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
@@ -2165,31 +2216,34 @@
       <c r="AG13" s="6"/>
       <c r="AH13" s="6"/>
       <c r="AI13" s="6"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ13" s="6"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="4">
+      <c r="K14" s="4"/>
+      <c r="L14" s="4">
         <v>431</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
         <v>446</v>
       </c>
-      <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -2199,17 +2253,17 @@
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
-      <c r="W14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X14" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA14" s="6"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
@@ -2218,62 +2272,63 @@
       <c r="AG14" s="6"/>
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ14" s="6"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="7"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="J15" s="7"/>
-      <c r="K15" s="7">
+      <c r="K15" s="7"/>
+      <c r="L15" s="7">
         <v>14</v>
       </c>
-      <c r="L15" s="7">
+      <c r="M15" s="7">
         <v>20</v>
-      </c>
-      <c r="M15" s="7">
-        <v>11</v>
       </c>
       <c r="N15" s="7">
         <v>11</v>
       </c>
-      <c r="O15" s="4"/>
+      <c r="O15" s="7">
+        <v>11</v>
+      </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
-      <c r="R15" s="7">
+      <c r="R15" s="4"/>
+      <c r="S15" s="7">
         <v>3</v>
       </c>
-      <c r="S15" s="7">
+      <c r="T15" s="7">
         <v>10</v>
       </c>
-      <c r="T15" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="U15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="W15" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="W15" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="X15" s="4"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="6"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="11"/>
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
       <c r="AE15" s="6"/>
@@ -2281,31 +2336,32 @@
       <c r="AG15" s="6"/>
       <c r="AH15" s="6"/>
       <c r="AI15" s="6"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ15" s="6"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="4">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4">
         <v>763</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
         <v>152</v>
       </c>
-      <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -2314,22 +2370,22 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="W16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X16" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="8" t="s">
+      <c r="V16" s="4"/>
+      <c r="W16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="X16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="Z16" s="10" t="s">
+      <c r="Y16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA16" s="6"/>
+      <c r="AA16" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
@@ -2338,31 +2394,34 @@
       <c r="AG16" s="6"/>
       <c r="AH16" s="6"/>
       <c r="AI16" s="6"/>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ16" s="6"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="4">
+      <c r="K17" s="4"/>
+      <c r="L17" s="4">
         <v>829</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
         <v>188</v>
       </c>
-      <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
@@ -2372,17 +2431,17 @@
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
-      <c r="W17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X17" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA17" s="6"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
       <c r="AD17" s="6"/>
@@ -2391,62 +2450,63 @@
       <c r="AG17" s="6"/>
       <c r="AH17" s="6"/>
       <c r="AI17" s="6"/>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ17" s="6"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="7"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="J18" s="7"/>
-      <c r="K18" s="7">
+      <c r="K18" s="7"/>
+      <c r="L18" s="7">
         <v>14</v>
       </c>
-      <c r="L18" s="7">
+      <c r="M18" s="7">
         <v>20</v>
-      </c>
-      <c r="M18" s="7">
-        <v>11</v>
       </c>
       <c r="N18" s="7">
         <v>11</v>
       </c>
-      <c r="O18" s="4"/>
+      <c r="O18" s="7">
+        <v>11</v>
+      </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
-      <c r="R18" s="7">
+      <c r="R18" s="4"/>
+      <c r="S18" s="7">
         <v>4</v>
       </c>
-      <c r="S18" s="7">
+      <c r="T18" s="7">
         <v>10</v>
       </c>
-      <c r="T18" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="U18" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="W18" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="W18" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="X18" s="4"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="6"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="11"/>
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
       <c r="AE18" s="6"/>
@@ -2454,31 +2514,32 @@
       <c r="AG18" s="6"/>
       <c r="AH18" s="6"/>
       <c r="AI18" s="6"/>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ18" s="6"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="J19" s="4"/>
-      <c r="K19" s="4">
+      <c r="K19" s="4"/>
+      <c r="L19" s="4">
         <v>763</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
         <v>266</v>
       </c>
-      <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
@@ -2487,22 +2548,22 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
-      <c r="V19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="W19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X19" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="8" t="s">
+      <c r="V19" s="4"/>
+      <c r="W19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="Z19" s="10" t="s">
+      <c r="Y19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA19" s="6"/>
+      <c r="AA19" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
       <c r="AD19" s="6"/>
@@ -2511,31 +2572,34 @@
       <c r="AG19" s="6"/>
       <c r="AH19" s="6"/>
       <c r="AI19" s="6"/>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ19" s="6"/>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J20" s="4"/>
-      <c r="K20" s="4">
+      <c r="K20" s="4"/>
+      <c r="L20" s="4">
         <v>829</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
         <v>272</v>
       </c>
-      <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
@@ -2545,17 +2609,17 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
-      <c r="W20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X20" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA20" s="6"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y20" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
       <c r="AD20" s="6"/>
@@ -2564,62 +2628,63 @@
       <c r="AG20" s="6"/>
       <c r="AH20" s="6"/>
       <c r="AI20" s="6"/>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ20" s="6"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="7"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="J21" s="7"/>
-      <c r="K21" s="7">
+      <c r="K21" s="7"/>
+      <c r="L21" s="7">
         <v>14</v>
       </c>
-      <c r="L21" s="7">
+      <c r="M21" s="7">
         <v>20</v>
-      </c>
-      <c r="M21" s="7">
-        <v>11</v>
       </c>
       <c r="N21" s="7">
         <v>11</v>
       </c>
-      <c r="O21" s="4"/>
+      <c r="O21" s="7">
+        <v>11</v>
+      </c>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
-      <c r="R21" s="7">
+      <c r="R21" s="4"/>
+      <c r="S21" s="7">
         <v>5</v>
       </c>
-      <c r="S21" s="7">
+      <c r="T21" s="7">
         <v>10</v>
       </c>
-      <c r="T21" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="U21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="W21" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="W21" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="X21" s="4"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="6"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="11"/>
       <c r="AC21" s="6"/>
       <c r="AD21" s="6"/>
       <c r="AE21" s="6"/>
@@ -2627,31 +2692,32 @@
       <c r="AG21" s="6"/>
       <c r="AH21" s="6"/>
       <c r="AI21" s="6"/>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ21" s="6"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="J22" s="4"/>
-      <c r="K22" s="4">
+      <c r="K22" s="4"/>
+      <c r="L22" s="4">
         <v>1063</v>
       </c>
-      <c r="L22" s="4">
+      <c r="M22" s="4">
         <v>326</v>
       </c>
-      <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
@@ -2660,22 +2726,22 @@
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
-      <c r="V22" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="W22" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="X22" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z22" s="10" t="s">
+      <c r="V22" s="4"/>
+      <c r="W22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X22" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AA22" s="6"/>
+      <c r="Y22" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA22" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
       <c r="AD22" s="6"/>
@@ -2684,31 +2750,34 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ22" s="6"/>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J23" s="4"/>
-      <c r="K23" s="4">
+      <c r="K23" s="4"/>
+      <c r="L23" s="4">
         <v>1027</v>
       </c>
-      <c r="L23" s="4">
+      <c r="M23" s="4">
         <v>362</v>
       </c>
-      <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
@@ -2718,17 +2787,17 @@
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
-      <c r="W23" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X23" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA23" s="6"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y23" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="AB23" s="6"/>
       <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
@@ -2737,31 +2806,34 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ23" s="6"/>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J24" s="4"/>
-      <c r="K24" s="4">
+      <c r="K24" s="4"/>
+      <c r="L24" s="4">
         <v>1035</v>
       </c>
-      <c r="L24" s="4">
+      <c r="M24" s="4">
         <v>380</v>
       </c>
-      <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
@@ -2771,17 +2843,17 @@
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
-      <c r="W24" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X24" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA24" s="6"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y24" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="AB24" s="6"/>
       <c r="AC24" s="6"/>
       <c r="AD24" s="6"/>
@@ -2790,60 +2862,61 @@
       <c r="AG24" s="6"/>
       <c r="AH24" s="6"/>
       <c r="AI24" s="6"/>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ24" s="6"/>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="7" t="s">
-        <v>70</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I25" s="7"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="J25" s="7"/>
-      <c r="K25" s="7">
+      <c r="K25" s="7"/>
+      <c r="L25" s="7">
         <v>14</v>
       </c>
-      <c r="L25" s="7">
+      <c r="M25" s="7">
         <v>20</v>
-      </c>
-      <c r="M25" s="7">
-        <v>11</v>
       </c>
       <c r="N25" s="7">
         <v>11</v>
       </c>
-      <c r="O25" s="4"/>
+      <c r="O25" s="7">
+        <v>11</v>
+      </c>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
-      <c r="R25" s="7">
+      <c r="R25" s="4"/>
+      <c r="S25" s="7">
         <v>6</v>
       </c>
-      <c r="S25" s="7">
+      <c r="T25" s="7">
         <v>10</v>
       </c>
-      <c r="T25" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="U25" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="W25" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="W25" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="X25" s="4"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="6"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="5"/>
       <c r="AA25" s="6"/>
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
@@ -2853,31 +2926,32 @@
       <c r="AG25" s="6"/>
       <c r="AH25" s="6"/>
       <c r="AI25" s="6"/>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ25" s="6"/>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="J26" s="4"/>
-      <c r="K26" s="4">
+      <c r="K26" s="4"/>
+      <c r="L26" s="4">
         <v>214</v>
       </c>
-      <c r="L26" s="4">
+      <c r="M26" s="4">
         <v>339</v>
       </c>
-      <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
@@ -2886,22 +2960,22 @@
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
-      <c r="V26" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="W26" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X26" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z26" s="10" t="s">
+      <c r="V26" s="4"/>
+      <c r="W26" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AA26" s="6"/>
+      <c r="X26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y26" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA26" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="AB26" s="6"/>
       <c r="AC26" s="6"/>
       <c r="AD26" s="6"/>
@@ -2910,60 +2984,61 @@
       <c r="AG26" s="6"/>
       <c r="AH26" s="6"/>
       <c r="AI26" s="6"/>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ26" s="6"/>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="7" t="s">
-        <v>75</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I27" s="7"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="J27" s="7"/>
-      <c r="K27" s="7">
+      <c r="K27" s="7"/>
+      <c r="L27" s="7">
         <v>5</v>
       </c>
-      <c r="L27" s="7">
+      <c r="M27" s="7">
         <v>23</v>
       </c>
-      <c r="M27" s="7">
+      <c r="N27" s="7">
         <v>15</v>
       </c>
-      <c r="N27" s="7">
+      <c r="O27" s="7">
         <v>12</v>
       </c>
-      <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
-      <c r="R27" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="S27" s="7">
+      <c r="R27" s="4"/>
+      <c r="S27" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="T27" s="7">
         <v>10</v>
       </c>
-      <c r="T27" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="U27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="W27" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="W27" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="X27" s="4"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="6"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="5"/>
       <c r="AA27" s="6"/>
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
@@ -2973,31 +3048,32 @@
       <c r="AG27" s="6"/>
       <c r="AH27" s="6"/>
       <c r="AI27" s="6"/>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ27" s="6"/>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="J28" s="4"/>
-      <c r="K28" s="4">
+      <c r="K28" s="4"/>
+      <c r="L28" s="4">
         <v>719</v>
       </c>
-      <c r="L28" s="4">
+      <c r="M28" s="4">
         <v>165</v>
       </c>
-      <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
@@ -3006,22 +3082,22 @@
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
-      <c r="V28" s="4" t="s">
+      <c r="V28" s="4"/>
+      <c r="W28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="X28" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y28" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA28" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="W28" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X28" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z28" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA28" s="6"/>
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
       <c r="AD28" s="6"/>
@@ -3030,60 +3106,61 @@
       <c r="AG28" s="6"/>
       <c r="AH28" s="6"/>
       <c r="AI28" s="6"/>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ28" s="6"/>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="7" t="s">
-        <v>79</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I29" s="7"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="J29" s="7"/>
-      <c r="K29" s="7">
+      <c r="K29" s="7"/>
+      <c r="L29" s="7">
         <v>5</v>
       </c>
-      <c r="L29" s="7">
+      <c r="M29" s="7">
         <v>23</v>
       </c>
-      <c r="M29" s="7">
+      <c r="N29" s="7">
         <v>15</v>
       </c>
-      <c r="N29" s="7">
+      <c r="O29" s="7">
         <v>12</v>
       </c>
-      <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
-      <c r="R29" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="S29" s="7">
+      <c r="R29" s="4"/>
+      <c r="S29" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="T29" s="7">
         <v>10</v>
       </c>
-      <c r="T29" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="U29" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="W29" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="W29" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="X29" s="4"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="6"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="5"/>
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
@@ -3093,31 +3170,32 @@
       <c r="AG29" s="6"/>
       <c r="AH29" s="6"/>
       <c r="AI29" s="6"/>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ29" s="6"/>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="J30" s="4"/>
-      <c r="K30" s="4">
+      <c r="K30" s="4"/>
+      <c r="L30" s="4">
         <v>719</v>
       </c>
-      <c r="L30" s="4">
+      <c r="M30" s="4">
         <v>279</v>
       </c>
-      <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
@@ -3126,22 +3204,22 @@
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
-      <c r="V30" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="W30" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X30" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z30" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA30" s="6"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="X30" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y30" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA30" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
       <c r="AD30" s="6"/>
@@ -3150,60 +3228,61 @@
       <c r="AG30" s="6"/>
       <c r="AH30" s="6"/>
       <c r="AI30" s="6"/>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ30" s="6"/>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="7" t="s">
-        <v>81</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I31" s="7"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="J31" s="7"/>
-      <c r="K31" s="7">
+      <c r="K31" s="7"/>
+      <c r="L31" s="7">
         <v>5</v>
       </c>
-      <c r="L31" s="7">
+      <c r="M31" s="7">
         <v>23</v>
       </c>
-      <c r="M31" s="7">
+      <c r="N31" s="7">
         <v>15</v>
       </c>
-      <c r="N31" s="7">
+      <c r="O31" s="7">
         <v>12</v>
       </c>
-      <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
-      <c r="R31" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="S31" s="7">
+      <c r="R31" s="4"/>
+      <c r="S31" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="T31" s="7">
         <v>10</v>
       </c>
-      <c r="T31" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="U31" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V31" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="W31" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="W31" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="X31" s="4"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="6"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="5"/>
       <c r="AA31" s="6"/>
       <c r="AB31" s="6"/>
       <c r="AC31" s="6"/>
@@ -3213,31 +3292,32 @@
       <c r="AG31" s="6"/>
       <c r="AH31" s="6"/>
       <c r="AI31" s="6"/>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ31" s="6"/>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="J32" s="4"/>
-      <c r="K32" s="4">
+      <c r="K32" s="4"/>
+      <c r="L32" s="4">
         <v>719</v>
       </c>
-      <c r="L32" s="4">
+      <c r="M32" s="4">
         <v>339</v>
       </c>
-      <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
@@ -3246,22 +3326,22 @@
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
-      <c r="V32" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="W32" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X32" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z32" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA32" s="6"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="X32" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y32" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA32" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="AB32" s="6"/>
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
@@ -3270,60 +3350,61 @@
       <c r="AG32" s="6"/>
       <c r="AH32" s="6"/>
       <c r="AI32" s="6"/>
-    </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ32" s="6"/>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="7" t="s">
-        <v>83</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I33" s="7"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="J33" s="7"/>
-      <c r="K33" s="7">
+      <c r="K33" s="7"/>
+      <c r="L33" s="7">
         <v>5</v>
       </c>
-      <c r="L33" s="7">
+      <c r="M33" s="7">
         <v>23</v>
       </c>
-      <c r="M33" s="7">
+      <c r="N33" s="7">
         <v>15</v>
       </c>
-      <c r="N33" s="7">
+      <c r="O33" s="7">
         <v>12</v>
       </c>
-      <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
-      <c r="R33" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="S33" s="7">
+      <c r="R33" s="4"/>
+      <c r="S33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="T33" s="7">
         <v>10</v>
       </c>
-      <c r="T33" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="U33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="W33" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="W33" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="X33" s="4"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="6"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="5"/>
       <c r="AA33" s="6"/>
       <c r="AB33" s="6"/>
       <c r="AC33" s="6"/>
@@ -3333,31 +3414,32 @@
       <c r="AG33" s="6"/>
       <c r="AH33" s="6"/>
       <c r="AI33" s="6"/>
-    </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ33" s="6"/>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="J34" s="4"/>
-      <c r="K34" s="4">
+      <c r="K34" s="4"/>
+      <c r="L34" s="4">
         <v>719</v>
       </c>
-      <c r="L34" s="4">
+      <c r="M34" s="4">
         <v>453</v>
       </c>
-      <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
@@ -3366,22 +3448,22 @@
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
-      <c r="V34" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="W34" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X34" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z34" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA34" s="6"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="X34" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y34" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA34" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="AB34" s="6"/>
       <c r="AC34" s="6"/>
       <c r="AD34" s="6"/>
@@ -3390,60 +3472,61 @@
       <c r="AG34" s="6"/>
       <c r="AH34" s="6"/>
       <c r="AI34" s="6"/>
-    </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ34" s="6"/>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="7" t="s">
-        <v>85</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I35" s="7"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="J35" s="7"/>
-      <c r="K35" s="7">
+      <c r="K35" s="7"/>
+      <c r="L35" s="7">
         <v>5</v>
       </c>
-      <c r="L35" s="7">
+      <c r="M35" s="7">
         <v>23</v>
       </c>
-      <c r="M35" s="7">
+      <c r="N35" s="7">
         <v>15</v>
       </c>
-      <c r="N35" s="7">
+      <c r="O35" s="7">
         <v>12</v>
       </c>
-      <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
-      <c r="R35" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="S35" s="7">
+      <c r="R35" s="4"/>
+      <c r="S35" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="T35" s="7">
         <v>10</v>
       </c>
-      <c r="T35" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="U35" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V35" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="W35" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="W35" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="X35" s="4"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="6"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="5"/>
       <c r="AA35" s="6"/>
       <c r="AB35" s="6"/>
       <c r="AC35" s="6"/>
@@ -3453,31 +3536,32 @@
       <c r="AG35" s="6"/>
       <c r="AH35" s="6"/>
       <c r="AI35" s="6"/>
-    </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ35" s="6"/>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="J36" s="4"/>
-      <c r="K36" s="4">
+      <c r="K36" s="4"/>
+      <c r="L36" s="4">
         <v>1030</v>
       </c>
-      <c r="L36" s="4">
+      <c r="M36" s="4">
         <v>279</v>
       </c>
-      <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
@@ -3486,22 +3570,22 @@
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
-      <c r="V36" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="W36" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X36" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z36" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA36" s="6"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="X36" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y36" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA36" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="AB36" s="6"/>
       <c r="AC36" s="6"/>
       <c r="AD36" s="6"/>
@@ -3510,60 +3594,61 @@
       <c r="AG36" s="6"/>
       <c r="AH36" s="6"/>
       <c r="AI36" s="6"/>
-    </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ36" s="6"/>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="7" t="s">
-        <v>87</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I37" s="7"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="J37" s="7"/>
-      <c r="K37" s="7">
+      <c r="K37" s="7"/>
+      <c r="L37" s="7">
         <v>5</v>
       </c>
-      <c r="L37" s="7">
+      <c r="M37" s="7">
         <v>23</v>
       </c>
-      <c r="M37" s="7">
+      <c r="N37" s="7">
         <v>15</v>
       </c>
-      <c r="N37" s="7">
+      <c r="O37" s="7">
         <v>12</v>
       </c>
-      <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
-      <c r="R37" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="S37" s="7">
+      <c r="R37" s="4"/>
+      <c r="S37" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="T37" s="7">
         <v>10</v>
       </c>
-      <c r="T37" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="U37" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V37" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="W37" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="W37" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="X37" s="4"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="6"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="5"/>
       <c r="AA37" s="6"/>
       <c r="AB37" s="6"/>
       <c r="AC37" s="6"/>
@@ -3573,31 +3658,32 @@
       <c r="AG37" s="6"/>
       <c r="AH37" s="6"/>
       <c r="AI37" s="6"/>
-    </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ37" s="6"/>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="J38" s="4"/>
-      <c r="K38" s="4">
+      <c r="K38" s="4"/>
+      <c r="L38" s="4">
         <v>304</v>
       </c>
-      <c r="L38" s="4">
+      <c r="M38" s="4">
         <v>551</v>
       </c>
-      <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
@@ -3606,23 +3692,23 @@
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
-      <c r="V38" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="W38" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="X38" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z38" s="13" t="s">
+      <c r="V38" s="4"/>
+      <c r="W38" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AA38" s="11"/>
-      <c r="AB38" s="6"/>
+      <c r="X38" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y38" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA38" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB38" s="11"/>
       <c r="AC38" s="6"/>
       <c r="AD38" s="6"/>
       <c r="AE38" s="6"/>
@@ -3630,31 +3716,32 @@
       <c r="AG38" s="6"/>
       <c r="AH38" s="6"/>
       <c r="AI38" s="6"/>
-    </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ38" s="6"/>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="J39" s="4"/>
-      <c r="K39" s="4">
+      <c r="K39" s="4"/>
+      <c r="L39" s="4">
         <v>1111</v>
       </c>
-      <c r="L39" s="4">
+      <c r="M39" s="4">
         <v>551</v>
       </c>
-      <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
@@ -3663,23 +3750,23 @@
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
-      <c r="V39" s="4" t="s">
+      <c r="V39" s="4"/>
+      <c r="W39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="X39" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y39" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="W39" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="X39" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z39" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA39" s="11"/>
-      <c r="AB39" s="6"/>
+      <c r="AA39" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB39" s="11"/>
       <c r="AC39" s="6"/>
       <c r="AD39" s="6"/>
       <c r="AE39" s="6"/>
@@ -3687,31 +3774,32 @@
       <c r="AG39" s="6"/>
       <c r="AH39" s="6"/>
       <c r="AI39" s="6"/>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ39" s="6"/>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="J40" s="4"/>
-      <c r="K40" s="4">
+      <c r="K40" s="4"/>
+      <c r="L40" s="4">
         <v>245</v>
       </c>
-      <c r="L40" s="4">
+      <c r="M40" s="4">
         <v>64</v>
       </c>
-      <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
@@ -3720,25 +3808,25 @@
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
-      <c r="V40" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="W40" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="X40" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="8" t="s">
+      <c r="V40" s="4"/>
+      <c r="W40" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="Z40" s="10" t="s">
+      <c r="X40" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AA40" s="6" t="s">
+      <c r="Y40" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="AB40" s="6"/>
+      <c r="AA40" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB40" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="AC40" s="6"/>
       <c r="AD40" s="6"/>
       <c r="AE40" s="6"/>
@@ -3746,31 +3834,34 @@
       <c r="AG40" s="6"/>
       <c r="AH40" s="6"/>
       <c r="AI40" s="6"/>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ40" s="6"/>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J41" s="4"/>
-      <c r="K41" s="4">
+      <c r="K41" s="4"/>
+      <c r="L41" s="4">
         <v>243</v>
       </c>
-      <c r="L41" s="4">
+      <c r="M41" s="4">
         <v>45</v>
       </c>
-      <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
@@ -3780,17 +3871,17 @@
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
-      <c r="W41" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X41" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="8"/>
-      <c r="Z41" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA41" s="6"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y41" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="10" t="s">
+        <v>102</v>
+      </c>
       <c r="AB41" s="6"/>
       <c r="AC41" s="6"/>
       <c r="AD41" s="6"/>
@@ -3799,31 +3890,34 @@
       <c r="AG41" s="6"/>
       <c r="AH41" s="6"/>
       <c r="AI41" s="6"/>
-    </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ41" s="6"/>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="E42" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J42" s="4"/>
-      <c r="K42" s="4">
+      <c r="K42" s="4"/>
+      <c r="L42" s="4">
         <v>277</v>
       </c>
-      <c r="L42" s="4">
+      <c r="M42" s="4">
         <v>45</v>
       </c>
-      <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
@@ -3833,17 +3927,17 @@
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
-      <c r="W42" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X42" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="8"/>
-      <c r="Z42" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA42" s="6"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y42" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="10" t="s">
+        <v>104</v>
+      </c>
       <c r="AB42" s="6"/>
       <c r="AC42" s="6"/>
       <c r="AD42" s="6"/>
@@ -3852,60 +3946,61 @@
       <c r="AG42" s="6"/>
       <c r="AH42" s="6"/>
       <c r="AI42" s="6"/>
-    </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ42" s="6"/>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="7" t="s">
-        <v>93</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I43" s="7"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="J43" s="7"/>
-      <c r="K43" s="7">
+      <c r="K43" s="7"/>
+      <c r="L43" s="7">
         <v>14</v>
       </c>
-      <c r="L43" s="7">
+      <c r="M43" s="7">
         <v>20</v>
-      </c>
-      <c r="M43" s="7">
-        <v>11</v>
       </c>
       <c r="N43" s="7">
         <v>11</v>
       </c>
-      <c r="O43" s="4"/>
+      <c r="O43" s="7">
+        <v>11</v>
+      </c>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
-      <c r="R43" s="7">
+      <c r="R43" s="4"/>
+      <c r="S43" s="7">
         <v>21</v>
       </c>
-      <c r="S43" s="7">
+      <c r="T43" s="7">
         <v>10</v>
       </c>
-      <c r="T43" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="U43" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V43" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="W43" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="W43" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="X43" s="4"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="6"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="5"/>
       <c r="AA43" s="6"/>
       <c r="AB43" s="6"/>
       <c r="AC43" s="6"/>
@@ -3915,31 +4010,32 @@
       <c r="AG43" s="6"/>
       <c r="AH43" s="6"/>
       <c r="AI43" s="6"/>
-    </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ43" s="6"/>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="J44" s="4"/>
-      <c r="K44" s="4">
+      <c r="K44" s="4"/>
+      <c r="L44" s="4">
         <v>313</v>
       </c>
-      <c r="L44" s="4">
+      <c r="M44" s="4">
         <v>64</v>
       </c>
-      <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
@@ -3948,22 +4044,22 @@
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
-      <c r="V44" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="W44" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="X44" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z44" s="10" t="s">
+      <c r="V44" s="4"/>
+      <c r="W44" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="X44" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AA44" s="6"/>
+      <c r="Y44" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA44" s="10" t="s">
+        <v>98</v>
+      </c>
       <c r="AB44" s="6"/>
       <c r="AC44" s="6"/>
       <c r="AD44" s="6"/>
@@ -3972,31 +4068,34 @@
       <c r="AG44" s="6"/>
       <c r="AH44" s="6"/>
       <c r="AI44" s="6"/>
-    </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ44" s="6"/>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="E45" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J45" s="4"/>
-      <c r="K45" s="4">
+      <c r="K45" s="4"/>
+      <c r="L45" s="4">
         <v>311</v>
       </c>
-      <c r="L45" s="4">
+      <c r="M45" s="4">
         <v>45</v>
       </c>
-      <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
@@ -4006,17 +4105,17 @@
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
-      <c r="W45" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X45" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="8"/>
-      <c r="Z45" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA45" s="6"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y45" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="10" t="s">
+        <v>102</v>
+      </c>
       <c r="AB45" s="6"/>
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
@@ -4025,31 +4124,34 @@
       <c r="AG45" s="6"/>
       <c r="AH45" s="6"/>
       <c r="AI45" s="6"/>
-    </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ45" s="6"/>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
+      <c r="E46" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J46" s="4"/>
-      <c r="K46" s="4">
+      <c r="K46" s="4"/>
+      <c r="L46" s="4">
         <v>345</v>
       </c>
-      <c r="L46" s="4">
+      <c r="M46" s="4">
         <v>45</v>
       </c>
-      <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
@@ -4059,17 +4161,17 @@
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
-      <c r="W46" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X46" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="8"/>
-      <c r="Z46" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA46" s="6"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y46" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="10" t="s">
+        <v>104</v>
+      </c>
       <c r="AB46" s="6"/>
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
@@ -4078,60 +4180,61 @@
       <c r="AG46" s="6"/>
       <c r="AH46" s="6"/>
       <c r="AI46" s="6"/>
-    </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ46" s="6"/>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I47" s="7"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="J47" s="7"/>
-      <c r="K47" s="7">
+      <c r="K47" s="7"/>
+      <c r="L47" s="7">
         <v>14</v>
       </c>
-      <c r="L47" s="7">
+      <c r="M47" s="7">
         <v>20</v>
-      </c>
-      <c r="M47" s="7">
-        <v>11</v>
       </c>
       <c r="N47" s="7">
         <v>11</v>
       </c>
-      <c r="O47" s="4"/>
+      <c r="O47" s="7">
+        <v>11</v>
+      </c>
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
-      <c r="R47" s="7">
+      <c r="R47" s="4"/>
+      <c r="S47" s="7">
         <v>22</v>
       </c>
-      <c r="S47" s="7">
+      <c r="T47" s="7">
         <v>10</v>
       </c>
-      <c r="T47" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="U47" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V47" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="W47" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="W47" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="X47" s="4"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="6"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="5"/>
       <c r="AA47" s="6"/>
       <c r="AB47" s="6"/>
       <c r="AC47" s="6"/>
@@ -4141,31 +4244,32 @@
       <c r="AG47" s="6"/>
       <c r="AH47" s="6"/>
       <c r="AI47" s="6"/>
-    </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ47" s="6"/>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="J48" s="4"/>
-      <c r="K48" s="4">
+      <c r="K48" s="4"/>
+      <c r="L48" s="4">
         <v>917</v>
       </c>
-      <c r="L48" s="4">
+      <c r="M48" s="4">
         <v>64</v>
       </c>
-      <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
@@ -4174,22 +4278,22 @@
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
-      <c r="V48" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="W48" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="X48" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z48" s="10" t="s">
+      <c r="V48" s="4"/>
+      <c r="W48" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="X48" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AA48" s="6"/>
+      <c r="Y48" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA48" s="10" t="s">
+        <v>98</v>
+      </c>
       <c r="AB48" s="6"/>
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
@@ -4198,31 +4302,34 @@
       <c r="AG48" s="6"/>
       <c r="AH48" s="6"/>
       <c r="AI48" s="6"/>
-    </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ48" s="6"/>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+      <c r="E49" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J49" s="4"/>
-      <c r="K49" s="4">
+      <c r="K49" s="4"/>
+      <c r="L49" s="4">
         <v>915</v>
       </c>
-      <c r="L49" s="4">
+      <c r="M49" s="4">
         <v>45</v>
       </c>
-      <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
@@ -4232,17 +4339,17 @@
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
-      <c r="W49" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X49" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="8"/>
-      <c r="Z49" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA49" s="6"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y49" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="10" t="s">
+        <v>102</v>
+      </c>
       <c r="AB49" s="6"/>
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
@@ -4251,31 +4358,34 @@
       <c r="AG49" s="6"/>
       <c r="AH49" s="6"/>
       <c r="AI49" s="6"/>
-    </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ49" s="6"/>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
+      <c r="E50" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J50" s="4"/>
-      <c r="K50" s="4">
+      <c r="K50" s="4"/>
+      <c r="L50" s="4">
         <v>949</v>
       </c>
-      <c r="L50" s="4">
+      <c r="M50" s="4">
         <v>45</v>
       </c>
-      <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
@@ -4285,17 +4395,17 @@
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
-      <c r="W50" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X50" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="8"/>
-      <c r="Z50" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA50" s="6"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y50" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="10" t="s">
+        <v>104</v>
+      </c>
       <c r="AB50" s="6"/>
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
@@ -4304,60 +4414,61 @@
       <c r="AG50" s="6"/>
       <c r="AH50" s="6"/>
       <c r="AI50" s="6"/>
-    </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ50" s="6"/>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="7" t="s">
-        <v>107</v>
-      </c>
+      <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I51" s="7"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="J51" s="7"/>
-      <c r="K51" s="7">
+      <c r="K51" s="7"/>
+      <c r="L51" s="7">
         <v>14</v>
       </c>
-      <c r="L51" s="7">
+      <c r="M51" s="7">
         <v>20</v>
-      </c>
-      <c r="M51" s="7">
-        <v>11</v>
       </c>
       <c r="N51" s="7">
         <v>11</v>
       </c>
-      <c r="O51" s="4"/>
+      <c r="O51" s="7">
+        <v>11</v>
+      </c>
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
-      <c r="R51" s="7">
+      <c r="R51" s="4"/>
+      <c r="S51" s="7">
         <v>23</v>
       </c>
-      <c r="S51" s="7">
+      <c r="T51" s="7">
         <v>10</v>
       </c>
-      <c r="T51" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="U51" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V51" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="W51" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="W51" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="X51" s="4"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="6"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="5"/>
       <c r="AA51" s="6"/>
       <c r="AB51" s="6"/>
       <c r="AC51" s="6"/>
@@ -4367,31 +4478,32 @@
       <c r="AG51" s="6"/>
       <c r="AH51" s="6"/>
       <c r="AI51" s="6"/>
-    </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ51" s="6"/>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="J52" s="4"/>
-      <c r="K52" s="4">
+      <c r="K52" s="4"/>
+      <c r="L52" s="4">
         <v>985</v>
       </c>
-      <c r="L52" s="4">
+      <c r="M52" s="4">
         <v>64</v>
       </c>
-      <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
@@ -4400,22 +4512,22 @@
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
-      <c r="V52" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="W52" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="X52" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z52" s="10" t="s">
+      <c r="V52" s="4"/>
+      <c r="W52" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="X52" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AA52" s="6"/>
+      <c r="Y52" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA52" s="10" t="s">
+        <v>98</v>
+      </c>
       <c r="AB52" s="6"/>
       <c r="AC52" s="6"/>
       <c r="AD52" s="6"/>
@@ -4424,31 +4536,34 @@
       <c r="AG52" s="6"/>
       <c r="AH52" s="6"/>
       <c r="AI52" s="6"/>
-    </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ52" s="6"/>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
+      <c r="E53" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J53" s="4"/>
-      <c r="K53" s="4">
+      <c r="K53" s="4"/>
+      <c r="L53" s="4">
         <v>983</v>
       </c>
-      <c r="L53" s="4">
+      <c r="M53" s="4">
         <v>45</v>
       </c>
-      <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
@@ -4458,17 +4573,17 @@
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
-      <c r="W53" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X53" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="8"/>
-      <c r="Z53" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA53" s="6"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y53" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="10" t="s">
+        <v>102</v>
+      </c>
       <c r="AB53" s="6"/>
       <c r="AC53" s="6"/>
       <c r="AD53" s="6"/>
@@ -4477,31 +4592,34 @@
       <c r="AG53" s="6"/>
       <c r="AH53" s="6"/>
       <c r="AI53" s="6"/>
-    </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ53" s="6"/>
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
+      <c r="E54" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J54" s="4"/>
-      <c r="K54" s="4">
+      <c r="K54" s="4"/>
+      <c r="L54" s="4">
         <v>1017</v>
       </c>
-      <c r="L54" s="4">
+      <c r="M54" s="4">
         <v>45</v>
       </c>
-      <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
@@ -4511,17 +4629,17 @@
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
       <c r="V54" s="4"/>
-      <c r="W54" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X54" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="8"/>
-      <c r="Z54" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA54" s="6"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y54" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="10" t="s">
+        <v>104</v>
+      </c>
       <c r="AB54" s="6"/>
       <c r="AC54" s="6"/>
       <c r="AD54" s="6"/>
@@ -4530,60 +4648,61 @@
       <c r="AG54" s="6"/>
       <c r="AH54" s="6"/>
       <c r="AI54" s="6"/>
-    </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ54" s="6"/>
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B55" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="7" t="s">
-        <v>111</v>
-      </c>
+      <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I55" s="7"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="J55" s="7"/>
-      <c r="K55" s="7">
+      <c r="K55" s="7"/>
+      <c r="L55" s="7">
         <v>14</v>
       </c>
-      <c r="L55" s="7">
+      <c r="M55" s="7">
         <v>20</v>
-      </c>
-      <c r="M55" s="7">
-        <v>11</v>
       </c>
       <c r="N55" s="7">
         <v>11</v>
       </c>
-      <c r="O55" s="4"/>
+      <c r="O55" s="7">
+        <v>11</v>
+      </c>
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
-      <c r="R55" s="7">
+      <c r="R55" s="4"/>
+      <c r="S55" s="7">
         <v>24</v>
       </c>
-      <c r="S55" s="7">
+      <c r="T55" s="7">
         <v>10</v>
       </c>
-      <c r="T55" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="U55" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V55" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="W55" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="W55" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="X55" s="4"/>
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="6"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="5"/>
       <c r="AA55" s="6"/>
       <c r="AB55" s="6"/>
       <c r="AC55" s="6"/>
@@ -4593,31 +4712,32 @@
       <c r="AG55" s="6"/>
       <c r="AH55" s="6"/>
       <c r="AI55" s="6"/>
-    </row>
-    <row r="56" spans="1:35" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="AJ55" s="6"/>
+    </row>
+    <row r="56" spans="1:36" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
-      <c r="K56" s="4">
+      <c r="K56" s="4"/>
+      <c r="L56" s="4">
         <v>1347</v>
       </c>
-      <c r="L56" s="4">
+      <c r="M56" s="4">
         <v>64</v>
       </c>
-      <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
@@ -4626,25 +4746,25 @@
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
-      <c r="V56" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="W56" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="X56" s="7">
+      <c r="V56" s="4"/>
+      <c r="W56" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="X56" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y56" s="7">
         <v>1</v>
       </c>
-      <c r="Y56" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z56" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA56" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB56" s="6"/>
+      <c r="Z56" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA56" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB56" s="6" t="s">
+        <v>122</v>
+      </c>
       <c r="AC56" s="6"/>
       <c r="AD56" s="6"/>
       <c r="AE56" s="6"/>
@@ -4652,29 +4772,32 @@
       <c r="AG56" s="6"/>
       <c r="AH56" s="6"/>
       <c r="AI56" s="6"/>
-    </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ56" s="6"/>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
+      <c r="E57" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="4">
+      <c r="K57" s="4"/>
+      <c r="L57" s="4">
         <v>1345</v>
       </c>
-      <c r="L57" s="4">
+      <c r="M57" s="4">
         <v>45</v>
       </c>
-      <c r="M57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
@@ -4684,17 +4807,17 @@
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
       <c r="V57" s="4"/>
-      <c r="W57" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="X57" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="3"/>
-      <c r="Z57" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA57" s="6"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y57" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="13" t="s">
+        <v>104</v>
+      </c>
       <c r="AB57" s="6"/>
       <c r="AC57" s="6"/>
       <c r="AD57" s="6"/>
@@ -4703,29 +4826,32 @@
       <c r="AG57" s="6"/>
       <c r="AH57" s="6"/>
       <c r="AI57" s="6"/>
-    </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ57" s="6"/>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
+      <c r="E58" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="4">
+      <c r="K58" s="4"/>
+      <c r="L58" s="4">
         <v>1379</v>
       </c>
-      <c r="L58" s="4">
+      <c r="M58" s="4">
         <v>45</v>
       </c>
-      <c r="M58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
@@ -4735,17 +4861,17 @@
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
-      <c r="W58" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="X58" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="3"/>
-      <c r="Z58" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA58" s="6"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y58" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3"/>
+      <c r="AA58" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="AB58" s="6"/>
       <c r="AC58" s="6"/>
       <c r="AD58" s="6"/>
@@ -4754,29 +4880,32 @@
       <c r="AG58" s="6"/>
       <c r="AH58" s="6"/>
       <c r="AI58" s="6"/>
-    </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ58" s="6"/>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
+      <c r="E59" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="4">
+      <c r="K59" s="4"/>
+      <c r="L59" s="4">
         <v>52</v>
       </c>
-      <c r="L59" s="4">
+      <c r="M59" s="4">
         <v>289</v>
       </c>
-      <c r="M59" s="4"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
@@ -4786,20 +4915,20 @@
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
       <c r="V59" s="4"/>
-      <c r="W59" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X59" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="3"/>
-      <c r="Z59" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA59" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB59" s="6"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y59" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB59" s="11" t="s">
+        <v>130</v>
+      </c>
       <c r="AC59" s="6"/>
       <c r="AD59" s="6"/>
       <c r="AE59" s="6"/>
@@ -4807,29 +4936,32 @@
       <c r="AG59" s="6"/>
       <c r="AH59" s="6"/>
       <c r="AI59" s="6"/>
-    </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ59" s="6"/>
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
+      <c r="E60" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
-      <c r="K60" s="4">
+      <c r="K60" s="4"/>
+      <c r="L60" s="4">
         <v>82</v>
       </c>
-      <c r="L60" s="4">
+      <c r="M60" s="4">
         <v>289</v>
       </c>
-      <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
@@ -4839,18 +4971,18 @@
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
       <c r="V60" s="4"/>
-      <c r="W60" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X60" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y60" s="3"/>
-      <c r="Z60" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA60" s="11"/>
-      <c r="AB60" s="6"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y60" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="3"/>
+      <c r="AA60" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB60" s="11"/>
       <c r="AC60" s="6"/>
       <c r="AD60" s="6"/>
       <c r="AE60" s="6"/>
@@ -4858,29 +4990,32 @@
       <c r="AG60" s="6"/>
       <c r="AH60" s="6"/>
       <c r="AI60" s="6"/>
-    </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ60" s="6"/>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
+      <c r="E61" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-      <c r="K61" s="4">
+      <c r="K61" s="4"/>
+      <c r="L61" s="4">
         <v>112</v>
       </c>
-      <c r="L61" s="4">
+      <c r="M61" s="4">
         <v>289</v>
       </c>
-      <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
@@ -4890,18 +5025,18 @@
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
-      <c r="W61" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X61" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="3"/>
-      <c r="Z61" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA61" s="11"/>
-      <c r="AB61" s="6"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y61" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3"/>
+      <c r="AA61" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB61" s="11"/>
       <c r="AC61" s="6"/>
       <c r="AD61" s="6"/>
       <c r="AE61" s="6"/>
@@ -4909,29 +5044,32 @@
       <c r="AG61" s="6"/>
       <c r="AH61" s="6"/>
       <c r="AI61" s="6"/>
-    </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ61" s="6"/>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
+      <c r="E62" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="4">
+      <c r="K62" s="4"/>
+      <c r="L62" s="4">
         <v>144</v>
       </c>
-      <c r="L62" s="4">
+      <c r="M62" s="4">
         <v>289</v>
       </c>
-      <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
@@ -4941,18 +5079,18 @@
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
       <c r="V62" s="4"/>
-      <c r="W62" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X62" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="3"/>
-      <c r="Z62" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA62" s="11"/>
-      <c r="AB62" s="6"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y62" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3"/>
+      <c r="AA62" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB62" s="11"/>
       <c r="AC62" s="6"/>
       <c r="AD62" s="6"/>
       <c r="AE62" s="6"/>
@@ -4960,29 +5098,32 @@
       <c r="AG62" s="6"/>
       <c r="AH62" s="6"/>
       <c r="AI62" s="6"/>
-    </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ62" s="6"/>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
+      <c r="E63" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="4">
+      <c r="K63" s="4"/>
+      <c r="L63" s="4">
         <v>226</v>
       </c>
-      <c r="L63" s="4">
+      <c r="M63" s="4">
         <v>289</v>
       </c>
-      <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
@@ -4992,18 +5133,18 @@
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
       <c r="V63" s="4"/>
-      <c r="W63" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X63" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y63" s="3"/>
-      <c r="Z63" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA63" s="11"/>
-      <c r="AB63" s="6"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y63" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3"/>
+      <c r="AA63" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB63" s="11"/>
       <c r="AC63" s="6"/>
       <c r="AD63" s="6"/>
       <c r="AE63" s="6"/>
@@ -5011,29 +5152,32 @@
       <c r="AG63" s="6"/>
       <c r="AH63" s="6"/>
       <c r="AI63" s="6"/>
-    </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ63" s="6"/>
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
+      <c r="E64" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
-      <c r="K64" s="4">
+      <c r="K64" s="4"/>
+      <c r="L64" s="4">
         <v>258</v>
       </c>
-      <c r="L64" s="4">
+      <c r="M64" s="4">
         <v>289</v>
       </c>
-      <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
@@ -5043,18 +5187,18 @@
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
       <c r="V64" s="4"/>
-      <c r="W64" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X64" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="3"/>
-      <c r="Z64" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA64" s="11"/>
-      <c r="AB64" s="6"/>
+      <c r="W64" s="4"/>
+      <c r="X64" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y64" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3"/>
+      <c r="AA64" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB64" s="11"/>
       <c r="AC64" s="6"/>
       <c r="AD64" s="6"/>
       <c r="AE64" s="6"/>
@@ -5062,29 +5206,32 @@
       <c r="AG64" s="6"/>
       <c r="AH64" s="6"/>
       <c r="AI64" s="6"/>
-    </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ64" s="6"/>
+    </row>
+    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
+      <c r="E65" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
-      <c r="K65" s="4">
+      <c r="K65" s="4"/>
+      <c r="L65" s="4">
         <v>195</v>
       </c>
-      <c r="L65" s="4">
+      <c r="M65" s="4">
         <v>349</v>
       </c>
-      <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
@@ -5094,18 +5241,18 @@
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
-      <c r="W65" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X65" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y65" s="3"/>
-      <c r="Z65" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA65" s="11"/>
-      <c r="AB65" s="6"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y65" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3"/>
+      <c r="AA65" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB65" s="11"/>
       <c r="AC65" s="6"/>
       <c r="AD65" s="6"/>
       <c r="AE65" s="6"/>
@@ -5113,29 +5260,32 @@
       <c r="AG65" s="6"/>
       <c r="AH65" s="6"/>
       <c r="AI65" s="6"/>
-    </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ65" s="6"/>
+    </row>
+    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
+      <c r="E66" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-      <c r="K66" s="4">
+      <c r="K66" s="4"/>
+      <c r="L66" s="4">
         <v>247</v>
       </c>
-      <c r="L66" s="4">
+      <c r="M66" s="4">
         <v>349</v>
       </c>
-      <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
@@ -5145,18 +5295,18 @@
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
-      <c r="W66" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X66" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y66" s="3"/>
-      <c r="Z66" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA66" s="11"/>
-      <c r="AB66" s="6"/>
+      <c r="W66" s="4"/>
+      <c r="X66" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y66" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="3"/>
+      <c r="AA66" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB66" s="11"/>
       <c r="AC66" s="6"/>
       <c r="AD66" s="6"/>
       <c r="AE66" s="6"/>
@@ -5164,29 +5314,32 @@
       <c r="AG66" s="6"/>
       <c r="AH66" s="6"/>
       <c r="AI66" s="6"/>
-    </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ66" s="6"/>
+    </row>
+    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
+      <c r="E67" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
-      <c r="K67" s="4">
+      <c r="K67" s="4"/>
+      <c r="L67" s="4">
         <v>288</v>
       </c>
-      <c r="L67" s="4">
+      <c r="M67" s="4">
         <v>289</v>
       </c>
-      <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
@@ -5196,18 +5349,18 @@
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
-      <c r="W67" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X67" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="3"/>
-      <c r="Z67" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA67" s="11"/>
-      <c r="AB67" s="6"/>
+      <c r="W67" s="4"/>
+      <c r="X67" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y67" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB67" s="11"/>
       <c r="AC67" s="6"/>
       <c r="AD67" s="6"/>
       <c r="AE67" s="6"/>
@@ -5215,29 +5368,32 @@
       <c r="AG67" s="6"/>
       <c r="AH67" s="6"/>
       <c r="AI67" s="6"/>
-    </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ67" s="6"/>
+    </row>
+    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
+      <c r="E68" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
-      <c r="K68" s="4">
+      <c r="K68" s="4"/>
+      <c r="L68" s="4">
         <v>363</v>
       </c>
-      <c r="L68" s="4">
+      <c r="M68" s="4">
         <v>289</v>
       </c>
-      <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
@@ -5247,18 +5403,18 @@
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
-      <c r="W68" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X68" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y68" s="3"/>
-      <c r="Z68" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA68" s="11"/>
-      <c r="AB68" s="6"/>
+      <c r="W68" s="4"/>
+      <c r="X68" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y68" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3"/>
+      <c r="AA68" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB68" s="11"/>
       <c r="AC68" s="6"/>
       <c r="AD68" s="6"/>
       <c r="AE68" s="6"/>
@@ -5266,29 +5422,32 @@
       <c r="AG68" s="6"/>
       <c r="AH68" s="6"/>
       <c r="AI68" s="6"/>
-    </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ68" s="6"/>
+    </row>
+    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
+      <c r="E69" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
-      <c r="K69" s="4">
+      <c r="K69" s="4"/>
+      <c r="L69" s="4">
         <v>438</v>
       </c>
-      <c r="L69" s="4">
+      <c r="M69" s="4">
         <v>289</v>
       </c>
-      <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
@@ -5298,18 +5457,18 @@
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
-      <c r="W69" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X69" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y69" s="3"/>
-      <c r="Z69" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA69" s="11"/>
-      <c r="AB69" s="6"/>
+      <c r="W69" s="4"/>
+      <c r="X69" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y69" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3"/>
+      <c r="AA69" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB69" s="11"/>
       <c r="AC69" s="6"/>
       <c r="AD69" s="6"/>
       <c r="AE69" s="6"/>
@@ -5317,29 +5476,32 @@
       <c r="AG69" s="6"/>
       <c r="AH69" s="6"/>
       <c r="AI69" s="6"/>
-    </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ69" s="6"/>
+    </row>
+    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
+      <c r="E70" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
-      <c r="K70" s="4">
+      <c r="K70" s="4"/>
+      <c r="L70" s="4">
         <v>288</v>
       </c>
-      <c r="L70" s="4">
+      <c r="M70" s="4">
         <v>289</v>
       </c>
-      <c r="M70" s="4"/>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
@@ -5349,18 +5511,18 @@
       <c r="T70" s="4"/>
       <c r="U70" s="4"/>
       <c r="V70" s="4"/>
-      <c r="W70" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X70" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="3"/>
-      <c r="Z70" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA70" s="11"/>
-      <c r="AB70" s="6"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y70" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3"/>
+      <c r="AA70" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB70" s="11"/>
       <c r="AC70" s="6"/>
       <c r="AD70" s="6"/>
       <c r="AE70" s="6"/>
@@ -5368,29 +5530,32 @@
       <c r="AG70" s="6"/>
       <c r="AH70" s="6"/>
       <c r="AI70" s="6"/>
-    </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ70" s="6"/>
+    </row>
+    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
+      <c r="E71" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
-      <c r="K71" s="4">
+      <c r="K71" s="4"/>
+      <c r="L71" s="4">
         <v>359</v>
       </c>
-      <c r="L71" s="4">
+      <c r="M71" s="4">
         <v>220</v>
       </c>
-      <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
@@ -5400,20 +5565,20 @@
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
-      <c r="W71" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X71" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y71" s="3"/>
-      <c r="Z71" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA71" s="11">
+      <c r="W71" s="4"/>
+      <c r="X71" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y71" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3"/>
+      <c r="AA71" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB71" s="11">
         <v>45</v>
       </c>
-      <c r="AB71" s="6"/>
       <c r="AC71" s="6"/>
       <c r="AD71" s="6"/>
       <c r="AE71" s="6"/>
@@ -5421,29 +5586,32 @@
       <c r="AG71" s="6"/>
       <c r="AH71" s="6"/>
       <c r="AI71" s="6"/>
-    </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ71" s="6"/>
+    </row>
+    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
+      <c r="E72" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
-      <c r="K72" s="4">
+      <c r="K72" s="4"/>
+      <c r="L72" s="4">
         <v>438</v>
       </c>
-      <c r="L72" s="4">
+      <c r="M72" s="4">
         <v>175</v>
       </c>
-      <c r="M72" s="4"/>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
@@ -5453,18 +5621,18 @@
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
       <c r="V72" s="4"/>
-      <c r="W72" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X72" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y72" s="3"/>
-      <c r="Z72" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA72" s="11"/>
-      <c r="AB72" s="6"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y72" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="3"/>
+      <c r="AA72" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB72" s="11"/>
       <c r="AC72" s="6"/>
       <c r="AD72" s="6"/>
       <c r="AE72" s="6"/>
@@ -5472,29 +5640,32 @@
       <c r="AG72" s="6"/>
       <c r="AH72" s="6"/>
       <c r="AI72" s="6"/>
-    </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ72" s="6"/>
+    </row>
+    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
+      <c r="E73" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
-      <c r="K73" s="4">
+      <c r="K73" s="4"/>
+      <c r="L73" s="4">
         <v>288</v>
       </c>
-      <c r="L73" s="4">
+      <c r="M73" s="4">
         <v>349</v>
       </c>
-      <c r="M73" s="4"/>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
@@ -5504,18 +5675,18 @@
       <c r="T73" s="4"/>
       <c r="U73" s="4"/>
       <c r="V73" s="4"/>
-      <c r="W73" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X73" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y73" s="3"/>
-      <c r="Z73" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA73" s="11"/>
-      <c r="AB73" s="6"/>
+      <c r="W73" s="4"/>
+      <c r="X73" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y73" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3"/>
+      <c r="AA73" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB73" s="11"/>
       <c r="AC73" s="6"/>
       <c r="AD73" s="6"/>
       <c r="AE73" s="6"/>
@@ -5523,29 +5694,32 @@
       <c r="AG73" s="6"/>
       <c r="AH73" s="6"/>
       <c r="AI73" s="6"/>
-    </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ73" s="6"/>
+    </row>
+    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
+      <c r="E74" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
-      <c r="K74" s="4">
+      <c r="K74" s="4"/>
+      <c r="L74" s="4">
         <v>363</v>
       </c>
-      <c r="L74" s="4">
+      <c r="M74" s="4">
         <v>349</v>
       </c>
-      <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
@@ -5555,18 +5729,18 @@
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
-      <c r="W74" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X74" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y74" s="3"/>
-      <c r="Z74" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA74" s="11"/>
-      <c r="AB74" s="6"/>
+      <c r="W74" s="4"/>
+      <c r="X74" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y74" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3"/>
+      <c r="AA74" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB74" s="11"/>
       <c r="AC74" s="6"/>
       <c r="AD74" s="6"/>
       <c r="AE74" s="6"/>
@@ -5574,29 +5748,32 @@
       <c r="AG74" s="6"/>
       <c r="AH74" s="6"/>
       <c r="AI74" s="6"/>
-    </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ74" s="6"/>
+    </row>
+    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
+      <c r="E75" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
-      <c r="K75" s="4">
+      <c r="K75" s="4"/>
+      <c r="L75" s="4">
         <v>438</v>
       </c>
-      <c r="L75" s="4">
+      <c r="M75" s="4">
         <v>349</v>
       </c>
-      <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
       <c r="P75" s="4"/>
@@ -5606,18 +5783,18 @@
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
       <c r="V75" s="4"/>
-      <c r="W75" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X75" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y75" s="3"/>
-      <c r="Z75" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA75" s="11"/>
-      <c r="AB75" s="6"/>
+      <c r="W75" s="4"/>
+      <c r="X75" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y75" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3"/>
+      <c r="AA75" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB75" s="11"/>
       <c r="AC75" s="6"/>
       <c r="AD75" s="6"/>
       <c r="AE75" s="6"/>
@@ -5625,29 +5802,32 @@
       <c r="AG75" s="6"/>
       <c r="AH75" s="6"/>
       <c r="AI75" s="6"/>
-    </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ75" s="6"/>
+    </row>
+    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
+      <c r="E76" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
-      <c r="K76" s="4">
+      <c r="K76" s="4"/>
+      <c r="L76" s="4">
         <v>288</v>
       </c>
-      <c r="L76" s="4">
+      <c r="M76" s="4">
         <v>349</v>
       </c>
-      <c r="M76" s="4"/>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
       <c r="P76" s="4"/>
@@ -5657,18 +5837,18 @@
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
       <c r="V76" s="4"/>
-      <c r="W76" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X76" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y76" s="3"/>
-      <c r="Z76" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA76" s="11"/>
-      <c r="AB76" s="6"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y76" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="3"/>
+      <c r="AA76" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB76" s="11"/>
       <c r="AC76" s="6"/>
       <c r="AD76" s="6"/>
       <c r="AE76" s="6"/>
@@ -5676,29 +5856,32 @@
       <c r="AG76" s="6"/>
       <c r="AH76" s="6"/>
       <c r="AI76" s="6"/>
-    </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ76" s="6"/>
+    </row>
+    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
+      <c r="E77" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
-      <c r="K77" s="4">
+      <c r="K77" s="4"/>
+      <c r="L77" s="4">
         <v>359</v>
       </c>
-      <c r="L77" s="4">
+      <c r="M77" s="4">
         <v>414</v>
       </c>
-      <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
@@ -5708,20 +5891,20 @@
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
-      <c r="W77" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X77" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y77" s="3"/>
-      <c r="Z77" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA77" s="11">
+      <c r="W77" s="4"/>
+      <c r="X77" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y77" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3"/>
+      <c r="AA77" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB77" s="11">
         <v>135</v>
       </c>
-      <c r="AB77" s="6"/>
       <c r="AC77" s="6"/>
       <c r="AD77" s="6"/>
       <c r="AE77" s="6"/>
@@ -5729,29 +5912,32 @@
       <c r="AG77" s="6"/>
       <c r="AH77" s="6"/>
       <c r="AI77" s="6"/>
-    </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ77" s="6"/>
+    </row>
+    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
+      <c r="E78" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-      <c r="K78" s="4">
+      <c r="K78" s="4"/>
+      <c r="L78" s="4">
         <v>438</v>
       </c>
-      <c r="L78" s="4">
+      <c r="M78" s="4">
         <v>463</v>
       </c>
-      <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
       <c r="P78" s="4"/>
@@ -5761,18 +5947,18 @@
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
       <c r="V78" s="4"/>
-      <c r="W78" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X78" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y78" s="3"/>
-      <c r="Z78" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA78" s="11"/>
-      <c r="AB78" s="6"/>
+      <c r="W78" s="4"/>
+      <c r="X78" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y78" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="3"/>
+      <c r="AA78" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB78" s="11"/>
       <c r="AC78" s="6"/>
       <c r="AD78" s="6"/>
       <c r="AE78" s="6"/>
@@ -5780,29 +5966,32 @@
       <c r="AG78" s="6"/>
       <c r="AH78" s="6"/>
       <c r="AI78" s="6"/>
-    </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ78" s="6"/>
+    </row>
+    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
+      <c r="E79" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
-      <c r="K79" s="4">
+      <c r="K79" s="4"/>
+      <c r="L79" s="4">
         <v>507</v>
       </c>
-      <c r="L79" s="4">
+      <c r="M79" s="4">
         <v>175</v>
       </c>
-      <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
@@ -5812,18 +6001,18 @@
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
       <c r="V79" s="4"/>
-      <c r="W79" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X79" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y79" s="3"/>
-      <c r="Z79" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA79" s="11"/>
-      <c r="AB79" s="6"/>
+      <c r="W79" s="4"/>
+      <c r="X79" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y79" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z79" s="3"/>
+      <c r="AA79" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB79" s="11"/>
       <c r="AC79" s="6"/>
       <c r="AD79" s="6"/>
       <c r="AE79" s="6"/>
@@ -5831,29 +6020,32 @@
       <c r="AG79" s="6"/>
       <c r="AH79" s="6"/>
       <c r="AI79" s="6"/>
-    </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ79" s="6"/>
+    </row>
+    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
+      <c r="E80" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="K80" s="4">
+      <c r="K80" s="4"/>
+      <c r="L80" s="4">
         <v>751</v>
       </c>
-      <c r="L80" s="4">
+      <c r="M80" s="4">
         <v>175</v>
       </c>
-      <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
       <c r="P80" s="4"/>
@@ -5863,18 +6055,18 @@
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
       <c r="V80" s="4"/>
-      <c r="W80" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X80" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y80" s="3"/>
-      <c r="Z80" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA80" s="11"/>
-      <c r="AB80" s="6"/>
+      <c r="W80" s="4"/>
+      <c r="X80" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y80" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z80" s="3"/>
+      <c r="AA80" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB80" s="11"/>
       <c r="AC80" s="6"/>
       <c r="AD80" s="6"/>
       <c r="AE80" s="6"/>
@@ -5882,29 +6074,32 @@
       <c r="AG80" s="6"/>
       <c r="AH80" s="6"/>
       <c r="AI80" s="6"/>
-    </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ80" s="6"/>
+    </row>
+    <row r="81" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
+      <c r="E81" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="4">
+      <c r="K81" s="4"/>
+      <c r="L81" s="4">
         <v>507</v>
       </c>
-      <c r="L81" s="4">
+      <c r="M81" s="4">
         <v>289</v>
       </c>
-      <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
       <c r="P81" s="4"/>
@@ -5914,18 +6109,18 @@
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
       <c r="V81" s="4"/>
-      <c r="W81" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X81" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y81" s="3"/>
-      <c r="Z81" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA81" s="11"/>
-      <c r="AB81" s="6"/>
+      <c r="W81" s="4"/>
+      <c r="X81" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y81" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3"/>
+      <c r="AA81" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB81" s="11"/>
       <c r="AC81" s="6"/>
       <c r="AD81" s="6"/>
       <c r="AE81" s="6"/>
@@ -5933,29 +6128,32 @@
       <c r="AG81" s="6"/>
       <c r="AH81" s="6"/>
       <c r="AI81" s="6"/>
-    </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ81" s="6"/>
+    </row>
+    <row r="82" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
+      <c r="E82" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-      <c r="K82" s="4">
+      <c r="K82" s="4"/>
+      <c r="L82" s="4">
         <v>751</v>
       </c>
-      <c r="L82" s="4">
+      <c r="M82" s="4">
         <v>289</v>
       </c>
-      <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
       <c r="P82" s="4"/>
@@ -5965,18 +6163,18 @@
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
       <c r="V82" s="4"/>
-      <c r="W82" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X82" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y82" s="3"/>
-      <c r="Z82" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA82" s="11"/>
-      <c r="AB82" s="6"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y82" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB82" s="11"/>
       <c r="AC82" s="6"/>
       <c r="AD82" s="6"/>
       <c r="AE82" s="6"/>
@@ -5984,29 +6182,32 @@
       <c r="AG82" s="6"/>
       <c r="AH82" s="6"/>
       <c r="AI82" s="6"/>
-    </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ82" s="6"/>
+    </row>
+    <row r="83" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
+      <c r="E83" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
-      <c r="K83" s="4">
+      <c r="K83" s="4"/>
+      <c r="L83" s="4">
         <v>507</v>
       </c>
-      <c r="L83" s="4">
+      <c r="M83" s="4">
         <v>349</v>
       </c>
-      <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
@@ -6016,18 +6217,18 @@
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
       <c r="V83" s="4"/>
-      <c r="W83" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X83" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y83" s="3"/>
-      <c r="Z83" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA83" s="11"/>
-      <c r="AB83" s="6"/>
+      <c r="W83" s="4"/>
+      <c r="X83" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y83" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3"/>
+      <c r="AA83" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB83" s="11"/>
       <c r="AC83" s="6"/>
       <c r="AD83" s="6"/>
       <c r="AE83" s="6"/>
@@ -6035,29 +6236,32 @@
       <c r="AG83" s="6"/>
       <c r="AH83" s="6"/>
       <c r="AI83" s="6"/>
-    </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ83" s="6"/>
+    </row>
+    <row r="84" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
+      <c r="E84" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
-      <c r="K84" s="4">
+      <c r="K84" s="4"/>
+      <c r="L84" s="4">
         <v>751</v>
       </c>
-      <c r="L84" s="4">
+      <c r="M84" s="4">
         <v>349</v>
       </c>
-      <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
       <c r="P84" s="4"/>
@@ -6067,18 +6271,18 @@
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
       <c r="V84" s="4"/>
-      <c r="W84" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X84" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y84" s="3"/>
-      <c r="Z84" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA84" s="11"/>
-      <c r="AB84" s="6"/>
+      <c r="W84" s="4"/>
+      <c r="X84" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y84" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3"/>
+      <c r="AA84" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB84" s="11"/>
       <c r="AC84" s="6"/>
       <c r="AD84" s="6"/>
       <c r="AE84" s="6"/>
@@ -6086,29 +6290,32 @@
       <c r="AG84" s="6"/>
       <c r="AH84" s="6"/>
       <c r="AI84" s="6"/>
-    </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ84" s="6"/>
+    </row>
+    <row r="85" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
+      <c r="E85" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
-      <c r="K85" s="4">
+      <c r="K85" s="4"/>
+      <c r="L85" s="4">
         <v>507</v>
       </c>
-      <c r="L85" s="4">
+      <c r="M85" s="4">
         <v>463</v>
       </c>
-      <c r="M85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
       <c r="P85" s="4"/>
@@ -6118,18 +6325,18 @@
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
       <c r="V85" s="4"/>
-      <c r="W85" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X85" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y85" s="3"/>
-      <c r="Z85" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA85" s="11"/>
-      <c r="AB85" s="6"/>
+      <c r="W85" s="4"/>
+      <c r="X85" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y85" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3"/>
+      <c r="AA85" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB85" s="11"/>
       <c r="AC85" s="6"/>
       <c r="AD85" s="6"/>
       <c r="AE85" s="6"/>
@@ -6137,29 +6344,32 @@
       <c r="AG85" s="6"/>
       <c r="AH85" s="6"/>
       <c r="AI85" s="6"/>
-    </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ85" s="6"/>
+    </row>
+    <row r="86" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
+      <c r="E86" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
-      <c r="K86" s="4">
+      <c r="K86" s="4"/>
+      <c r="L86" s="4">
         <v>751</v>
       </c>
-      <c r="L86" s="4">
+      <c r="M86" s="4">
         <v>463</v>
       </c>
-      <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
       <c r="P86" s="4"/>
@@ -6169,18 +6379,18 @@
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
       <c r="V86" s="4"/>
-      <c r="W86" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X86" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y86" s="3"/>
-      <c r="Z86" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA86" s="11"/>
-      <c r="AB86" s="6"/>
+      <c r="W86" s="4"/>
+      <c r="X86" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y86" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3"/>
+      <c r="AA86" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB86" s="11"/>
       <c r="AC86" s="6"/>
       <c r="AD86" s="6"/>
       <c r="AE86" s="6"/>
@@ -6188,29 +6398,32 @@
       <c r="AG86" s="6"/>
       <c r="AH86" s="6"/>
       <c r="AI86" s="6"/>
-    </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ86" s="6"/>
+    </row>
+    <row r="87" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
+      <c r="E87" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
-      <c r="K87" s="4">
+      <c r="K87" s="4"/>
+      <c r="L87" s="4">
         <v>820</v>
       </c>
-      <c r="L87" s="4">
+      <c r="M87" s="4">
         <v>289</v>
       </c>
-      <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
@@ -6220,18 +6433,18 @@
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
       <c r="V87" s="4"/>
-      <c r="W87" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X87" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y87" s="3"/>
-      <c r="Z87" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA87" s="11"/>
-      <c r="AB87" s="6"/>
+      <c r="W87" s="4"/>
+      <c r="X87" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y87" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3"/>
+      <c r="AA87" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB87" s="11"/>
       <c r="AC87" s="6"/>
       <c r="AD87" s="6"/>
       <c r="AE87" s="6"/>
@@ -6239,29 +6452,32 @@
       <c r="AG87" s="6"/>
       <c r="AH87" s="6"/>
       <c r="AI87" s="6"/>
-    </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ87" s="6"/>
+    </row>
+    <row r="88" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
+      <c r="E88" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
-      <c r="K88" s="4">
+      <c r="K88" s="4"/>
+      <c r="L88" s="4">
         <v>895</v>
       </c>
-      <c r="L88" s="4">
+      <c r="M88" s="4">
         <v>289</v>
       </c>
-      <c r="M88" s="4"/>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
       <c r="P88" s="4"/>
@@ -6271,18 +6487,18 @@
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
       <c r="V88" s="4"/>
-      <c r="W88" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X88" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y88" s="3"/>
-      <c r="Z88" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA88" s="11"/>
-      <c r="AB88" s="6"/>
+      <c r="W88" s="4"/>
+      <c r="X88" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y88" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3"/>
+      <c r="AA88" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB88" s="11"/>
       <c r="AC88" s="6"/>
       <c r="AD88" s="6"/>
       <c r="AE88" s="6"/>
@@ -6290,29 +6506,32 @@
       <c r="AG88" s="6"/>
       <c r="AH88" s="6"/>
       <c r="AI88" s="6"/>
-    </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ88" s="6"/>
+    </row>
+    <row r="89" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
+      <c r="E89" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
-      <c r="K89" s="4">
+      <c r="K89" s="4"/>
+      <c r="L89" s="4">
         <v>970</v>
       </c>
-      <c r="L89" s="4">
+      <c r="M89" s="4">
         <v>289</v>
       </c>
-      <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
       <c r="P89" s="4"/>
@@ -6322,18 +6541,18 @@
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
       <c r="V89" s="4"/>
-      <c r="W89" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X89" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y89" s="3"/>
-      <c r="Z89" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA89" s="11"/>
-      <c r="AB89" s="6"/>
+      <c r="W89" s="4"/>
+      <c r="X89" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y89" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3"/>
+      <c r="AA89" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB89" s="11"/>
       <c r="AC89" s="6"/>
       <c r="AD89" s="6"/>
       <c r="AE89" s="6"/>
@@ -6341,29 +6560,32 @@
       <c r="AG89" s="6"/>
       <c r="AH89" s="6"/>
       <c r="AI89" s="6"/>
-    </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ89" s="6"/>
+    </row>
+    <row r="90" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
+      <c r="E90" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-      <c r="K90" s="4">
+      <c r="K90" s="4"/>
+      <c r="L90" s="4">
         <v>820</v>
       </c>
-      <c r="L90" s="4">
+      <c r="M90" s="4">
         <v>175</v>
       </c>
-      <c r="M90" s="4"/>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
       <c r="P90" s="4"/>
@@ -6373,18 +6595,18 @@
       <c r="T90" s="4"/>
       <c r="U90" s="4"/>
       <c r="V90" s="4"/>
-      <c r="W90" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X90" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y90" s="3"/>
-      <c r="Z90" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA90" s="11"/>
-      <c r="AB90" s="6"/>
+      <c r="W90" s="4"/>
+      <c r="X90" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y90" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB90" s="11"/>
       <c r="AC90" s="6"/>
       <c r="AD90" s="6"/>
       <c r="AE90" s="6"/>
@@ -6392,29 +6614,32 @@
       <c r="AG90" s="6"/>
       <c r="AH90" s="6"/>
       <c r="AI90" s="6"/>
-    </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ90" s="6"/>
+    </row>
+    <row r="91" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
+      <c r="E91" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
-      <c r="K91" s="4">
+      <c r="K91" s="4"/>
+      <c r="L91" s="4">
         <v>901</v>
       </c>
-      <c r="L91" s="4">
+      <c r="M91" s="4">
         <v>220</v>
       </c>
-      <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
       <c r="P91" s="4"/>
@@ -6424,20 +6649,20 @@
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
       <c r="V91" s="4"/>
-      <c r="W91" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X91" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="3"/>
-      <c r="Z91" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA91" s="11">
+      <c r="W91" s="4"/>
+      <c r="X91" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y91" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3"/>
+      <c r="AA91" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB91" s="11">
         <v>135</v>
       </c>
-      <c r="AB91" s="6"/>
       <c r="AC91" s="6"/>
       <c r="AD91" s="6"/>
       <c r="AE91" s="6"/>
@@ -6445,29 +6670,32 @@
       <c r="AG91" s="6"/>
       <c r="AH91" s="6"/>
       <c r="AI91" s="6"/>
-    </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ91" s="6"/>
+    </row>
+    <row r="92" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
+      <c r="E92" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
-      <c r="K92" s="4">
+      <c r="K92" s="4"/>
+      <c r="L92" s="4">
         <v>970</v>
       </c>
-      <c r="L92" s="4">
+      <c r="M92" s="4">
         <v>289</v>
       </c>
-      <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
       <c r="P92" s="4"/>
@@ -6477,18 +6705,18 @@
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
       <c r="V92" s="4"/>
-      <c r="W92" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X92" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y92" s="3"/>
-      <c r="Z92" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA92" s="11"/>
-      <c r="AB92" s="6"/>
+      <c r="W92" s="4"/>
+      <c r="X92" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y92" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3"/>
+      <c r="AA92" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB92" s="11"/>
       <c r="AC92" s="6"/>
       <c r="AD92" s="6"/>
       <c r="AE92" s="6"/>
@@ -6496,29 +6724,32 @@
       <c r="AG92" s="6"/>
       <c r="AH92" s="6"/>
       <c r="AI92" s="6"/>
-    </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ92" s="6"/>
+    </row>
+    <row r="93" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
+      <c r="E93" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
-      <c r="K93" s="4">
+      <c r="K93" s="4"/>
+      <c r="L93" s="4">
         <v>820</v>
       </c>
-      <c r="L93" s="4">
+      <c r="M93" s="4">
         <v>349</v>
       </c>
-      <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
@@ -6528,18 +6759,18 @@
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
       <c r="V93" s="4"/>
-      <c r="W93" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X93" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y93" s="3"/>
-      <c r="Z93" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA93" s="11"/>
-      <c r="AB93" s="6"/>
+      <c r="W93" s="4"/>
+      <c r="X93" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y93" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3"/>
+      <c r="AA93" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB93" s="11"/>
       <c r="AC93" s="6"/>
       <c r="AD93" s="6"/>
       <c r="AE93" s="6"/>
@@ -6547,29 +6778,32 @@
       <c r="AG93" s="6"/>
       <c r="AH93" s="6"/>
       <c r="AI93" s="6"/>
-    </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ93" s="6"/>
+    </row>
+    <row r="94" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
+      <c r="E94" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
-      <c r="K94" s="4">
+      <c r="K94" s="4"/>
+      <c r="L94" s="4">
         <v>895</v>
       </c>
-      <c r="L94" s="4">
+      <c r="M94" s="4">
         <v>349</v>
       </c>
-      <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
       <c r="P94" s="4"/>
@@ -6579,18 +6813,18 @@
       <c r="T94" s="4"/>
       <c r="U94" s="4"/>
       <c r="V94" s="4"/>
-      <c r="W94" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X94" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="3"/>
-      <c r="Z94" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA94" s="11"/>
-      <c r="AB94" s="6"/>
+      <c r="W94" s="4"/>
+      <c r="X94" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y94" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3"/>
+      <c r="AA94" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB94" s="11"/>
       <c r="AC94" s="6"/>
       <c r="AD94" s="6"/>
       <c r="AE94" s="6"/>
@@ -6598,29 +6832,32 @@
       <c r="AG94" s="6"/>
       <c r="AH94" s="6"/>
       <c r="AI94" s="6"/>
-    </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ94" s="6"/>
+    </row>
+    <row r="95" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
+      <c r="E95" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
-      <c r="K95" s="4">
+      <c r="K95" s="4"/>
+      <c r="L95" s="4">
         <v>970</v>
       </c>
-      <c r="L95" s="4">
+      <c r="M95" s="4">
         <v>349</v>
       </c>
-      <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
       <c r="P95" s="4"/>
@@ -6630,18 +6867,18 @@
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
       <c r="V95" s="4"/>
-      <c r="W95" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X95" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y95" s="3"/>
-      <c r="Z95" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA95" s="11"/>
-      <c r="AB95" s="6"/>
+      <c r="W95" s="4"/>
+      <c r="X95" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y95" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB95" s="11"/>
       <c r="AC95" s="6"/>
       <c r="AD95" s="6"/>
       <c r="AE95" s="6"/>
@@ -6649,29 +6886,32 @@
       <c r="AG95" s="6"/>
       <c r="AH95" s="6"/>
       <c r="AI95" s="6"/>
-    </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ95" s="6"/>
+    </row>
+    <row r="96" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
+      <c r="E96" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
-      <c r="K96" s="4">
+      <c r="K96" s="4"/>
+      <c r="L96" s="4">
         <v>820</v>
       </c>
-      <c r="L96" s="4">
+      <c r="M96" s="4">
         <v>463</v>
       </c>
-      <c r="M96" s="4"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
       <c r="P96" s="4"/>
@@ -6681,18 +6921,18 @@
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
       <c r="V96" s="4"/>
-      <c r="W96" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X96" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y96" s="3"/>
-      <c r="Z96" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA96" s="11"/>
-      <c r="AB96" s="6"/>
+      <c r="W96" s="4"/>
+      <c r="X96" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y96" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3"/>
+      <c r="AA96" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB96" s="11"/>
       <c r="AC96" s="6"/>
       <c r="AD96" s="6"/>
       <c r="AE96" s="6"/>
@@ -6700,29 +6940,32 @@
       <c r="AG96" s="6"/>
       <c r="AH96" s="6"/>
       <c r="AI96" s="6"/>
-    </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ96" s="6"/>
+    </row>
+    <row r="97" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
+      <c r="E97" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
-      <c r="K97" s="4">
+      <c r="K97" s="4"/>
+      <c r="L97" s="4">
         <v>901</v>
       </c>
-      <c r="L97" s="4">
+      <c r="M97" s="4">
         <v>414</v>
       </c>
-      <c r="M97" s="4"/>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
       <c r="P97" s="4"/>
@@ -6732,20 +6975,20 @@
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
       <c r="V97" s="4"/>
-      <c r="W97" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X97" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y97" s="3"/>
-      <c r="Z97" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA97" s="11">
+      <c r="W97" s="4"/>
+      <c r="X97" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y97" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3"/>
+      <c r="AA97" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB97" s="11">
         <v>45</v>
       </c>
-      <c r="AB97" s="6"/>
       <c r="AC97" s="6"/>
       <c r="AD97" s="6"/>
       <c r="AE97" s="6"/>
@@ -6753,29 +6996,32 @@
       <c r="AG97" s="6"/>
       <c r="AH97" s="6"/>
       <c r="AI97" s="6"/>
-    </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ97" s="6"/>
+    </row>
+    <row r="98" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
+      <c r="E98" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
-      <c r="K98" s="4">
+      <c r="K98" s="4"/>
+      <c r="L98" s="4">
         <v>970</v>
       </c>
-      <c r="L98" s="4">
+      <c r="M98" s="4">
         <v>349</v>
       </c>
-      <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
       <c r="P98" s="4"/>
@@ -6785,18 +7031,18 @@
       <c r="T98" s="4"/>
       <c r="U98" s="4"/>
       <c r="V98" s="4"/>
-      <c r="W98" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X98" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y98" s="3"/>
-      <c r="Z98" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA98" s="11"/>
-      <c r="AB98" s="6"/>
+      <c r="W98" s="4"/>
+      <c r="X98" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y98" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3"/>
+      <c r="AA98" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB98" s="11"/>
       <c r="AC98" s="6"/>
       <c r="AD98" s="6"/>
       <c r="AE98" s="6"/>
@@ -6804,29 +7050,32 @@
       <c r="AG98" s="6"/>
       <c r="AH98" s="6"/>
       <c r="AI98" s="6"/>
-    </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ98" s="6"/>
+    </row>
+    <row r="99" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
+      <c r="E99" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
-      <c r="K99" s="4">
+      <c r="K99" s="4"/>
+      <c r="L99" s="4">
         <v>1011</v>
       </c>
-      <c r="L99" s="4">
+      <c r="M99" s="4">
         <v>289</v>
       </c>
-      <c r="M99" s="4"/>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
       <c r="P99" s="4"/>
@@ -6836,18 +7085,18 @@
       <c r="T99" s="4"/>
       <c r="U99" s="4"/>
       <c r="V99" s="4"/>
-      <c r="W99" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X99" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y99" s="3"/>
-      <c r="Z99" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA99" s="11"/>
-      <c r="AB99" s="6"/>
+      <c r="W99" s="4"/>
+      <c r="X99" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y99" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3"/>
+      <c r="AA99" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB99" s="11"/>
       <c r="AC99" s="6"/>
       <c r="AD99" s="6"/>
       <c r="AE99" s="6"/>
@@ -6855,29 +7104,32 @@
       <c r="AG99" s="6"/>
       <c r="AH99" s="6"/>
       <c r="AI99" s="6"/>
-    </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ99" s="6"/>
+    </row>
+    <row r="100" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
+      <c r="E100" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
-      <c r="K100" s="4">
+      <c r="K100" s="4"/>
+      <c r="L100" s="4">
         <v>1063</v>
       </c>
-      <c r="L100" s="4">
+      <c r="M100" s="4">
         <v>289</v>
       </c>
-      <c r="M100" s="4"/>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
       <c r="P100" s="4"/>
@@ -6887,18 +7139,18 @@
       <c r="T100" s="4"/>
       <c r="U100" s="4"/>
       <c r="V100" s="4"/>
-      <c r="W100" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X100" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="3"/>
-      <c r="Z100" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA100" s="11"/>
-      <c r="AB100" s="6"/>
+      <c r="W100" s="4"/>
+      <c r="X100" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y100" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3"/>
+      <c r="AA100" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB100" s="11"/>
       <c r="AC100" s="6"/>
       <c r="AD100" s="6"/>
       <c r="AE100" s="6"/>
@@ -6906,29 +7158,32 @@
       <c r="AG100" s="6"/>
       <c r="AH100" s="6"/>
       <c r="AI100" s="6"/>
-    </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ100" s="6"/>
+    </row>
+    <row r="101" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
+      <c r="E101" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
-      <c r="K101" s="4">
+      <c r="K101" s="4"/>
+      <c r="L101" s="4">
         <v>1000</v>
       </c>
-      <c r="L101" s="4">
+      <c r="M101" s="4">
         <v>349</v>
       </c>
-      <c r="M101" s="4"/>
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
       <c r="P101" s="4"/>
@@ -6938,18 +7193,18 @@
       <c r="T101" s="4"/>
       <c r="U101" s="4"/>
       <c r="V101" s="4"/>
-      <c r="W101" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X101" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y101" s="3"/>
-      <c r="Z101" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA101" s="11"/>
-      <c r="AB101" s="6"/>
+      <c r="W101" s="4"/>
+      <c r="X101" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y101" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3"/>
+      <c r="AA101" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB101" s="11"/>
       <c r="AC101" s="6"/>
       <c r="AD101" s="6"/>
       <c r="AE101" s="6"/>
@@ -6957,29 +7212,32 @@
       <c r="AG101" s="6"/>
       <c r="AH101" s="6"/>
       <c r="AI101" s="6"/>
-    </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ101" s="6"/>
+    </row>
+    <row r="102" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
+      <c r="E102" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
-      <c r="K102" s="4">
+      <c r="K102" s="4"/>
+      <c r="L102" s="4">
         <v>1032</v>
       </c>
-      <c r="L102" s="4">
+      <c r="M102" s="4">
         <v>349</v>
       </c>
-      <c r="M102" s="4"/>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
       <c r="P102" s="4"/>
@@ -6989,18 +7247,18 @@
       <c r="T102" s="4"/>
       <c r="U102" s="4"/>
       <c r="V102" s="4"/>
-      <c r="W102" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X102" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y102" s="3"/>
-      <c r="Z102" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA102" s="11"/>
-      <c r="AB102" s="6"/>
+      <c r="W102" s="4"/>
+      <c r="X102" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y102" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3"/>
+      <c r="AA102" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB102" s="11"/>
       <c r="AC102" s="6"/>
       <c r="AD102" s="6"/>
       <c r="AE102" s="6"/>
@@ -7008,29 +7266,32 @@
       <c r="AG102" s="6"/>
       <c r="AH102" s="6"/>
       <c r="AI102" s="6"/>
-    </row>
-    <row r="103" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ102" s="6"/>
+    </row>
+    <row r="103" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
+      <c r="E103" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
-      <c r="K103" s="4">
+      <c r="K103" s="4"/>
+      <c r="L103" s="4">
         <v>1114</v>
       </c>
-      <c r="L103" s="4">
+      <c r="M103" s="4">
         <v>349</v>
       </c>
-      <c r="M103" s="4"/>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
       <c r="P103" s="4"/>
@@ -7040,18 +7301,18 @@
       <c r="T103" s="4"/>
       <c r="U103" s="4"/>
       <c r="V103" s="4"/>
-      <c r="W103" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X103" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y103" s="3"/>
-      <c r="Z103" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA103" s="11"/>
-      <c r="AB103" s="6"/>
+      <c r="W103" s="4"/>
+      <c r="X103" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y103" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z103" s="3"/>
+      <c r="AA103" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB103" s="11"/>
       <c r="AC103" s="6"/>
       <c r="AD103" s="6"/>
       <c r="AE103" s="6"/>
@@ -7059,29 +7320,32 @@
       <c r="AG103" s="6"/>
       <c r="AH103" s="6"/>
       <c r="AI103" s="6"/>
-    </row>
-    <row r="104" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ103" s="6"/>
+    </row>
+    <row r="104" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
+      <c r="E104" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
-      <c r="K104" s="4">
+      <c r="K104" s="4"/>
+      <c r="L104" s="4">
         <v>1147</v>
       </c>
-      <c r="L104" s="4">
+      <c r="M104" s="4">
         <v>349</v>
       </c>
-      <c r="M104" s="4"/>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
       <c r="P104" s="4"/>
@@ -7091,18 +7355,18 @@
       <c r="T104" s="4"/>
       <c r="U104" s="4"/>
       <c r="V104" s="4"/>
-      <c r="W104" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X104" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y104" s="3"/>
-      <c r="Z104" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA104" s="11"/>
-      <c r="AB104" s="6"/>
+      <c r="W104" s="4"/>
+      <c r="X104" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y104" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z104" s="3"/>
+      <c r="AA104" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB104" s="11"/>
       <c r="AC104" s="6"/>
       <c r="AD104" s="6"/>
       <c r="AE104" s="6"/>
@@ -7110,29 +7374,32 @@
       <c r="AG104" s="6"/>
       <c r="AH104" s="6"/>
       <c r="AI104" s="6"/>
-    </row>
-    <row r="105" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ104" s="6"/>
+    </row>
+    <row r="105" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
+      <c r="E105" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
-      <c r="K105" s="4">
+      <c r="K105" s="4"/>
+      <c r="L105" s="4">
         <v>1176</v>
       </c>
-      <c r="L105" s="4">
+      <c r="M105" s="4">
         <v>349</v>
       </c>
-      <c r="M105" s="4"/>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
       <c r="P105" s="4"/>
@@ -7142,18 +7409,18 @@
       <c r="T105" s="4"/>
       <c r="U105" s="4"/>
       <c r="V105" s="4"/>
-      <c r="W105" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X105" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y105" s="3"/>
-      <c r="Z105" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA105" s="11"/>
-      <c r="AB105" s="6"/>
+      <c r="W105" s="4"/>
+      <c r="X105" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y105" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z105" s="3"/>
+      <c r="AA105" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB105" s="11"/>
       <c r="AC105" s="6"/>
       <c r="AD105" s="6"/>
       <c r="AE105" s="6"/>
@@ -7161,29 +7428,32 @@
       <c r="AG105" s="6"/>
       <c r="AH105" s="6"/>
       <c r="AI105" s="6"/>
-    </row>
-    <row r="106" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ105" s="6"/>
+    </row>
+    <row r="106" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
+      <c r="E106" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
-      <c r="K106" s="4">
+      <c r="K106" s="4"/>
+      <c r="L106" s="4">
         <v>1258</v>
       </c>
-      <c r="L106" s="4">
+      <c r="M106" s="4">
         <v>349</v>
       </c>
-      <c r="M106" s="4"/>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
       <c r="P106" s="4"/>
@@ -7193,18 +7463,18 @@
       <c r="T106" s="4"/>
       <c r="U106" s="4"/>
       <c r="V106" s="4"/>
-      <c r="W106" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X106" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y106" s="3"/>
-      <c r="Z106" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA106" s="11"/>
-      <c r="AB106" s="6"/>
+      <c r="W106" s="4"/>
+      <c r="X106" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y106" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z106" s="3"/>
+      <c r="AA106" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB106" s="11"/>
       <c r="AC106" s="6"/>
       <c r="AD106" s="6"/>
       <c r="AE106" s="6"/>
@@ -7212,29 +7482,32 @@
       <c r="AG106" s="6"/>
       <c r="AH106" s="6"/>
       <c r="AI106" s="6"/>
-    </row>
-    <row r="107" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ106" s="6"/>
+    </row>
+    <row r="107" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
+      <c r="E107" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
-      <c r="K107" s="4">
+      <c r="K107" s="4"/>
+      <c r="L107" s="4">
         <v>1287</v>
       </c>
-      <c r="L107" s="4">
+      <c r="M107" s="4">
         <v>349</v>
       </c>
-      <c r="M107" s="4"/>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
       <c r="P107" s="4"/>
@@ -7244,18 +7517,18 @@
       <c r="T107" s="4"/>
       <c r="U107" s="4"/>
       <c r="V107" s="4"/>
-      <c r="W107" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X107" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y107" s="3"/>
-      <c r="Z107" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA107" s="11"/>
-      <c r="AB107" s="6"/>
+      <c r="W107" s="4"/>
+      <c r="X107" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y107" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z107" s="3"/>
+      <c r="AA107" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB107" s="11"/>
       <c r="AC107" s="6"/>
       <c r="AD107" s="6"/>
       <c r="AE107" s="6"/>
@@ -7263,29 +7536,32 @@
       <c r="AG107" s="6"/>
       <c r="AH107" s="6"/>
       <c r="AI107" s="6"/>
-    </row>
-    <row r="108" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ107" s="6"/>
+    </row>
+    <row r="108" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
+      <c r="E108" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
-      <c r="K108" s="4">
+      <c r="K108" s="4"/>
+      <c r="L108" s="4">
         <v>1317</v>
       </c>
-      <c r="L108" s="4">
+      <c r="M108" s="4">
         <v>349</v>
       </c>
-      <c r="M108" s="4"/>
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
       <c r="P108" s="4"/>
@@ -7295,18 +7571,18 @@
       <c r="T108" s="4"/>
       <c r="U108" s="4"/>
       <c r="V108" s="4"/>
-      <c r="W108" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X108" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y108" s="3"/>
-      <c r="Z108" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA108" s="11"/>
-      <c r="AB108" s="6"/>
+      <c r="W108" s="4"/>
+      <c r="X108" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y108" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z108" s="3"/>
+      <c r="AA108" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB108" s="11"/>
       <c r="AC108" s="6"/>
       <c r="AD108" s="6"/>
       <c r="AE108" s="6"/>
@@ -7314,29 +7590,32 @@
       <c r="AG108" s="6"/>
       <c r="AH108" s="6"/>
       <c r="AI108" s="6"/>
-    </row>
-    <row r="109" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ108" s="6"/>
+    </row>
+    <row r="109" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
+      <c r="E109" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
-      <c r="K109" s="4">
+      <c r="K109" s="4"/>
+      <c r="L109" s="4">
         <v>1347</v>
       </c>
-      <c r="L109" s="4">
+      <c r="M109" s="4">
         <v>349</v>
       </c>
-      <c r="M109" s="4"/>
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
       <c r="P109" s="4"/>
@@ -7346,18 +7625,18 @@
       <c r="T109" s="4"/>
       <c r="U109" s="4"/>
       <c r="V109" s="4"/>
-      <c r="W109" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X109" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y109" s="3"/>
-      <c r="Z109" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA109" s="11"/>
-      <c r="AB109" s="6"/>
+      <c r="W109" s="4"/>
+      <c r="X109" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y109" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z109" s="3"/>
+      <c r="AA109" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB109" s="11"/>
       <c r="AC109" s="6"/>
       <c r="AD109" s="6"/>
       <c r="AE109" s="6"/>
@@ -7365,29 +7644,32 @@
       <c r="AG109" s="6"/>
       <c r="AH109" s="6"/>
       <c r="AI109" s="6"/>
-    </row>
-    <row r="110" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ109" s="6"/>
+    </row>
+    <row r="110" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
+      <c r="E110" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
-      <c r="K110" s="4">
+      <c r="K110" s="4"/>
+      <c r="L110" s="4">
         <v>1377</v>
       </c>
-      <c r="L110" s="4">
+      <c r="M110" s="4">
         <v>349</v>
       </c>
-      <c r="M110" s="4"/>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
       <c r="P110" s="4"/>
@@ -7397,18 +7679,18 @@
       <c r="T110" s="4"/>
       <c r="U110" s="4"/>
       <c r="V110" s="4"/>
-      <c r="W110" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X110" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y110" s="3"/>
-      <c r="Z110" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA110" s="11"/>
-      <c r="AB110" s="6"/>
+      <c r="W110" s="4"/>
+      <c r="X110" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y110" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z110" s="3"/>
+      <c r="AA110" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB110" s="11"/>
       <c r="AC110" s="6"/>
       <c r="AD110" s="6"/>
       <c r="AE110" s="6"/>
@@ -7416,29 +7698,32 @@
       <c r="AG110" s="6"/>
       <c r="AH110" s="6"/>
       <c r="AI110" s="6"/>
-    </row>
-    <row r="111" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ110" s="6"/>
+    </row>
+    <row r="111" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
+      <c r="E111" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
-      <c r="K111" s="4">
+      <c r="K111" s="4"/>
+      <c r="L111" s="4">
         <v>54</v>
       </c>
-      <c r="L111" s="4">
+      <c r="M111" s="4">
         <v>45</v>
       </c>
-      <c r="M111" s="4"/>
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
       <c r="P111" s="4"/>
@@ -7448,18 +7733,18 @@
       <c r="T111" s="4"/>
       <c r="U111" s="4"/>
       <c r="V111" s="4"/>
-      <c r="W111" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="X111" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y111" s="3"/>
-      <c r="Z111" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA111" s="11"/>
-      <c r="AB111" s="6"/>
+      <c r="W111" s="4"/>
+      <c r="X111" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y111" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z111" s="3"/>
+      <c r="AA111" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB111" s="11"/>
       <c r="AC111" s="6"/>
       <c r="AD111" s="6"/>
       <c r="AE111" s="6"/>
@@ -7467,29 +7752,32 @@
       <c r="AG111" s="6"/>
       <c r="AH111" s="6"/>
       <c r="AI111" s="6"/>
-    </row>
-    <row r="112" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ111" s="6"/>
+    </row>
+    <row r="112" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
+      <c r="E112" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
-      <c r="K112" s="4">
+      <c r="K112" s="4"/>
+      <c r="L112" s="4">
         <v>102</v>
       </c>
-      <c r="L112" s="4">
+      <c r="M112" s="4">
         <v>45</v>
       </c>
-      <c r="M112" s="4"/>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
       <c r="P112" s="4"/>
@@ -7499,18 +7787,18 @@
       <c r="T112" s="4"/>
       <c r="U112" s="4"/>
       <c r="V112" s="4"/>
-      <c r="W112" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="X112" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y112" s="3"/>
-      <c r="Z112" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA112" s="11"/>
-      <c r="AB112" s="6"/>
+      <c r="W112" s="4"/>
+      <c r="X112" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y112" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z112" s="3"/>
+      <c r="AA112" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB112" s="11"/>
       <c r="AC112" s="6"/>
       <c r="AD112" s="6"/>
       <c r="AE112" s="6"/>
@@ -7518,29 +7806,32 @@
       <c r="AG112" s="6"/>
       <c r="AH112" s="6"/>
       <c r="AI112" s="6"/>
-    </row>
-    <row r="113" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ112" s="6"/>
+    </row>
+    <row r="113" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
+      <c r="E113" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
-      <c r="K113" s="4">
+      <c r="K113" s="4"/>
+      <c r="L113" s="4">
         <v>696</v>
       </c>
-      <c r="L113" s="4">
+      <c r="M113" s="4">
         <v>567</v>
       </c>
-      <c r="M113" s="4"/>
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
       <c r="P113" s="4"/>
@@ -7550,18 +7841,18 @@
       <c r="T113" s="4"/>
       <c r="U113" s="4"/>
       <c r="V113" s="4"/>
-      <c r="W113" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="X113" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y113" s="3"/>
-      <c r="Z113" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA113" s="11"/>
-      <c r="AB113" s="6"/>
+      <c r="W113" s="4"/>
+      <c r="X113" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y113" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z113" s="3"/>
+      <c r="AA113" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB113" s="11"/>
       <c r="AC113" s="6"/>
       <c r="AD113" s="6"/>
       <c r="AE113" s="6"/>
@@ -7569,29 +7860,32 @@
       <c r="AG113" s="6"/>
       <c r="AH113" s="6"/>
       <c r="AI113" s="6"/>
-    </row>
-    <row r="114" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ113" s="6"/>
+    </row>
+    <row r="114" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
+      <c r="E114" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
-      <c r="K114" s="4">
+      <c r="K114" s="4"/>
+      <c r="L114" s="4">
         <v>734</v>
       </c>
-      <c r="L114" s="4">
+      <c r="M114" s="4">
         <v>567</v>
       </c>
-      <c r="M114" s="4"/>
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
       <c r="P114" s="4"/>
@@ -7601,18 +7895,18 @@
       <c r="T114" s="4"/>
       <c r="U114" s="4"/>
       <c r="V114" s="4"/>
-      <c r="W114" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="X114" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y114" s="3"/>
-      <c r="Z114" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA114" s="11"/>
-      <c r="AB114" s="6"/>
+      <c r="W114" s="4"/>
+      <c r="X114" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y114" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z114" s="3"/>
+      <c r="AA114" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB114" s="11"/>
       <c r="AC114" s="6"/>
       <c r="AD114" s="6"/>
       <c r="AE114" s="6"/>
@@ -7620,13 +7914,14 @@
       <c r="AG114" s="6"/>
       <c r="AH114" s="6"/>
       <c r="AI114" s="6"/>
-    </row>
-    <row r="115" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ114" s="6"/>
+    </row>
+    <row r="115" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -7636,13 +7931,13 @@
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
-      <c r="K115" s="4">
+      <c r="K115" s="4"/>
+      <c r="L115" s="4">
         <v>24</v>
       </c>
-      <c r="L115" s="4">
+      <c r="M115" s="4">
         <v>191</v>
       </c>
-      <c r="M115" s="4"/>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
       <c r="P115" s="4"/>
@@ -7651,17 +7946,17 @@
       <c r="S115" s="4"/>
       <c r="T115" s="4"/>
       <c r="U115" s="4"/>
-      <c r="V115" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="W115" s="4"/>
+      <c r="V115" s="4"/>
+      <c r="W115" s="4" t="s">
+        <v>191</v>
+      </c>
       <c r="X115" s="4"/>
-      <c r="Y115" s="5"/>
-      <c r="Z115" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA115" s="11"/>
-      <c r="AB115" s="6"/>
+      <c r="Y115" s="4"/>
+      <c r="Z115" s="5"/>
+      <c r="AA115" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB115" s="11"/>
       <c r="AC115" s="6"/>
       <c r="AD115" s="6"/>
       <c r="AE115" s="6"/>
@@ -7669,13 +7964,14 @@
       <c r="AG115" s="6"/>
       <c r="AH115" s="6"/>
       <c r="AI115" s="6"/>
-    </row>
-    <row r="116" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ115" s="6"/>
+    </row>
+    <row r="116" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
@@ -7685,13 +7981,13 @@
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
-      <c r="K116" s="4">
+      <c r="K116" s="4"/>
+      <c r="L116" s="4">
         <v>174</v>
       </c>
-      <c r="L116" s="4">
+      <c r="M116" s="4">
         <v>191</v>
       </c>
-      <c r="M116" s="4"/>
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
       <c r="P116" s="4"/>
@@ -7700,17 +7996,17 @@
       <c r="S116" s="4"/>
       <c r="T116" s="4"/>
       <c r="U116" s="4"/>
-      <c r="V116" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="W116" s="4"/>
+      <c r="V116" s="4"/>
+      <c r="W116" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="X116" s="4"/>
-      <c r="Y116" s="5"/>
-      <c r="Z116" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA116" s="11"/>
-      <c r="AB116" s="6"/>
+      <c r="Y116" s="4"/>
+      <c r="Z116" s="5"/>
+      <c r="AA116" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB116" s="11"/>
       <c r="AC116" s="6"/>
       <c r="AD116" s="6"/>
       <c r="AE116" s="6"/>
@@ -7718,13 +8014,14 @@
       <c r="AG116" s="6"/>
       <c r="AH116" s="6"/>
       <c r="AI116" s="6"/>
-    </row>
-    <row r="117" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ116" s="6"/>
+    </row>
+    <row r="117" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -7734,13 +8031,13 @@
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
-      <c r="K117" s="4">
+      <c r="K117" s="4"/>
+      <c r="L117" s="4">
         <v>569</v>
       </c>
-      <c r="L117" s="4">
+      <c r="M117" s="4">
         <v>164</v>
       </c>
-      <c r="M117" s="4"/>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
       <c r="P117" s="4"/>
@@ -7749,17 +8046,17 @@
       <c r="S117" s="4"/>
       <c r="T117" s="4"/>
       <c r="U117" s="4"/>
-      <c r="V117" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="W117" s="4"/>
+      <c r="V117" s="4"/>
+      <c r="W117" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="X117" s="4"/>
-      <c r="Y117" s="5"/>
-      <c r="Z117" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA117" s="11"/>
-      <c r="AB117" s="6"/>
+      <c r="Y117" s="4"/>
+      <c r="Z117" s="5"/>
+      <c r="AA117" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB117" s="11"/>
       <c r="AC117" s="6"/>
       <c r="AD117" s="6"/>
       <c r="AE117" s="6"/>
@@ -7767,13 +8064,14 @@
       <c r="AG117" s="6"/>
       <c r="AH117" s="6"/>
       <c r="AI117" s="6"/>
-    </row>
-    <row r="118" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ117" s="6"/>
+    </row>
+    <row r="118" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -7783,13 +8081,13 @@
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
-      <c r="K118" s="4">
+      <c r="K118" s="4"/>
+      <c r="L118" s="4">
         <v>569</v>
       </c>
-      <c r="L118" s="4">
+      <c r="M118" s="4">
         <v>278</v>
       </c>
-      <c r="M118" s="4"/>
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
       <c r="P118" s="4"/>
@@ -7798,17 +8096,17 @@
       <c r="S118" s="4"/>
       <c r="T118" s="4"/>
       <c r="U118" s="4"/>
-      <c r="V118" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="W118" s="4"/>
+      <c r="V118" s="4"/>
+      <c r="W118" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="X118" s="4"/>
-      <c r="Y118" s="5"/>
-      <c r="Z118" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA118" s="11"/>
-      <c r="AB118" s="6"/>
+      <c r="Y118" s="4"/>
+      <c r="Z118" s="5"/>
+      <c r="AA118" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB118" s="11"/>
       <c r="AC118" s="6"/>
       <c r="AD118" s="6"/>
       <c r="AE118" s="6"/>
@@ -7816,13 +8114,14 @@
       <c r="AG118" s="6"/>
       <c r="AH118" s="6"/>
       <c r="AI118" s="6"/>
-    </row>
-    <row r="119" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ118" s="6"/>
+    </row>
+    <row r="119" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -7832,13 +8131,13 @@
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
-      <c r="K119" s="4">
+      <c r="K119" s="4"/>
+      <c r="L119" s="4">
         <v>569</v>
       </c>
-      <c r="L119" s="4">
+      <c r="M119" s="4">
         <v>338</v>
       </c>
-      <c r="M119" s="4"/>
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
       <c r="P119" s="4"/>
@@ -7847,17 +8146,17 @@
       <c r="S119" s="4"/>
       <c r="T119" s="4"/>
       <c r="U119" s="4"/>
-      <c r="V119" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="W119" s="4"/>
+      <c r="V119" s="4"/>
+      <c r="W119" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="X119" s="4"/>
-      <c r="Y119" s="5"/>
-      <c r="Z119" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA119" s="11"/>
-      <c r="AB119" s="6"/>
+      <c r="Y119" s="4"/>
+      <c r="Z119" s="5"/>
+      <c r="AA119" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB119" s="11"/>
       <c r="AC119" s="6"/>
       <c r="AD119" s="6"/>
       <c r="AE119" s="6"/>
@@ -7865,13 +8164,14 @@
       <c r="AG119" s="6"/>
       <c r="AH119" s="6"/>
       <c r="AI119" s="6"/>
-    </row>
-    <row r="120" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ119" s="6"/>
+    </row>
+    <row r="120" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -7881,13 +8181,13 @@
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
-      <c r="K120" s="4">
+      <c r="K120" s="4"/>
+      <c r="L120" s="4">
         <v>569</v>
       </c>
-      <c r="L120" s="4">
+      <c r="M120" s="4">
         <v>452</v>
       </c>
-      <c r="M120" s="4"/>
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
       <c r="P120" s="4"/>
@@ -7896,17 +8196,17 @@
       <c r="S120" s="4"/>
       <c r="T120" s="4"/>
       <c r="U120" s="4"/>
-      <c r="V120" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="W120" s="4"/>
+      <c r="V120" s="4"/>
+      <c r="W120" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="X120" s="4"/>
-      <c r="Y120" s="5"/>
-      <c r="Z120" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA120" s="11"/>
-      <c r="AB120" s="6"/>
+      <c r="Y120" s="4"/>
+      <c r="Z120" s="5"/>
+      <c r="AA120" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB120" s="11"/>
       <c r="AC120" s="6"/>
       <c r="AD120" s="6"/>
       <c r="AE120" s="6"/>
@@ -7914,13 +8214,14 @@
       <c r="AG120" s="6"/>
       <c r="AH120" s="6"/>
       <c r="AI120" s="6"/>
-    </row>
-    <row r="121" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ120" s="6"/>
+    </row>
+    <row r="121" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -7930,13 +8231,13 @@
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
-      <c r="K121" s="4">
+      <c r="K121" s="4"/>
+      <c r="L121" s="4">
         <v>985</v>
       </c>
-      <c r="L121" s="4">
+      <c r="M121" s="4">
         <v>425</v>
       </c>
-      <c r="M121" s="4"/>
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
@@ -7945,17 +8246,17 @@
       <c r="S121" s="4"/>
       <c r="T121" s="4"/>
       <c r="U121" s="4"/>
-      <c r="V121" s="4" t="s">
+      <c r="V121" s="4"/>
+      <c r="W121" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="X121" s="4"/>
+      <c r="Y121" s="4"/>
+      <c r="Z121" s="5"/>
+      <c r="AA121" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="W121" s="4"/>
-      <c r="X121" s="4"/>
-      <c r="Y121" s="5"/>
-      <c r="Z121" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA121" s="11"/>
-      <c r="AB121" s="6"/>
+      <c r="AB121" s="11"/>
       <c r="AC121" s="6"/>
       <c r="AD121" s="6"/>
       <c r="AE121" s="6"/>
@@ -7963,13 +8264,14 @@
       <c r="AG121" s="6"/>
       <c r="AH121" s="6"/>
       <c r="AI121" s="6"/>
-    </row>
-    <row r="122" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ121" s="6"/>
+    </row>
+    <row r="122" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -7979,13 +8281,13 @@
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
-      <c r="K122" s="4">
+      <c r="K122" s="4"/>
+      <c r="L122" s="4">
         <v>985</v>
       </c>
-      <c r="L122" s="4">
+      <c r="M122" s="4">
         <v>471</v>
       </c>
-      <c r="M122" s="4"/>
       <c r="N122" s="4"/>
       <c r="O122" s="4"/>
       <c r="P122" s="4"/>
@@ -7994,17 +8296,17 @@
       <c r="S122" s="4"/>
       <c r="T122" s="4"/>
       <c r="U122" s="4"/>
-      <c r="V122" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="W122" s="4"/>
+      <c r="V122" s="4"/>
+      <c r="W122" s="14" t="s">
+        <v>199</v>
+      </c>
       <c r="X122" s="4"/>
-      <c r="Y122" s="5"/>
-      <c r="Z122" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA122" s="11"/>
-      <c r="AB122" s="6"/>
+      <c r="Y122" s="4"/>
+      <c r="Z122" s="5"/>
+      <c r="AA122" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB122" s="11"/>
       <c r="AC122" s="6"/>
       <c r="AD122" s="6"/>
       <c r="AE122" s="6"/>
@@ -8012,13 +8314,14 @@
       <c r="AG122" s="6"/>
       <c r="AH122" s="6"/>
       <c r="AI122" s="6"/>
-    </row>
-    <row r="123" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ122" s="6"/>
+    </row>
+    <row r="123" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
@@ -8028,13 +8331,13 @@
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
-      <c r="K123" s="4">
+      <c r="K123" s="4"/>
+      <c r="L123" s="4">
         <v>1135</v>
       </c>
-      <c r="L123" s="4">
+      <c r="M123" s="4">
         <v>425</v>
       </c>
-      <c r="M123" s="4"/>
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>
       <c r="P123" s="4"/>
@@ -8043,17 +8346,17 @@
       <c r="S123" s="4"/>
       <c r="T123" s="4"/>
       <c r="U123" s="4"/>
-      <c r="V123" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="W123" s="4"/>
+      <c r="V123" s="4"/>
+      <c r="W123" s="4" t="s">
+        <v>200</v>
+      </c>
       <c r="X123" s="4"/>
-      <c r="Y123" s="5"/>
-      <c r="Z123" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA123" s="11"/>
-      <c r="AB123" s="6"/>
+      <c r="Y123" s="4"/>
+      <c r="Z123" s="5"/>
+      <c r="AA123" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB123" s="11"/>
       <c r="AC123" s="6"/>
       <c r="AD123" s="6"/>
       <c r="AE123" s="6"/>
@@ -8061,13 +8364,14 @@
       <c r="AG123" s="6"/>
       <c r="AH123" s="6"/>
       <c r="AI123" s="6"/>
-    </row>
-    <row r="124" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ123" s="6"/>
+    </row>
+    <row r="124" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
@@ -8077,13 +8381,13 @@
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
-      <c r="K124" s="4">
+      <c r="K124" s="4"/>
+      <c r="L124" s="4">
         <v>1285</v>
       </c>
-      <c r="L124" s="4">
+      <c r="M124" s="4">
         <v>425</v>
       </c>
-      <c r="M124" s="4"/>
       <c r="N124" s="4"/>
       <c r="O124" s="4"/>
       <c r="P124" s="4"/>
@@ -8092,17 +8396,17 @@
       <c r="S124" s="4"/>
       <c r="T124" s="4"/>
       <c r="U124" s="4"/>
-      <c r="V124" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="W124" s="4"/>
+      <c r="V124" s="4"/>
+      <c r="W124" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="X124" s="4"/>
-      <c r="Y124" s="5"/>
-      <c r="Z124" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA124" s="11"/>
-      <c r="AB124" s="6"/>
+      <c r="Y124" s="4"/>
+      <c r="Z124" s="5"/>
+      <c r="AA124" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB124" s="11"/>
       <c r="AC124" s="6"/>
       <c r="AD124" s="6"/>
       <c r="AE124" s="6"/>
@@ -8110,8 +8414,9 @@
       <c r="AG124" s="6"/>
       <c r="AH124" s="6"/>
       <c r="AI124" s="6"/>
-    </row>
-    <row r="125" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ124" s="6"/>
+    </row>
+    <row r="125" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -8136,8 +8441,8 @@
       <c r="V125" s="4"/>
       <c r="W125" s="4"/>
       <c r="X125" s="4"/>
-      <c r="Y125" s="5"/>
-      <c r="Z125" s="6"/>
+      <c r="Y125" s="4"/>
+      <c r="Z125" s="5"/>
       <c r="AA125" s="6"/>
       <c r="AB125" s="6"/>
       <c r="AC125" s="6"/>
@@ -8147,8 +8452,9 @@
       <c r="AG125" s="6"/>
       <c r="AH125" s="6"/>
       <c r="AI125" s="6"/>
-    </row>
-    <row r="126" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ125" s="6"/>
+    </row>
+    <row r="126" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -8173,8 +8479,8 @@
       <c r="V126" s="4"/>
       <c r="W126" s="4"/>
       <c r="X126" s="4"/>
-      <c r="Y126" s="5"/>
-      <c r="Z126" s="6"/>
+      <c r="Y126" s="4"/>
+      <c r="Z126" s="5"/>
       <c r="AA126" s="6"/>
       <c r="AB126" s="6"/>
       <c r="AC126" s="6"/>
@@ -8184,8 +8490,9 @@
       <c r="AG126" s="6"/>
       <c r="AH126" s="6"/>
       <c r="AI126" s="6"/>
-    </row>
-    <row r="127" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ126" s="6"/>
+    </row>
+    <row r="127" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -8210,8 +8517,8 @@
       <c r="V127" s="4"/>
       <c r="W127" s="4"/>
       <c r="X127" s="4"/>
-      <c r="Y127" s="5"/>
-      <c r="Z127" s="6"/>
+      <c r="Y127" s="4"/>
+      <c r="Z127" s="5"/>
       <c r="AA127" s="6"/>
       <c r="AB127" s="6"/>
       <c r="AC127" s="6"/>
@@ -8221,8 +8528,9 @@
       <c r="AG127" s="6"/>
       <c r="AH127" s="6"/>
       <c r="AI127" s="6"/>
-    </row>
-    <row r="128" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ127" s="6"/>
+    </row>
+    <row r="128" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -8247,8 +8555,8 @@
       <c r="V128" s="4"/>
       <c r="W128" s="4"/>
       <c r="X128" s="4"/>
-      <c r="Y128" s="5"/>
-      <c r="Z128" s="6"/>
+      <c r="Y128" s="4"/>
+      <c r="Z128" s="5"/>
       <c r="AA128" s="6"/>
       <c r="AB128" s="6"/>
       <c r="AC128" s="6"/>
@@ -8258,8 +8566,9 @@
       <c r="AG128" s="6"/>
       <c r="AH128" s="6"/>
       <c r="AI128" s="6"/>
-    </row>
-    <row r="129" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ128" s="6"/>
+    </row>
+    <row r="129" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -8284,8 +8593,8 @@
       <c r="V129" s="4"/>
       <c r="W129" s="4"/>
       <c r="X129" s="4"/>
-      <c r="Y129" s="5"/>
-      <c r="Z129" s="6"/>
+      <c r="Y129" s="4"/>
+      <c r="Z129" s="5"/>
       <c r="AA129" s="6"/>
       <c r="AB129" s="6"/>
       <c r="AC129" s="6"/>
@@ -8295,8 +8604,9 @@
       <c r="AG129" s="6"/>
       <c r="AH129" s="6"/>
       <c r="AI129" s="6"/>
-    </row>
-    <row r="130" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ129" s="6"/>
+    </row>
+    <row r="130" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -8321,8 +8631,8 @@
       <c r="V130" s="4"/>
       <c r="W130" s="4"/>
       <c r="X130" s="4"/>
-      <c r="Y130" s="5"/>
-      <c r="Z130" s="6"/>
+      <c r="Y130" s="4"/>
+      <c r="Z130" s="5"/>
       <c r="AA130" s="6"/>
       <c r="AB130" s="6"/>
       <c r="AC130" s="6"/>
@@ -8332,6 +8642,7 @@
       <c r="AG130" s="6"/>
       <c r="AH130" s="6"/>
       <c r="AI130" s="6"/>
+      <c r="AJ130" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -8358,52 +8669,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/exe/TSV/Excel/TH71_Tsuzaki_UIList.xlsx
+++ b/exe/TSV/Excel/TH71_Tsuzaki_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A28996-1FBE-46E5-8CD7-B0938F58A0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5AC6B2-D043-47FB-B2CC-39BA01EB0308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="4320" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7230" yWindow="4680" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH71_津崎駅_UIList" sheetId="1" r:id="rId1"/>
@@ -451,7 +451,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="210">
   <si>
     <t>Type</t>
   </si>
@@ -573,6 +573,9 @@
     <t>1R</t>
   </si>
   <si>
+    <t>てこ</t>
+  </si>
+  <si>
     <t>0,1</t>
   </si>
   <si>
@@ -687,6 +690,9 @@
     <t>T</t>
   </si>
   <si>
+    <t>着点ボタン</t>
+  </si>
+  <si>
     <t>Image/Button/ArrivalButton_Base.png</t>
   </si>
   <si>
@@ -828,7 +834,7 @@
     <t>駅扱切換_PY</t>
   </si>
   <si>
-    <t>てこ</t>
+    <t>駅扱切換てこ</t>
   </si>
   <si>
     <t>駅扱切換_PG</t>
@@ -1718,7 +1724,9 @@
         <v>39</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1743,19 +1751,19 @@
         <v>39</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W6" s="7">
         <v>0</v>
       </c>
       <c r="X6" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z6" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
@@ -1771,14 +1779,14 @@
         <v>29</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1801,17 +1809,17 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W7" s="7">
         <v>0</v>
       </c>
       <c r="X7" s="8"/>
       <c r="Y7" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z7" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
@@ -1827,14 +1835,14 @@
         <v>29</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1857,14 +1865,14 @@
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W8" s="7">
         <v>0</v>
       </c>
       <c r="X8" s="8"/>
       <c r="Y8" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
@@ -1878,10 +1886,10 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>39</v>
@@ -1914,10 +1922,10 @@
         <v>10</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>39</v>
@@ -1941,10 +1949,12 @@
         <v>38</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1966,19 +1976,19 @@
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W10" s="7">
         <v>0</v>
       </c>
       <c r="X10" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y10" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
@@ -1995,14 +2005,14 @@
         <v>29</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -2025,14 +2035,14 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W11" s="7">
         <v>0</v>
       </c>
       <c r="X11" s="8"/>
       <c r="Y11" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
@@ -2046,13 +2056,13 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -2082,13 +2092,13 @@
         <v>10</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
@@ -2109,10 +2119,12 @@
         <v>38</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -2134,19 +2146,19 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W13" s="7">
         <v>0</v>
       </c>
       <c r="X13" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y13" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
@@ -2163,14 +2175,14 @@
         <v>29</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -2193,14 +2205,14 @@
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W14" s="7">
         <v>0</v>
       </c>
       <c r="X14" s="8"/>
       <c r="Y14" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
@@ -2214,13 +2226,13 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2250,13 +2262,13 @@
         <v>10</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
@@ -2277,10 +2289,12 @@
         <v>38</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -2302,19 +2316,19 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V16" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W16" s="7">
         <v>0</v>
       </c>
       <c r="X16" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y16" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
@@ -2331,14 +2345,14 @@
         <v>29</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -2361,14 +2375,14 @@
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
       <c r="V17" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W17" s="7">
         <v>0</v>
       </c>
       <c r="X17" s="8"/>
       <c r="Y17" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
@@ -2382,13 +2396,13 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -2418,13 +2432,13 @@
         <v>10</v>
       </c>
       <c r="S18" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T18" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U18" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
@@ -2445,10 +2459,12 @@
         <v>38</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -2470,19 +2486,19 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W19" s="7">
         <v>0</v>
       </c>
       <c r="X19" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y19" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
@@ -2499,14 +2515,14 @@
         <v>29</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -2529,14 +2545,14 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W20" s="7">
         <v>0</v>
       </c>
       <c r="X20" s="8"/>
       <c r="Y20" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
@@ -2550,13 +2566,13 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -2586,13 +2602,13 @@
         <v>10</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
@@ -2613,10 +2629,12 @@
         <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -2638,19 +2656,19 @@
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V22" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W22" s="7">
         <v>0</v>
       </c>
       <c r="X22" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y22" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
@@ -2667,14 +2685,14 @@
         <v>29</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -2697,14 +2715,14 @@
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W23" s="7">
         <v>0</v>
       </c>
       <c r="X23" s="8"/>
       <c r="Y23" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
@@ -2721,14 +2739,14 @@
         <v>29</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -2751,14 +2769,14 @@
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W24" s="7">
         <v>0</v>
       </c>
       <c r="X24" s="8"/>
       <c r="Y24" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z24" s="6"/>
       <c r="AA24" s="6"/>
@@ -2772,13 +2790,13 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -2808,13 +2826,13 @@
         <v>10</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T25" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
@@ -2832,13 +2850,15 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -2860,19 +2880,19 @@
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V26" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W26" s="7">
         <v>0</v>
       </c>
       <c r="X26" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y26" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z26" s="6"/>
       <c r="AA26" s="6"/>
@@ -2886,13 +2906,13 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -2916,19 +2936,19 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R27" s="7">
         <v>10</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
@@ -2946,13 +2966,15 @@
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -2974,19 +2996,19 @@
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="V28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="W28" s="7">
+        <v>0</v>
+      </c>
+      <c r="X28" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y28" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="V28" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="W28" s="7">
-        <v>0</v>
-      </c>
-      <c r="X28" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y28" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="Z28" s="6"/>
       <c r="AA28" s="6"/>
@@ -3000,13 +3022,13 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -3030,19 +3052,19 @@
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R29" s="7">
         <v>10</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
@@ -3060,13 +3082,15 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -3088,19 +3112,19 @@
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
       <c r="U30" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="V30" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W30" s="7">
         <v>0</v>
       </c>
       <c r="X30" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y30" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z30" s="6"/>
       <c r="AA30" s="6"/>
@@ -3114,13 +3138,13 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -3144,19 +3168,19 @@
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R31" s="7">
         <v>10</v>
       </c>
       <c r="S31" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T31" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
@@ -3174,13 +3198,15 @@
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -3202,19 +3228,19 @@
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V32" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W32" s="7">
         <v>0</v>
       </c>
       <c r="X32" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y32" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z32" s="6"/>
       <c r="AA32" s="6"/>
@@ -3228,13 +3254,13 @@
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -3258,19 +3284,19 @@
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R33" s="7">
         <v>10</v>
       </c>
       <c r="S33" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
@@ -3288,13 +3314,15 @@
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+      <c r="D34" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -3316,19 +3344,19 @@
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
       <c r="U34" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="V34" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W34" s="7">
         <v>0</v>
       </c>
       <c r="X34" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y34" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z34" s="6"/>
       <c r="AA34" s="6"/>
@@ -3342,13 +3370,13 @@
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -3372,19 +3400,19 @@
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="R35" s="7">
         <v>10</v>
       </c>
       <c r="S35" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T35" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
@@ -3402,13 +3430,15 @@
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="D36" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -3430,19 +3460,19 @@
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
       <c r="U36" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="V36" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W36" s="7">
         <v>0</v>
       </c>
       <c r="X36" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y36" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z36" s="6"/>
       <c r="AA36" s="6"/>
@@ -3456,13 +3486,13 @@
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -3486,19 +3516,19 @@
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R37" s="7">
         <v>10</v>
       </c>
       <c r="S37" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T37" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
@@ -3516,10 +3546,10 @@
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -3544,19 +3574,19 @@
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
       <c r="U38" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="V38" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W38" s="12">
         <v>0</v>
       </c>
       <c r="X38" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Y38" s="13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Z38" s="11"/>
       <c r="AA38" s="6"/>
@@ -3570,10 +3600,10 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -3598,19 +3628,19 @@
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
       <c r="U39" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="V39" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="W39" s="12">
+        <v>0</v>
+      </c>
+      <c r="X39" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="V39" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="W39" s="12">
-        <v>0</v>
-      </c>
-      <c r="X39" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="Y39" s="13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Z39" s="11"/>
       <c r="AA39" s="6"/>
@@ -3627,10 +3657,12 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
+      <c r="D40" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -3652,22 +3684,22 @@
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
       <c r="U40" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="V40" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="W40" s="7">
         <v>0</v>
       </c>
       <c r="X40" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Y40" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Z40" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
@@ -3683,11 +3715,11 @@
         <v>29</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="4"/>
@@ -3711,14 +3743,14 @@
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
       <c r="V41" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W41" s="7">
         <v>0</v>
       </c>
       <c r="X41" s="8"/>
       <c r="Y41" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Z41" s="6"/>
       <c r="AA41" s="6"/>
@@ -3735,11 +3767,11 @@
         <v>29</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="4"/>
@@ -3763,14 +3795,14 @@
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
       <c r="V42" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W42" s="7">
         <v>0</v>
       </c>
       <c r="X42" s="8"/>
       <c r="Y42" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z42" s="6"/>
       <c r="AA42" s="6"/>
@@ -3784,13 +3816,13 @@
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -3820,13 +3852,13 @@
         <v>10</v>
       </c>
       <c r="S43" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T43" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U43" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
@@ -3847,10 +3879,12 @@
         <v>38</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
+      <c r="D44" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -3872,19 +3906,19 @@
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
       <c r="U44" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="V44" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="W44" s="7">
         <v>0</v>
       </c>
       <c r="X44" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Y44" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Z44" s="6"/>
       <c r="AA44" s="6"/>
@@ -3901,11 +3935,11 @@
         <v>29</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="4"/>
@@ -3929,14 +3963,14 @@
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
       <c r="V45" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W45" s="7">
         <v>0</v>
       </c>
       <c r="X45" s="8"/>
       <c r="Y45" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Z45" s="6"/>
       <c r="AA45" s="6"/>
@@ -3953,11 +3987,11 @@
         <v>29</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="4"/>
@@ -3981,14 +4015,14 @@
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
       <c r="V46" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W46" s="7">
         <v>0</v>
       </c>
       <c r="X46" s="8"/>
       <c r="Y46" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z46" s="6"/>
       <c r="AA46" s="6"/>
@@ -4002,13 +4036,13 @@
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -4038,13 +4072,13 @@
         <v>10</v>
       </c>
       <c r="S47" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T47" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U47" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
@@ -4065,10 +4099,12 @@
         <v>38</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
+      <c r="D48" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -4090,19 +4126,19 @@
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
       <c r="U48" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="V48" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="W48" s="7">
         <v>0</v>
       </c>
       <c r="X48" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Y48" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Z48" s="6"/>
       <c r="AA48" s="6"/>
@@ -4119,11 +4155,11 @@
         <v>29</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="4"/>
@@ -4147,14 +4183,14 @@
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
       <c r="V49" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W49" s="7">
         <v>0</v>
       </c>
       <c r="X49" s="8"/>
       <c r="Y49" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Z49" s="6"/>
       <c r="AA49" s="6"/>
@@ -4171,11 +4207,11 @@
         <v>29</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="4"/>
@@ -4199,14 +4235,14 @@
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
       <c r="V50" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W50" s="7">
         <v>0</v>
       </c>
       <c r="X50" s="8"/>
       <c r="Y50" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z50" s="6"/>
       <c r="AA50" s="6"/>
@@ -4220,13 +4256,13 @@
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -4256,13 +4292,13 @@
         <v>10</v>
       </c>
       <c r="S51" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T51" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U51" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
@@ -4283,10 +4319,12 @@
         <v>38</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
+      <c r="D52" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -4308,19 +4346,19 @@
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
       <c r="U52" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="V52" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="W52" s="7">
         <v>0</v>
       </c>
       <c r="X52" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Y52" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Z52" s="6"/>
       <c r="AA52" s="6"/>
@@ -4337,11 +4375,11 @@
         <v>29</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="4"/>
@@ -4365,14 +4403,14 @@
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
       <c r="V53" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W53" s="7">
         <v>0</v>
       </c>
       <c r="X53" s="8"/>
       <c r="Y53" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Z53" s="6"/>
       <c r="AA53" s="6"/>
@@ -4389,11 +4427,11 @@
         <v>29</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="4"/>
@@ -4417,14 +4455,14 @@
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
       <c r="V54" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W54" s="7">
         <v>0</v>
       </c>
       <c r="X54" s="8"/>
       <c r="Y54" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z54" s="6"/>
       <c r="AA54" s="6"/>
@@ -4438,13 +4476,13 @@
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -4474,13 +4512,13 @@
         <v>10</v>
       </c>
       <c r="S55" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T55" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U55" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
@@ -4498,13 +4536,15 @@
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
+      <c r="D56" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -4526,22 +4566,22 @@
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
       <c r="U56" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="V56" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W56" s="7">
         <v>1</v>
       </c>
       <c r="X56" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Y56" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Z56" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AA56" s="6"/>
       <c r="AB56" s="6"/>
@@ -4557,11 +4597,11 @@
         <v>29</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -4585,14 +4625,14 @@
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
       <c r="V57" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W57" s="12">
         <v>0</v>
       </c>
       <c r="X57" s="3"/>
       <c r="Y57" s="13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z57" s="6"/>
       <c r="AA57" s="6"/>
@@ -4609,11 +4649,11 @@
         <v>29</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -4637,14 +4677,14 @@
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
       <c r="V58" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W58" s="12">
         <v>0</v>
       </c>
       <c r="X58" s="3"/>
       <c r="Y58" s="13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Z58" s="6"/>
       <c r="AA58" s="6"/>
@@ -4661,11 +4701,11 @@
         <v>29</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -4689,17 +4729,17 @@
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
       <c r="V59" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W59" s="12">
         <v>0</v>
       </c>
       <c r="X59" s="3"/>
       <c r="Y59" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z59" s="11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AA59" s="6"/>
       <c r="AB59" s="6"/>
@@ -4715,11 +4755,11 @@
         <v>29</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -4743,14 +4783,14 @@
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
       <c r="V60" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W60" s="12">
         <v>0</v>
       </c>
       <c r="X60" s="3"/>
       <c r="Y60" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z60" s="11"/>
       <c r="AA60" s="6"/>
@@ -4767,11 +4807,11 @@
         <v>29</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -4795,14 +4835,14 @@
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
       <c r="V61" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W61" s="12">
         <v>0</v>
       </c>
       <c r="X61" s="3"/>
       <c r="Y61" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z61" s="11"/>
       <c r="AA61" s="6"/>
@@ -4819,11 +4859,11 @@
         <v>29</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -4847,14 +4887,14 @@
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
       <c r="V62" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W62" s="12">
         <v>0</v>
       </c>
       <c r="X62" s="3"/>
       <c r="Y62" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z62" s="11"/>
       <c r="AA62" s="6"/>
@@ -4871,11 +4911,11 @@
         <v>29</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
@@ -4899,14 +4939,14 @@
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
       <c r="V63" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W63" s="12">
         <v>0</v>
       </c>
       <c r="X63" s="3"/>
       <c r="Y63" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z63" s="11"/>
       <c r="AA63" s="6"/>
@@ -4923,11 +4963,11 @@
         <v>29</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -4951,14 +4991,14 @@
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
       <c r="V64" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W64" s="12">
         <v>0</v>
       </c>
       <c r="X64" s="3"/>
       <c r="Y64" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z64" s="11"/>
       <c r="AA64" s="6"/>
@@ -4975,11 +5015,11 @@
         <v>29</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -5003,14 +5043,14 @@
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
       <c r="V65" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W65" s="12">
         <v>0</v>
       </c>
       <c r="X65" s="3"/>
       <c r="Y65" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z65" s="11"/>
       <c r="AA65" s="6"/>
@@ -5027,11 +5067,11 @@
         <v>29</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
@@ -5055,14 +5095,14 @@
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
       <c r="V66" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W66" s="12">
         <v>0</v>
       </c>
       <c r="X66" s="3"/>
       <c r="Y66" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z66" s="11"/>
       <c r="AA66" s="6"/>
@@ -5079,11 +5119,11 @@
         <v>29</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
@@ -5107,14 +5147,14 @@
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
       <c r="V67" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W67" s="12">
         <v>0</v>
       </c>
       <c r="X67" s="3"/>
       <c r="Y67" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z67" s="11"/>
       <c r="AA67" s="6"/>
@@ -5131,11 +5171,11 @@
         <v>29</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -5159,14 +5199,14 @@
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
       <c r="V68" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W68" s="12">
         <v>0</v>
       </c>
       <c r="X68" s="3"/>
       <c r="Y68" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z68" s="11"/>
       <c r="AA68" s="6"/>
@@ -5183,11 +5223,11 @@
         <v>29</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -5211,14 +5251,14 @@
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
       <c r="V69" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W69" s="12">
         <v>0</v>
       </c>
       <c r="X69" s="3"/>
       <c r="Y69" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z69" s="11"/>
       <c r="AA69" s="6"/>
@@ -5235,11 +5275,11 @@
         <v>29</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
@@ -5263,14 +5303,14 @@
       <c r="T70" s="4"/>
       <c r="U70" s="4"/>
       <c r="V70" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W70" s="12">
         <v>0</v>
       </c>
       <c r="X70" s="3"/>
       <c r="Y70" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z70" s="11"/>
       <c r="AA70" s="6"/>
@@ -5287,11 +5327,11 @@
         <v>29</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
@@ -5315,14 +5355,14 @@
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
       <c r="V71" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W71" s="12">
         <v>0</v>
       </c>
       <c r="X71" s="3"/>
       <c r="Y71" s="13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Z71" s="11">
         <v>45</v>
@@ -5341,11 +5381,11 @@
         <v>29</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
@@ -5369,14 +5409,14 @@
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
       <c r="V72" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W72" s="12">
         <v>0</v>
       </c>
       <c r="X72" s="3"/>
       <c r="Y72" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z72" s="11"/>
       <c r="AA72" s="6"/>
@@ -5393,11 +5433,11 @@
         <v>29</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
@@ -5421,14 +5461,14 @@
       <c r="T73" s="4"/>
       <c r="U73" s="4"/>
       <c r="V73" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W73" s="12">
         <v>0</v>
       </c>
       <c r="X73" s="3"/>
       <c r="Y73" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z73" s="11"/>
       <c r="AA73" s="6"/>
@@ -5445,11 +5485,11 @@
         <v>29</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -5473,14 +5513,14 @@
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
       <c r="V74" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W74" s="12">
         <v>0</v>
       </c>
       <c r="X74" s="3"/>
       <c r="Y74" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z74" s="11"/>
       <c r="AA74" s="6"/>
@@ -5497,11 +5537,11 @@
         <v>29</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
@@ -5525,14 +5565,14 @@
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
       <c r="V75" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W75" s="12">
         <v>0</v>
       </c>
       <c r="X75" s="3"/>
       <c r="Y75" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z75" s="11"/>
       <c r="AA75" s="6"/>
@@ -5549,11 +5589,11 @@
         <v>29</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
@@ -5577,14 +5617,14 @@
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
       <c r="V76" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W76" s="12">
         <v>0</v>
       </c>
       <c r="X76" s="3"/>
       <c r="Y76" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z76" s="11"/>
       <c r="AA76" s="6"/>
@@ -5601,11 +5641,11 @@
         <v>29</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -5629,14 +5669,14 @@
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
       <c r="V77" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W77" s="12">
         <v>0</v>
       </c>
       <c r="X77" s="3"/>
       <c r="Y77" s="13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z77" s="11">
         <v>135</v>
@@ -5655,11 +5695,11 @@
         <v>29</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
@@ -5683,14 +5723,14 @@
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
       <c r="V78" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W78" s="12">
         <v>0</v>
       </c>
       <c r="X78" s="3"/>
       <c r="Y78" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z78" s="11"/>
       <c r="AA78" s="6"/>
@@ -5707,11 +5747,11 @@
         <v>29</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
@@ -5735,14 +5775,14 @@
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
       <c r="V79" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W79" s="12">
         <v>0</v>
       </c>
       <c r="X79" s="3"/>
       <c r="Y79" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z79" s="11"/>
       <c r="AA79" s="6"/>
@@ -5759,11 +5799,11 @@
         <v>29</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
@@ -5787,14 +5827,14 @@
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
       <c r="V80" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W80" s="12">
         <v>0</v>
       </c>
       <c r="X80" s="3"/>
       <c r="Y80" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z80" s="11"/>
       <c r="AA80" s="6"/>
@@ -5811,11 +5851,11 @@
         <v>29</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
@@ -5839,14 +5879,14 @@
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
       <c r="V81" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W81" s="12">
         <v>0</v>
       </c>
       <c r="X81" s="3"/>
       <c r="Y81" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z81" s="11"/>
       <c r="AA81" s="6"/>
@@ -5863,11 +5903,11 @@
         <v>29</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
@@ -5891,14 +5931,14 @@
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
       <c r="V82" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W82" s="12">
         <v>0</v>
       </c>
       <c r="X82" s="3"/>
       <c r="Y82" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z82" s="11"/>
       <c r="AA82" s="6"/>
@@ -5915,11 +5955,11 @@
         <v>29</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
@@ -5943,14 +5983,14 @@
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
       <c r="V83" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W83" s="12">
         <v>0</v>
       </c>
       <c r="X83" s="3"/>
       <c r="Y83" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z83" s="11"/>
       <c r="AA83" s="6"/>
@@ -5967,11 +6007,11 @@
         <v>29</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -5995,14 +6035,14 @@
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
       <c r="V84" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W84" s="12">
         <v>0</v>
       </c>
       <c r="X84" s="3"/>
       <c r="Y84" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z84" s="11"/>
       <c r="AA84" s="6"/>
@@ -6019,11 +6059,11 @@
         <v>29</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
@@ -6047,14 +6087,14 @@
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
       <c r="V85" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W85" s="12">
         <v>0</v>
       </c>
       <c r="X85" s="3"/>
       <c r="Y85" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z85" s="11"/>
       <c r="AA85" s="6"/>
@@ -6071,11 +6111,11 @@
         <v>29</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -6099,14 +6139,14 @@
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
       <c r="V86" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W86" s="12">
         <v>0</v>
       </c>
       <c r="X86" s="3"/>
       <c r="Y86" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z86" s="11"/>
       <c r="AA86" s="6"/>
@@ -6123,11 +6163,11 @@
         <v>29</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -6151,14 +6191,14 @@
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
       <c r="V87" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W87" s="12">
         <v>0</v>
       </c>
       <c r="X87" s="3"/>
       <c r="Y87" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z87" s="11"/>
       <c r="AA87" s="6"/>
@@ -6175,11 +6215,11 @@
         <v>29</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
@@ -6203,14 +6243,14 @@
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
       <c r="V88" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W88" s="12">
         <v>0</v>
       </c>
       <c r="X88" s="3"/>
       <c r="Y88" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z88" s="11"/>
       <c r="AA88" s="6"/>
@@ -6227,11 +6267,11 @@
         <v>29</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
@@ -6255,14 +6295,14 @@
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
       <c r="V89" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W89" s="12">
         <v>0</v>
       </c>
       <c r="X89" s="3"/>
       <c r="Y89" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z89" s="11"/>
       <c r="AA89" s="6"/>
@@ -6279,11 +6319,11 @@
         <v>29</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
@@ -6307,14 +6347,14 @@
       <c r="T90" s="4"/>
       <c r="U90" s="4"/>
       <c r="V90" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W90" s="12">
         <v>0</v>
       </c>
       <c r="X90" s="3"/>
       <c r="Y90" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z90" s="11"/>
       <c r="AA90" s="6"/>
@@ -6331,11 +6371,11 @@
         <v>29</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
@@ -6359,14 +6399,14 @@
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
       <c r="V91" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W91" s="12">
         <v>0</v>
       </c>
       <c r="X91" s="3"/>
       <c r="Y91" s="13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z91" s="11">
         <v>135</v>
@@ -6385,11 +6425,11 @@
         <v>29</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -6413,14 +6453,14 @@
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
       <c r="V92" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W92" s="12">
         <v>0</v>
       </c>
       <c r="X92" s="3"/>
       <c r="Y92" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z92" s="11"/>
       <c r="AA92" s="6"/>
@@ -6437,11 +6477,11 @@
         <v>29</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -6465,14 +6505,14 @@
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
       <c r="V93" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W93" s="12">
         <v>0</v>
       </c>
       <c r="X93" s="3"/>
       <c r="Y93" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z93" s="11"/>
       <c r="AA93" s="6"/>
@@ -6489,11 +6529,11 @@
         <v>29</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
@@ -6517,14 +6557,14 @@
       <c r="T94" s="4"/>
       <c r="U94" s="4"/>
       <c r="V94" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W94" s="12">
         <v>0</v>
       </c>
       <c r="X94" s="3"/>
       <c r="Y94" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z94" s="11"/>
       <c r="AA94" s="6"/>
@@ -6541,11 +6581,11 @@
         <v>29</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
@@ -6569,14 +6609,14 @@
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
       <c r="V95" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W95" s="12">
         <v>0</v>
       </c>
       <c r="X95" s="3"/>
       <c r="Y95" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z95" s="11"/>
       <c r="AA95" s="6"/>
@@ -6593,11 +6633,11 @@
         <v>29</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
@@ -6621,14 +6661,14 @@
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
       <c r="V96" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W96" s="12">
         <v>0</v>
       </c>
       <c r="X96" s="3"/>
       <c r="Y96" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z96" s="11"/>
       <c r="AA96" s="6"/>
@@ -6645,11 +6685,11 @@
         <v>29</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
@@ -6673,14 +6713,14 @@
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
       <c r="V97" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W97" s="12">
         <v>0</v>
       </c>
       <c r="X97" s="3"/>
       <c r="Y97" s="13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Z97" s="11">
         <v>45</v>
@@ -6699,11 +6739,11 @@
         <v>29</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
@@ -6727,14 +6767,14 @@
       <c r="T98" s="4"/>
       <c r="U98" s="4"/>
       <c r="V98" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W98" s="12">
         <v>0</v>
       </c>
       <c r="X98" s="3"/>
       <c r="Y98" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z98" s="11"/>
       <c r="AA98" s="6"/>
@@ -6751,11 +6791,11 @@
         <v>29</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
@@ -6779,14 +6819,14 @@
       <c r="T99" s="4"/>
       <c r="U99" s="4"/>
       <c r="V99" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W99" s="12">
         <v>0</v>
       </c>
       <c r="X99" s="3"/>
       <c r="Y99" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z99" s="11"/>
       <c r="AA99" s="6"/>
@@ -6803,11 +6843,11 @@
         <v>29</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -6831,14 +6871,14 @@
       <c r="T100" s="4"/>
       <c r="U100" s="4"/>
       <c r="V100" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W100" s="12">
         <v>0</v>
       </c>
       <c r="X100" s="3"/>
       <c r="Y100" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z100" s="11"/>
       <c r="AA100" s="6"/>
@@ -6855,11 +6895,11 @@
         <v>29</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -6883,14 +6923,14 @@
       <c r="T101" s="4"/>
       <c r="U101" s="4"/>
       <c r="V101" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W101" s="12">
         <v>0</v>
       </c>
       <c r="X101" s="3"/>
       <c r="Y101" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z101" s="11"/>
       <c r="AA101" s="6"/>
@@ -6907,11 +6947,11 @@
         <v>29</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
@@ -6935,14 +6975,14 @@
       <c r="T102" s="4"/>
       <c r="U102" s="4"/>
       <c r="V102" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W102" s="12">
         <v>0</v>
       </c>
       <c r="X102" s="3"/>
       <c r="Y102" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z102" s="11"/>
       <c r="AA102" s="6"/>
@@ -6959,11 +6999,11 @@
         <v>29</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
@@ -6987,14 +7027,14 @@
       <c r="T103" s="4"/>
       <c r="U103" s="4"/>
       <c r="V103" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W103" s="12">
         <v>0</v>
       </c>
       <c r="X103" s="3"/>
       <c r="Y103" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z103" s="11"/>
       <c r="AA103" s="6"/>
@@ -7011,11 +7051,11 @@
         <v>29</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
@@ -7039,14 +7079,14 @@
       <c r="T104" s="4"/>
       <c r="U104" s="4"/>
       <c r="V104" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W104" s="12">
         <v>0</v>
       </c>
       <c r="X104" s="3"/>
       <c r="Y104" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z104" s="11"/>
       <c r="AA104" s="6"/>
@@ -7063,11 +7103,11 @@
         <v>29</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
@@ -7091,14 +7131,14 @@
       <c r="T105" s="4"/>
       <c r="U105" s="4"/>
       <c r="V105" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W105" s="12">
         <v>0</v>
       </c>
       <c r="X105" s="3"/>
       <c r="Y105" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z105" s="11"/>
       <c r="AA105" s="6"/>
@@ -7115,11 +7155,11 @@
         <v>29</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
@@ -7143,14 +7183,14 @@
       <c r="T106" s="4"/>
       <c r="U106" s="4"/>
       <c r="V106" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W106" s="12">
         <v>0</v>
       </c>
       <c r="X106" s="3"/>
       <c r="Y106" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z106" s="11"/>
       <c r="AA106" s="6"/>
@@ -7167,11 +7207,11 @@
         <v>29</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
@@ -7195,14 +7235,14 @@
       <c r="T107" s="4"/>
       <c r="U107" s="4"/>
       <c r="V107" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W107" s="12">
         <v>0</v>
       </c>
       <c r="X107" s="3"/>
       <c r="Y107" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z107" s="11"/>
       <c r="AA107" s="6"/>
@@ -7219,11 +7259,11 @@
         <v>29</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
@@ -7247,14 +7287,14 @@
       <c r="T108" s="4"/>
       <c r="U108" s="4"/>
       <c r="V108" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W108" s="12">
         <v>0</v>
       </c>
       <c r="X108" s="3"/>
       <c r="Y108" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z108" s="11"/>
       <c r="AA108" s="6"/>
@@ -7271,11 +7311,11 @@
         <v>29</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
@@ -7299,14 +7339,14 @@
       <c r="T109" s="4"/>
       <c r="U109" s="4"/>
       <c r="V109" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W109" s="12">
         <v>0</v>
       </c>
       <c r="X109" s="3"/>
       <c r="Y109" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z109" s="11"/>
       <c r="AA109" s="6"/>
@@ -7323,11 +7363,11 @@
         <v>29</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -7351,14 +7391,14 @@
       <c r="T110" s="4"/>
       <c r="U110" s="4"/>
       <c r="V110" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W110" s="12">
         <v>0</v>
       </c>
       <c r="X110" s="3"/>
       <c r="Y110" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z110" s="11"/>
       <c r="AA110" s="6"/>
@@ -7375,11 +7415,11 @@
         <v>29</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -7403,14 +7443,14 @@
       <c r="T111" s="4"/>
       <c r="U111" s="4"/>
       <c r="V111" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W111" s="12">
         <v>0</v>
       </c>
       <c r="X111" s="3"/>
       <c r="Y111" s="13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Z111" s="11"/>
       <c r="AA111" s="6"/>
@@ -7427,11 +7467,11 @@
         <v>29</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -7455,14 +7495,14 @@
       <c r="T112" s="4"/>
       <c r="U112" s="4"/>
       <c r="V112" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W112" s="12">
         <v>0</v>
       </c>
       <c r="X112" s="3"/>
       <c r="Y112" s="13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Z112" s="11"/>
       <c r="AA112" s="6"/>
@@ -7479,11 +7519,11 @@
         <v>29</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -7507,14 +7547,14 @@
       <c r="T113" s="4"/>
       <c r="U113" s="4"/>
       <c r="V113" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W113" s="12">
         <v>0</v>
       </c>
       <c r="X113" s="3"/>
       <c r="Y113" s="13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Z113" s="11"/>
       <c r="AA113" s="6"/>
@@ -7531,11 +7571,11 @@
         <v>29</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -7559,14 +7599,14 @@
       <c r="T114" s="4"/>
       <c r="U114" s="4"/>
       <c r="V114" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W114" s="12">
         <v>0</v>
       </c>
       <c r="X114" s="3"/>
       <c r="Y114" s="13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Z114" s="11"/>
       <c r="AA114" s="6"/>
@@ -7580,14 +7620,14 @@
     </row>
     <row r="115" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
@@ -7614,7 +7654,7 @@
       <c r="W115" s="4"/>
       <c r="X115" s="5"/>
       <c r="Y115" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Z115" s="11"/>
       <c r="AA115" s="6"/>
@@ -7628,14 +7668,14 @@
     </row>
     <row r="116" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -7662,7 +7702,7 @@
       <c r="W116" s="4"/>
       <c r="X116" s="5"/>
       <c r="Y116" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Z116" s="11"/>
       <c r="AA116" s="6"/>
@@ -7676,14 +7716,14 @@
     </row>
     <row r="117" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -7710,7 +7750,7 @@
       <c r="W117" s="4"/>
       <c r="X117" s="5"/>
       <c r="Y117" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Z117" s="11"/>
       <c r="AA117" s="6"/>
@@ -7724,14 +7764,14 @@
     </row>
     <row r="118" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
@@ -7758,7 +7798,7 @@
       <c r="W118" s="4"/>
       <c r="X118" s="5"/>
       <c r="Y118" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Z118" s="11"/>
       <c r="AA118" s="6"/>
@@ -7772,14 +7812,14 @@
     </row>
     <row r="119" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -7806,7 +7846,7 @@
       <c r="W119" s="4"/>
       <c r="X119" s="5"/>
       <c r="Y119" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Z119" s="11"/>
       <c r="AA119" s="6"/>
@@ -7820,14 +7860,14 @@
     </row>
     <row r="120" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
@@ -7854,7 +7894,7 @@
       <c r="W120" s="4"/>
       <c r="X120" s="5"/>
       <c r="Y120" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Z120" s="11"/>
       <c r="AA120" s="6"/>
@@ -7868,14 +7908,14 @@
     </row>
     <row r="121" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
@@ -7902,7 +7942,7 @@
       <c r="W121" s="4"/>
       <c r="X121" s="5"/>
       <c r="Y121" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Z121" s="11"/>
       <c r="AA121" s="6"/>
@@ -7916,14 +7956,14 @@
     </row>
     <row r="122" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
@@ -7950,7 +7990,7 @@
       <c r="W122" s="4"/>
       <c r="X122" s="5"/>
       <c r="Y122" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Z122" s="11"/>
       <c r="AA122" s="6"/>
@@ -7964,14 +8004,14 @@
     </row>
     <row r="123" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -7998,7 +8038,7 @@
       <c r="W123" s="4"/>
       <c r="X123" s="5"/>
       <c r="Y123" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Z123" s="11"/>
       <c r="AA123" s="6"/>
@@ -8012,14 +8052,14 @@
     </row>
     <row r="124" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
@@ -8046,7 +8086,7 @@
       <c r="W124" s="4"/>
       <c r="X124" s="5"/>
       <c r="Y124" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Z124" s="11"/>
       <c r="AA124" s="6"/>
@@ -8311,23 +8351,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" s="3"/>
     </row>
@@ -8354,17 +8394,17 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/exe/TSV/Excel/TH71_Tsuzaki_UIList.xlsx
+++ b/exe/TSV/Excel/TH71_Tsuzaki_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5AC6B2-D043-47FB-B2CC-39BA01EB0308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5436E61A-5C64-473D-A4CE-FBB792745BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7230" yWindow="4680" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5085" yWindow="3660" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH71_津崎駅_UIList" sheetId="1" r:id="rId1"/>
@@ -573,7 +573,7 @@
     <t>1R</t>
   </si>
   <si>
-    <t>てこ</t>
+    <t>物理てこ</t>
   </si>
   <si>
     <t>0,1</t>
@@ -591,7 +591,7 @@
     <t>1RA_G</t>
   </si>
   <si>
-    <t>信号機</t>
+    <t>信号機表示灯</t>
   </si>
   <si>
     <t>1RA</t>
@@ -762,7 +762,7 @@
     <t>P21_PG</t>
   </si>
   <si>
-    <t>転てつ器</t>
+    <t>転てつ器表示灯</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/PG.png</t>
@@ -834,7 +834,7 @@
     <t>駅扱切換_PY</t>
   </si>
   <si>
-    <t>駅扱切換てこ</t>
+    <t>駅扱切換表示灯</t>
   </si>
   <si>
     <t>駅扱切換_PG</t>
@@ -843,7 +843,7 @@
     <t>56T_1</t>
   </si>
   <si>
-    <t>軌道回路</t>
+    <t>軌道回路表示灯</t>
   </si>
   <si>
     <t>0,1,2</t>
@@ -1017,7 +1017,7 @@
     <t>停電_R</t>
   </si>
   <si>
-    <t>ランプ</t>
+    <t>状態表示灯</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/R.png</t>

--- a/exe/TSV/Excel/TH71_Tsuzaki_UIList.xlsx
+++ b/exe/TSV/Excel/TH71_Tsuzaki_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A28773-230E-4243-A25E-A97D5383C872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9633C8-A116-4B5A-8727-8F5F12597E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="4500" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5520" yWindow="4665" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH71_津崎駅_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="265">
   <si>
     <t>Type</t>
   </si>
@@ -609,6 +609,9 @@
     <t>物理てこ</t>
   </si>
   <si>
+    <t>TH71_1</t>
+  </si>
+  <si>
     <t>0,1</t>
   </si>
   <si>
@@ -627,7 +630,7 @@
     <t>信号機表示灯</t>
   </si>
   <si>
-    <t>1RA</t>
+    <t>津崎上り場内1RA</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/G.png</t>
@@ -639,7 +642,7 @@
     <t>1RB_G</t>
   </si>
   <si>
-    <t>1RB</t>
+    <t>津崎上り場内1RB</t>
   </si>
   <si>
     <t>TextBlock</t>
@@ -657,6 +660,9 @@
     <t>2L</t>
   </si>
   <si>
+    <t>TH71_2</t>
+  </si>
+  <si>
     <t>-1,0</t>
   </si>
   <si>
@@ -669,49 +675,73 @@
     <t>2L_G</t>
   </si>
   <si>
+    <t>津崎下り出発2L</t>
+  </si>
+  <si>
     <t>2L_Label</t>
   </si>
   <si>
     <t>3L</t>
   </si>
   <si>
+    <t>TH71_3</t>
+  </si>
+  <si>
     <t>3L_G</t>
   </si>
   <si>
+    <t>津崎下り出発3L</t>
+  </si>
+  <si>
     <t>3L_Label</t>
   </si>
   <si>
     <t>4R</t>
   </si>
   <si>
+    <t>TH71_4</t>
+  </si>
+  <si>
     <t>4R_G</t>
   </si>
   <si>
+    <t>津崎上り出発4R</t>
+  </si>
+  <si>
     <t>4R_Label</t>
   </si>
   <si>
     <t>5R</t>
   </si>
   <si>
+    <t>TH71_5</t>
+  </si>
+  <si>
     <t>5R_G</t>
   </si>
   <si>
+    <t>津崎上り出発5R</t>
+  </si>
+  <si>
     <t>5R_Label</t>
   </si>
   <si>
     <t>6L</t>
   </si>
   <si>
+    <t>TH71_6</t>
+  </si>
+  <si>
     <t>6LC_G</t>
   </si>
   <si>
-    <t>6LC</t>
+    <t>津崎下り場内6LC</t>
   </si>
   <si>
     <t>6LD_G</t>
   </si>
   <si>
-    <t>6LD</t>
+    <t>津崎下り場内6LD</t>
   </si>
   <si>
     <t>6L_Label</t>
@@ -726,6 +756,9 @@
     <t>着点ボタン</t>
   </si>
   <si>
+    <t>TH71_TP</t>
+  </si>
+  <si>
     <t>Image/Button/ArrivalButton_Base.png</t>
   </si>
   <si>
@@ -738,30 +771,45 @@
     <t>A</t>
   </si>
   <si>
+    <t>TH71_AP</t>
+  </si>
+  <si>
     <t>A_Label</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
+    <t>TH71_BP</t>
+  </si>
+  <si>
     <t>B_Label</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
+    <t>TH71_CP</t>
+  </si>
+  <si>
     <t>C_Label</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
+    <t>TH71_DP</t>
+  </si>
+  <si>
     <t>D_Label</t>
   </si>
   <si>
     <t>S</t>
   </si>
   <si>
+    <t>TH71_SP</t>
+  </si>
+  <si>
     <t>S_Label</t>
   </si>
   <si>
@@ -777,6 +825,12 @@
     <t>警報下り接近</t>
   </si>
   <si>
+    <t>W21</t>
+  </si>
+  <si>
+    <t>TH71_21</t>
+  </si>
+  <si>
     <t>P21</t>
   </si>
   <si>
@@ -792,58 +846,94 @@
     <t>転てつ器単独てこはNCR</t>
   </si>
   <si>
-    <t>P21_PG</t>
+    <t>W21_PG</t>
   </si>
   <si>
     <t>転てつ器表示灯</t>
   </si>
   <si>
+    <t>TH71_W21</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Image/Light/N.png,Image/Light/PG.png</t>
   </si>
   <si>
-    <t>P21_PY</t>
+    <t>W21_PY</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/PY.png</t>
   </si>
   <si>
-    <t>P21_Label</t>
+    <t>W21_Label</t>
+  </si>
+  <si>
+    <t>W22</t>
+  </si>
+  <si>
+    <t>TH71_22</t>
   </si>
   <si>
     <t>P22</t>
   </si>
   <si>
-    <t>P22_PG</t>
-  </si>
-  <si>
-    <t>P22_PY</t>
-  </si>
-  <si>
-    <t>P22_Label</t>
+    <t>W22_PG</t>
+  </si>
+  <si>
+    <t>TH71_W22</t>
+  </si>
+  <si>
+    <t>W22_PY</t>
+  </si>
+  <si>
+    <t>W22_Label</t>
+  </si>
+  <si>
+    <t>W23</t>
+  </si>
+  <si>
+    <t>TH71_23</t>
   </si>
   <si>
     <t>P23</t>
   </si>
   <si>
-    <t>P23_PG</t>
-  </si>
-  <si>
-    <t>P23_PY</t>
-  </si>
-  <si>
-    <t>P23_Label</t>
+    <t>W23_PG</t>
+  </si>
+  <si>
+    <t>TH71_W23</t>
+  </si>
+  <si>
+    <t>W23_PY</t>
+  </si>
+  <si>
+    <t>W23_Label</t>
+  </si>
+  <si>
+    <t>W24</t>
+  </si>
+  <si>
+    <t>TH71_24</t>
   </si>
   <si>
     <t>P24</t>
   </si>
   <si>
-    <t>P24_PG</t>
-  </si>
-  <si>
-    <t>P24_PY</t>
-  </si>
-  <si>
-    <t>P24_Label</t>
+    <t>W24_PG</t>
+  </si>
+  <si>
+    <t>TH71_W24</t>
+  </si>
+  <si>
+    <t>W24_PY</t>
+  </si>
+  <si>
+    <t>W24_Label</t>
   </si>
   <si>
     <t>KeyImage</t>
@@ -882,6 +972,9 @@
     <t>軌道回路表示灯</t>
   </si>
   <si>
+    <t>上り56T</t>
+  </si>
+  <si>
     <t>0,1,2</t>
   </si>
   <si>
@@ -894,162 +987,228 @@
     <t>62T_1</t>
   </si>
   <si>
+    <t>上り62T</t>
+  </si>
+  <si>
     <t>68T_1</t>
   </si>
   <si>
+    <t>上り68T</t>
+  </si>
+  <si>
     <t>74T_1</t>
   </si>
   <si>
+    <t>上り74T</t>
+  </si>
+  <si>
     <t>TH71_1RT_1</t>
   </si>
   <si>
+    <t>TH71_1RT</t>
+  </si>
+  <si>
     <t>TH71_1RT_2</t>
   </si>
   <si>
     <t>TH71_TST_1</t>
   </si>
   <si>
+    <t>TH67_TST</t>
+  </si>
+  <si>
     <t>TH71_TST_2</t>
   </si>
   <si>
-    <t>TH71_21T_P21N_1</t>
-  </si>
-  <si>
-    <t>TH71_21T_P21N_2</t>
-  </si>
-  <si>
-    <t>TH71_21T_P21N_3</t>
-  </si>
-  <si>
-    <t>TH71_21T_P21R_1</t>
-  </si>
-  <si>
-    <t>TH71_21T_P21R_2</t>
+    <t>TH71_21T_W21N_1</t>
+  </si>
+  <si>
+    <t>TH71_21T</t>
+  </si>
+  <si>
+    <t>TH71_21T_W21N_2</t>
+  </si>
+  <si>
+    <t>TH71_21T_W21N_3</t>
+  </si>
+  <si>
+    <t>TH71_21T_W21R_1</t>
+  </si>
+  <si>
+    <t>TH71_21T_W21R_2</t>
   </si>
   <si>
     <t>Image/Light/45N.png,Image/Light/45Y.png,Image/Light/45R.png</t>
   </si>
   <si>
-    <t>TH71_21T_P21R_3</t>
-  </si>
-  <si>
-    <t>TH71_22T_P22N_1</t>
-  </si>
-  <si>
-    <t>TH71_22T_P22N_2</t>
-  </si>
-  <si>
-    <t>TH71_22T_P22N_3</t>
-  </si>
-  <si>
-    <t>TH71_22T_P22R_1</t>
-  </si>
-  <si>
-    <t>TH71_22T_P22R_2</t>
+    <t>TH71_21T_W21R_3</t>
+  </si>
+  <si>
+    <t>TH71_22T_W22N_1</t>
+  </si>
+  <si>
+    <t>TH71_22T</t>
+  </si>
+  <si>
+    <t>TH71_22T_W22N_2</t>
+  </si>
+  <si>
+    <t>TH71_22T_W22N_3</t>
+  </si>
+  <si>
+    <t>TH71_22T_W22R_1</t>
+  </si>
+  <si>
+    <t>TH71_22T_W22R_2</t>
   </si>
   <si>
     <t>Image/Light/135N.png,Image/Light/135Y.png,Image/Light/135R.png</t>
   </si>
   <si>
-    <t>TH71_22T_P22R_3</t>
+    <t>TH71_22T_W22R_3</t>
   </si>
   <si>
     <t>TH71_1RAT_1</t>
   </si>
   <si>
+    <t>TH71_1RAT</t>
+  </si>
+  <si>
     <t>TH71_1RAT_2</t>
   </si>
   <si>
     <t>TH71_1RBT_1</t>
   </si>
   <si>
+    <t>TH71_1RBT</t>
+  </si>
+  <si>
     <t>TH71_1RBT_2</t>
   </si>
   <si>
     <t>TH71_6LCT_1</t>
   </si>
   <si>
+    <t>TH71_6LCT</t>
+  </si>
+  <si>
     <t>TH71_6LCT_2</t>
   </si>
   <si>
     <t>TH71_6LDT_1</t>
   </si>
   <si>
+    <t>TH71_6LDT</t>
+  </si>
+  <si>
     <t>TH71_6LDT_2</t>
   </si>
   <si>
-    <t>TH71_23T_P23N_1</t>
-  </si>
-  <si>
-    <t>TH71_23T_P23N_2</t>
-  </si>
-  <si>
-    <t>TH71_23T_P23N_3</t>
-  </si>
-  <si>
-    <t>TH71_23T_P23R_1</t>
-  </si>
-  <si>
-    <t>TH71_23T_P23R_2</t>
-  </si>
-  <si>
-    <t>TH71_23T_P23R_3</t>
-  </si>
-  <si>
-    <t>TH71_24T_P24N_1</t>
-  </si>
-  <si>
-    <t>TH71_24T_P24N_2</t>
-  </si>
-  <si>
-    <t>TH71_24T_P24N_3</t>
-  </si>
-  <si>
-    <t>TH71_24T_P24R_1</t>
-  </si>
-  <si>
-    <t>TH71_24T_P24R_2</t>
-  </si>
-  <si>
-    <t>TH71_24T_P24R_3</t>
+    <t>TH71_23T_W23N_1</t>
+  </si>
+  <si>
+    <t>TH71_23T</t>
+  </si>
+  <si>
+    <t>TH71_23T_W23N_2</t>
+  </si>
+  <si>
+    <t>TH71_23T_W23N_3</t>
+  </si>
+  <si>
+    <t>TH71_23T_W23R_1</t>
+  </si>
+  <si>
+    <t>TH71_23T_W23R_2</t>
+  </si>
+  <si>
+    <t>TH71_23T_W23R_3</t>
+  </si>
+  <si>
+    <t>TH71_24T_W24N_1</t>
+  </si>
+  <si>
+    <t>TH71_24T</t>
+  </si>
+  <si>
+    <t>TH71_24T_W24N_2</t>
+  </si>
+  <si>
+    <t>TH71_24T_W24N_3</t>
+  </si>
+  <si>
+    <t>TH71_24T_W24R_1</t>
+  </si>
+  <si>
+    <t>TH71_24T_W24R_2</t>
+  </si>
+  <si>
+    <t>TH71_24T_W24R_3</t>
   </si>
   <si>
     <t>TH71_SST_1</t>
   </si>
   <si>
+    <t>TH71_SST</t>
+  </si>
+  <si>
     <t>TH71_SST_2</t>
   </si>
   <si>
     <t>TH71_6LT_1</t>
   </si>
   <si>
+    <t>TH71_6LT</t>
+  </si>
+  <si>
     <t>TH71_6LT_2</t>
   </si>
   <si>
     <t>89T_1</t>
   </si>
   <si>
+    <t>下り89T</t>
+  </si>
+  <si>
     <t>TH70_2LT_1</t>
   </si>
   <si>
+    <t>TH70_2LT</t>
+  </si>
+  <si>
     <t>TH70_5LBT_1</t>
   </si>
   <si>
+    <t>TH70_5LBT</t>
+  </si>
+  <si>
     <t>TH70_5LBT_2</t>
   </si>
   <si>
     <t>TH70_21イT_1</t>
   </si>
   <si>
+    <t>TH70_21イT</t>
+  </si>
+  <si>
     <t>TH70_5LT_1</t>
   </si>
   <si>
+    <t>TH70_5LT</t>
+  </si>
+  <si>
     <t>103T_1</t>
   </si>
   <si>
+    <t>下り103T</t>
+  </si>
+  <si>
     <t>105T_1</t>
   </si>
   <si>
+    <t>下り105T</t>
+  </si>
+  <si>
     <t>停電_R</t>
   </si>
   <si>
@@ -1110,16 +1269,10 @@
     <t>Button</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
     <t>Label</t>
-  </si>
-  <si>
-    <t>R</t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1615,9 @@
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="25" width="15.140625" customWidth="1"/>
+    <col min="3" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="25" width="15.140625" customWidth="1"/>
     <col min="26" max="26" width="37.5703125" customWidth="1"/>
     <col min="27" max="27" width="100.140625" customWidth="1"/>
     <col min="28" max="28" width="62.5703125" customWidth="1"/>
@@ -1780,7 +1935,9 @@
       <c r="D6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1806,19 +1963,19 @@
         <v>41</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y6" s="7">
         <v>0</v>
       </c>
       <c r="Z6" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA6" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB6" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
@@ -1834,14 +1991,14 @@
         <v>31</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1866,17 +2023,17 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y7" s="7">
         <v>0</v>
       </c>
       <c r="Z7" s="8"/>
       <c r="AA7" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB7" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
@@ -1892,14 +2049,14 @@
         <v>31</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1924,14 +2081,14 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y8" s="7">
         <v>0</v>
       </c>
       <c r="Z8" s="8"/>
       <c r="AA8" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
@@ -1945,10 +2102,10 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>41</v>
@@ -1983,10 +2140,10 @@
         <v>10</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W9" s="7" t="s">
         <v>41</v>
@@ -2010,13 +2167,15 @@
         <v>40</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -2039,19 +2198,19 @@
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y10" s="7">
         <v>0</v>
       </c>
       <c r="Z10" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA10" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
@@ -2068,14 +2227,14 @@
         <v>31</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -2100,14 +2259,14 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
       <c r="X11" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y11" s="7">
         <v>0</v>
       </c>
       <c r="Z11" s="8"/>
       <c r="AA11" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
@@ -2121,13 +2280,13 @@
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -2159,13 +2318,13 @@
         <v>10</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W12" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
@@ -2186,13 +2345,15 @@
         <v>40</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -2215,19 +2376,19 @@
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="X13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y13" s="7">
         <v>0</v>
       </c>
       <c r="Z13" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA13" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
@@ -2244,14 +2405,14 @@
         <v>31</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -2276,14 +2437,14 @@
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y14" s="7">
         <v>0</v>
       </c>
       <c r="Z14" s="8"/>
       <c r="AA14" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
@@ -2297,13 +2458,13 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2335,13 +2496,13 @@
         <v>10</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
@@ -2362,13 +2523,15 @@
         <v>40</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -2391,19 +2554,19 @@
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="X16" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y16" s="7">
         <v>0</v>
       </c>
       <c r="Z16" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA16" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
@@ -2420,14 +2583,14 @@
         <v>31</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -2452,14 +2615,14 @@
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y17" s="7">
         <v>0</v>
       </c>
       <c r="Z17" s="8"/>
       <c r="AA17" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
@@ -2473,13 +2636,13 @@
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -2511,13 +2674,13 @@
         <v>10</v>
       </c>
       <c r="U18" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V18" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W18" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
@@ -2538,13 +2701,15 @@
         <v>40</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -2567,19 +2732,19 @@
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="X19" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y19" s="7">
         <v>0</v>
       </c>
       <c r="Z19" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA19" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
@@ -2596,14 +2761,14 @@
         <v>31</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -2628,14 +2793,14 @@
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y20" s="7">
         <v>0</v>
       </c>
       <c r="Z20" s="8"/>
       <c r="AA20" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
@@ -2649,13 +2814,13 @@
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -2687,13 +2852,13 @@
         <v>10</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W21" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
@@ -2714,13 +2879,15 @@
         <v>40</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -2743,19 +2910,19 @@
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="4" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="X22" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y22" s="7">
         <v>0</v>
       </c>
       <c r="Z22" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA22" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
@@ -2772,14 +2939,14 @@
         <v>31</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -2804,14 +2971,14 @@
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
       <c r="X23" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y23" s="7">
         <v>0</v>
       </c>
       <c r="Z23" s="8"/>
       <c r="AA23" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB23" s="6"/>
       <c r="AC23" s="6"/>
@@ -2828,14 +2995,14 @@
         <v>31</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -2860,14 +3027,14 @@
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
       <c r="X24" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y24" s="7">
         <v>0</v>
       </c>
       <c r="Z24" s="8"/>
       <c r="AA24" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB24" s="6"/>
       <c r="AC24" s="6"/>
@@ -2881,13 +3048,13 @@
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -2919,13 +3086,13 @@
         <v>10</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W25" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
@@ -2943,16 +3110,18 @@
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -2975,19 +3144,19 @@
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="4" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="X26" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y26" s="7">
         <v>0</v>
       </c>
       <c r="Z26" s="8" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AA26" s="10" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AB26" s="6"/>
       <c r="AC26" s="6"/>
@@ -3001,13 +3170,13 @@
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -3033,19 +3202,19 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="T27" s="7">
         <v>10</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W27" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
@@ -3063,16 +3232,18 @@
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -3095,19 +3266,19 @@
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="X28" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y28" s="7">
         <v>0</v>
       </c>
       <c r="Z28" s="8" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AA28" s="10" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
@@ -3121,13 +3292,13 @@
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -3153,19 +3324,19 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="7" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="T29" s="7">
         <v>10</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W29" s="7" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
@@ -3183,16 +3354,18 @@
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -3215,19 +3388,19 @@
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="4" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="X30" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y30" s="7">
         <v>0</v>
       </c>
       <c r="Z30" s="8" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AA30" s="10" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
@@ -3241,13 +3414,13 @@
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -3273,19 +3446,19 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="7" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="T31" s="7">
         <v>10</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V31" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W31" s="7" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
@@ -3303,16 +3476,18 @@
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -3335,19 +3510,19 @@
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="4" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="X32" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y32" s="7">
         <v>0</v>
       </c>
       <c r="Z32" s="8" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AA32" s="10" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AB32" s="6"/>
       <c r="AC32" s="6"/>
@@ -3361,13 +3536,13 @@
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -3393,19 +3568,19 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="7" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="T33" s="7">
         <v>10</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W33" s="7" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
@@ -3423,16 +3598,18 @@
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -3455,19 +3632,19 @@
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="X34" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y34" s="7">
         <v>0</v>
       </c>
       <c r="Z34" s="8" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AA34" s="10" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AB34" s="6"/>
       <c r="AC34" s="6"/>
@@ -3481,13 +3658,13 @@
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -3513,19 +3690,19 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
       <c r="S35" s="7" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="T35" s="7">
         <v>10</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V35" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W35" s="7" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
@@ -3543,16 +3720,18 @@
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -3575,19 +3754,19 @@
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="X36" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y36" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="X36" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y36" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="8" t="s">
-        <v>82</v>
-      </c>
       <c r="AA36" s="10" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AB36" s="6"/>
       <c r="AC36" s="6"/>
@@ -3601,13 +3780,13 @@
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -3633,19 +3812,19 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="T37" s="7">
         <v>10</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V37" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W37" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
@@ -3663,10 +3842,10 @@
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -3693,19 +3872,19 @@
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38" s="4" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="X38" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y38" s="12">
         <v>0</v>
       </c>
       <c r="Z38" s="3" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="AA38" s="13" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AB38" s="11"/>
       <c r="AC38" s="6"/>
@@ -3719,10 +3898,10 @@
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -3749,19 +3928,19 @@
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
       <c r="W39" s="4" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="X39" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y39" s="12">
         <v>0</v>
       </c>
       <c r="Z39" s="3" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="AA39" s="13" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AB39" s="11"/>
       <c r="AC39" s="6"/>
@@ -3777,14 +3956,16 @@
       <c r="A40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>99</v>
+      <c r="B40" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="4"/>
+      <c r="E40" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -3807,22 +3988,22 @@
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
       <c r="W40" s="4" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="X40" s="7" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="Y40" s="7">
         <v>0</v>
       </c>
       <c r="Z40" s="8" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="AA40" s="10" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="AC40" s="6"/>
       <c r="AD40" s="6"/>
@@ -3838,15 +4019,19 @@
         <v>31</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -3868,14 +4053,14 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
       <c r="X41" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y41" s="7">
         <v>0</v>
       </c>
       <c r="Z41" s="8"/>
       <c r="AA41" s="10" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="AB41" s="6"/>
       <c r="AC41" s="6"/>
@@ -3892,15 +4077,19 @@
         <v>31</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -3922,14 +4111,14 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
       <c r="X42" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y42" s="7">
         <v>0</v>
       </c>
       <c r="Z42" s="8"/>
       <c r="AA42" s="10" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="AB42" s="6"/>
       <c r="AC42" s="6"/>
@@ -3943,13 +4132,13 @@
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -3981,13 +4170,13 @@
         <v>10</v>
       </c>
       <c r="U43" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V43" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W43" s="7" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="X43" s="4"/>
       <c r="Y43" s="4"/>
@@ -4007,14 +4196,16 @@
       <c r="A44" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>110</v>
+      <c r="B44" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="4"/>
+      <c r="E44" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -4037,19 +4228,19 @@
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
       <c r="W44" s="4" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="X44" s="7" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="Y44" s="7">
         <v>0</v>
       </c>
       <c r="Z44" s="8" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="AA44" s="10" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="AB44" s="6"/>
       <c r="AC44" s="6"/>
@@ -4066,15 +4257,19 @@
         <v>31</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -4096,14 +4291,14 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
       <c r="X45" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y45" s="7">
         <v>0</v>
       </c>
       <c r="Z45" s="8"/>
       <c r="AA45" s="10" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="AB45" s="6"/>
       <c r="AC45" s="6"/>
@@ -4120,15 +4315,19 @@
         <v>31</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -4150,14 +4349,14 @@
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
       <c r="X46" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y46" s="7">
         <v>0</v>
       </c>
       <c r="Z46" s="8"/>
       <c r="AA46" s="10" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="AB46" s="6"/>
       <c r="AC46" s="6"/>
@@ -4171,13 +4370,13 @@
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -4209,13 +4408,13 @@
         <v>10</v>
       </c>
       <c r="U47" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V47" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W47" s="7" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="X47" s="4"/>
       <c r="Y47" s="4"/>
@@ -4235,14 +4434,16 @@
       <c r="A48" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>114</v>
+      <c r="B48" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="4"/>
+      <c r="E48" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -4265,19 +4466,19 @@
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
       <c r="W48" s="4" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="X48" s="7" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="Y48" s="7">
         <v>0</v>
       </c>
       <c r="Z48" s="8" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="AA48" s="10" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="AB48" s="6"/>
       <c r="AC48" s="6"/>
@@ -4294,15 +4495,19 @@
         <v>31</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -4324,14 +4529,14 @@
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
       <c r="X49" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y49" s="7">
         <v>0</v>
       </c>
       <c r="Z49" s="8"/>
       <c r="AA49" s="10" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="AB49" s="6"/>
       <c r="AC49" s="6"/>
@@ -4348,15 +4553,19 @@
         <v>31</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -4378,14 +4587,14 @@
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
       <c r="X50" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y50" s="7">
         <v>0</v>
       </c>
       <c r="Z50" s="8"/>
       <c r="AA50" s="10" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="AB50" s="6"/>
       <c r="AC50" s="6"/>
@@ -4399,13 +4608,13 @@
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -4437,13 +4646,13 @@
         <v>10</v>
       </c>
       <c r="U51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V51" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W51" s="7" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="X51" s="4"/>
       <c r="Y51" s="4"/>
@@ -4463,14 +4672,16 @@
       <c r="A52" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>118</v>
+      <c r="B52" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="4"/>
+      <c r="E52" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -4493,19 +4704,19 @@
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
       <c r="W52" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="X52" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="X52" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="Y52" s="7">
         <v>0</v>
       </c>
       <c r="Z52" s="8" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="AA52" s="10" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="AB52" s="6"/>
       <c r="AC52" s="6"/>
@@ -4522,15 +4733,19 @@
         <v>31</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -4552,14 +4767,14 @@
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
       <c r="X53" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y53" s="7">
         <v>0</v>
       </c>
       <c r="Z53" s="8"/>
       <c r="AA53" s="10" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="AB53" s="6"/>
       <c r="AC53" s="6"/>
@@ -4576,15 +4791,19 @@
         <v>31</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -4606,14 +4825,14 @@
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
       <c r="X54" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y54" s="7">
         <v>0</v>
       </c>
       <c r="Z54" s="8"/>
       <c r="AA54" s="10" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="AB54" s="6"/>
       <c r="AC54" s="6"/>
@@ -4627,13 +4846,13 @@
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -4665,13 +4884,13 @@
         <v>10</v>
       </c>
       <c r="U55" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V55" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W55" s="7" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="X55" s="4"/>
       <c r="Y55" s="4"/>
@@ -4689,14 +4908,14 @@
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -4721,22 +4940,22 @@
       <c r="U56" s="4"/>
       <c r="V56" s="4"/>
       <c r="W56" s="4" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="X56" s="7" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="Y56" s="7">
         <v>1</v>
       </c>
       <c r="Z56" s="8" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="AA56" s="10" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="AC56" s="6"/>
       <c r="AD56" s="6"/>
@@ -4752,11 +4971,11 @@
         <v>31</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -4782,14 +5001,14 @@
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
       <c r="X57" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y57" s="12">
         <v>0</v>
       </c>
       <c r="Z57" s="3"/>
       <c r="AA57" s="13" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="AB57" s="6"/>
       <c r="AC57" s="6"/>
@@ -4806,11 +5025,11 @@
         <v>31</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -4836,14 +5055,14 @@
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
       <c r="X58" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y58" s="12">
         <v>0</v>
       </c>
       <c r="Z58" s="3"/>
       <c r="AA58" s="13" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="AB58" s="6"/>
       <c r="AC58" s="6"/>
@@ -4860,13 +5079,15 @@
         <v>31</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E59" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -4890,17 +5111,17 @@
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
       <c r="X59" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y59" s="12">
         <v>0</v>
       </c>
       <c r="Z59" s="3"/>
       <c r="AA59" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB59" s="11" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="AC59" s="6"/>
       <c r="AD59" s="6"/>
@@ -4916,13 +5137,15 @@
         <v>31</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E60" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>169</v>
+      </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -4946,14 +5169,14 @@
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
       <c r="X60" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y60" s="12">
         <v>0</v>
       </c>
       <c r="Z60" s="3"/>
       <c r="AA60" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB60" s="11"/>
       <c r="AC60" s="6"/>
@@ -4970,13 +5193,15 @@
         <v>31</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E61" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -5000,14 +5225,14 @@
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
       <c r="X61" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y61" s="12">
         <v>0</v>
       </c>
       <c r="Z61" s="3"/>
       <c r="AA61" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB61" s="11"/>
       <c r="AC61" s="6"/>
@@ -5024,13 +5249,15 @@
         <v>31</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E62" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
@@ -5054,14 +5281,14 @@
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
       <c r="X62" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y62" s="12">
         <v>0</v>
       </c>
       <c r="Z62" s="3"/>
       <c r="AA62" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB62" s="11"/>
       <c r="AC62" s="6"/>
@@ -5078,13 +5305,15 @@
         <v>31</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E63" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -5108,14 +5337,14 @@
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
       <c r="X63" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y63" s="12">
         <v>0</v>
       </c>
       <c r="Z63" s="3"/>
       <c r="AA63" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB63" s="11"/>
       <c r="AC63" s="6"/>
@@ -5132,13 +5361,15 @@
         <v>31</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E64" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -5162,14 +5393,14 @@
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
       <c r="X64" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y64" s="12">
         <v>0</v>
       </c>
       <c r="Z64" s="3"/>
       <c r="AA64" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB64" s="11"/>
       <c r="AC64" s="6"/>
@@ -5186,13 +5417,15 @@
         <v>31</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E65" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>178</v>
+      </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -5216,14 +5449,14 @@
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
       <c r="X65" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y65" s="12">
         <v>0</v>
       </c>
       <c r="Z65" s="3"/>
       <c r="AA65" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB65" s="11"/>
       <c r="AC65" s="6"/>
@@ -5240,13 +5473,15 @@
         <v>31</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E66" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>178</v>
+      </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -5270,14 +5505,14 @@
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
       <c r="X66" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y66" s="12">
         <v>0</v>
       </c>
       <c r="Z66" s="3"/>
       <c r="AA66" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB66" s="11"/>
       <c r="AC66" s="6"/>
@@ -5294,15 +5529,21 @@
         <v>31</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
@@ -5324,14 +5565,14 @@
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
       <c r="X67" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y67" s="12">
         <v>0</v>
       </c>
       <c r="Z67" s="3"/>
       <c r="AA67" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB67" s="11"/>
       <c r="AC67" s="6"/>
@@ -5348,15 +5589,21 @@
         <v>31</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
@@ -5378,14 +5625,14 @@
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
       <c r="X68" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y68" s="12">
         <v>0</v>
       </c>
       <c r="Z68" s="3"/>
       <c r="AA68" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB68" s="11"/>
       <c r="AC68" s="6"/>
@@ -5402,15 +5649,21 @@
         <v>31</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
@@ -5432,14 +5685,14 @@
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
       <c r="X69" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y69" s="12">
         <v>0</v>
       </c>
       <c r="Z69" s="3"/>
       <c r="AA69" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB69" s="11"/>
       <c r="AC69" s="6"/>
@@ -5456,15 +5709,21 @@
         <v>31</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
@@ -5486,14 +5745,14 @@
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
       <c r="X70" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y70" s="12">
         <v>0</v>
       </c>
       <c r="Z70" s="3"/>
       <c r="AA70" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB70" s="11"/>
       <c r="AC70" s="6"/>
@@ -5510,15 +5769,21 @@
         <v>31</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
@@ -5540,14 +5805,14 @@
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
       <c r="X71" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y71" s="12">
         <v>0</v>
       </c>
       <c r="Z71" s="3"/>
       <c r="AA71" s="13" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="AB71" s="11">
         <v>45</v>
@@ -5566,15 +5831,21 @@
         <v>31</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
@@ -5596,14 +5867,14 @@
       <c r="V72" s="4"/>
       <c r="W72" s="4"/>
       <c r="X72" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y72" s="12">
         <v>0</v>
       </c>
       <c r="Z72" s="3"/>
       <c r="AA72" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB72" s="11"/>
       <c r="AC72" s="6"/>
@@ -5620,15 +5891,21 @@
         <v>31</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
@@ -5650,14 +5927,14 @@
       <c r="V73" s="4"/>
       <c r="W73" s="4"/>
       <c r="X73" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y73" s="12">
         <v>0</v>
       </c>
       <c r="Z73" s="3"/>
       <c r="AA73" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB73" s="11"/>
       <c r="AC73" s="6"/>
@@ -5674,15 +5951,21 @@
         <v>31</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
@@ -5704,14 +5987,14 @@
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
       <c r="X74" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y74" s="12">
         <v>0</v>
       </c>
       <c r="Z74" s="3"/>
       <c r="AA74" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB74" s="11"/>
       <c r="AC74" s="6"/>
@@ -5728,15 +6011,21 @@
         <v>31</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
@@ -5758,14 +6047,14 @@
       <c r="V75" s="4"/>
       <c r="W75" s="4"/>
       <c r="X75" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y75" s="12">
         <v>0</v>
       </c>
       <c r="Z75" s="3"/>
       <c r="AA75" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB75" s="11"/>
       <c r="AC75" s="6"/>
@@ -5782,15 +6071,21 @@
         <v>31</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
@@ -5812,14 +6107,14 @@
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
       <c r="X76" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y76" s="12">
         <v>0</v>
       </c>
       <c r="Z76" s="3"/>
       <c r="AA76" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB76" s="11"/>
       <c r="AC76" s="6"/>
@@ -5836,15 +6131,21 @@
         <v>31</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
@@ -5866,14 +6167,14 @@
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
       <c r="X77" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y77" s="12">
         <v>0</v>
       </c>
       <c r="Z77" s="3"/>
       <c r="AA77" s="13" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="AB77" s="11">
         <v>135</v>
@@ -5892,15 +6193,21 @@
         <v>31</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
@@ -5922,14 +6229,14 @@
       <c r="V78" s="4"/>
       <c r="W78" s="4"/>
       <c r="X78" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y78" s="12">
         <v>0</v>
       </c>
       <c r="Z78" s="3"/>
       <c r="AA78" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB78" s="11"/>
       <c r="AC78" s="6"/>
@@ -5946,13 +6253,15 @@
         <v>31</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E79" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -5976,14 +6285,14 @@
       <c r="V79" s="4"/>
       <c r="W79" s="4"/>
       <c r="X79" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y79" s="12">
         <v>0</v>
       </c>
       <c r="Z79" s="3"/>
       <c r="AA79" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB79" s="11"/>
       <c r="AC79" s="6"/>
@@ -6000,13 +6309,15 @@
         <v>31</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E80" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
@@ -6030,14 +6341,14 @@
       <c r="V80" s="4"/>
       <c r="W80" s="4"/>
       <c r="X80" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y80" s="12">
         <v>0</v>
       </c>
       <c r="Z80" s="3"/>
       <c r="AA80" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB80" s="11"/>
       <c r="AC80" s="6"/>
@@ -6054,13 +6365,15 @@
         <v>31</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E81" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>200</v>
+      </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
@@ -6084,14 +6397,14 @@
       <c r="V81" s="4"/>
       <c r="W81" s="4"/>
       <c r="X81" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y81" s="12">
         <v>0</v>
       </c>
       <c r="Z81" s="3"/>
       <c r="AA81" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB81" s="11"/>
       <c r="AC81" s="6"/>
@@ -6108,13 +6421,15 @@
         <v>31</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E82" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>200</v>
+      </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
@@ -6138,14 +6453,14 @@
       <c r="V82" s="4"/>
       <c r="W82" s="4"/>
       <c r="X82" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y82" s="12">
         <v>0</v>
       </c>
       <c r="Z82" s="3"/>
       <c r="AA82" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB82" s="11"/>
       <c r="AC82" s="6"/>
@@ -6162,13 +6477,15 @@
         <v>31</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E83" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>203</v>
+      </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
@@ -6192,14 +6509,14 @@
       <c r="V83" s="4"/>
       <c r="W83" s="4"/>
       <c r="X83" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y83" s="12">
         <v>0</v>
       </c>
       <c r="Z83" s="3"/>
       <c r="AA83" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB83" s="11"/>
       <c r="AC83" s="6"/>
@@ -6216,13 +6533,15 @@
         <v>31</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E84" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>203</v>
+      </c>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
@@ -6246,14 +6565,14 @@
       <c r="V84" s="4"/>
       <c r="W84" s="4"/>
       <c r="X84" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y84" s="12">
         <v>0</v>
       </c>
       <c r="Z84" s="3"/>
       <c r="AA84" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB84" s="11"/>
       <c r="AC84" s="6"/>
@@ -6270,13 +6589,15 @@
         <v>31</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E85" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>206</v>
+      </c>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -6300,14 +6621,14 @@
       <c r="V85" s="4"/>
       <c r="W85" s="4"/>
       <c r="X85" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y85" s="12">
         <v>0</v>
       </c>
       <c r="Z85" s="3"/>
       <c r="AA85" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB85" s="11"/>
       <c r="AC85" s="6"/>
@@ -6324,13 +6645,15 @@
         <v>31</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E86" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>206</v>
+      </c>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
@@ -6354,14 +6677,14 @@
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
       <c r="X86" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y86" s="12">
         <v>0</v>
       </c>
       <c r="Z86" s="3"/>
       <c r="AA86" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB86" s="11"/>
       <c r="AC86" s="6"/>
@@ -6378,15 +6701,21 @@
         <v>31</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
@@ -6408,14 +6737,14 @@
       <c r="V87" s="4"/>
       <c r="W87" s="4"/>
       <c r="X87" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y87" s="12">
         <v>0</v>
       </c>
       <c r="Z87" s="3"/>
       <c r="AA87" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB87" s="11"/>
       <c r="AC87" s="6"/>
@@ -6432,15 +6761,21 @@
         <v>31</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
@@ -6462,14 +6797,14 @@
       <c r="V88" s="4"/>
       <c r="W88" s="4"/>
       <c r="X88" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y88" s="12">
         <v>0</v>
       </c>
       <c r="Z88" s="3"/>
       <c r="AA88" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB88" s="11"/>
       <c r="AC88" s="6"/>
@@ -6486,15 +6821,21 @@
         <v>31</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
@@ -6516,14 +6857,14 @@
       <c r="V89" s="4"/>
       <c r="W89" s="4"/>
       <c r="X89" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y89" s="12">
         <v>0</v>
       </c>
       <c r="Z89" s="3"/>
       <c r="AA89" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB89" s="11"/>
       <c r="AC89" s="6"/>
@@ -6540,15 +6881,21 @@
         <v>31</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
@@ -6570,14 +6917,14 @@
       <c r="V90" s="4"/>
       <c r="W90" s="4"/>
       <c r="X90" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y90" s="12">
         <v>0</v>
       </c>
       <c r="Z90" s="3"/>
       <c r="AA90" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB90" s="11"/>
       <c r="AC90" s="6"/>
@@ -6594,15 +6941,21 @@
         <v>31</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
@@ -6624,14 +6977,14 @@
       <c r="V91" s="4"/>
       <c r="W91" s="4"/>
       <c r="X91" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y91" s="12">
         <v>0</v>
       </c>
       <c r="Z91" s="3"/>
       <c r="AA91" s="13" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="AB91" s="11">
         <v>135</v>
@@ -6650,15 +7003,21 @@
         <v>31</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
@@ -6680,14 +7039,14 @@
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
       <c r="X92" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y92" s="12">
         <v>0</v>
       </c>
       <c r="Z92" s="3"/>
       <c r="AA92" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB92" s="11"/>
       <c r="AC92" s="6"/>
@@ -6704,15 +7063,21 @@
         <v>31</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
@@ -6734,14 +7099,14 @@
       <c r="V93" s="4"/>
       <c r="W93" s="4"/>
       <c r="X93" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y93" s="12">
         <v>0</v>
       </c>
       <c r="Z93" s="3"/>
       <c r="AA93" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB93" s="11"/>
       <c r="AC93" s="6"/>
@@ -6758,15 +7123,21 @@
         <v>31</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
@@ -6788,14 +7159,14 @@
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
       <c r="X94" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y94" s="12">
         <v>0</v>
       </c>
       <c r="Z94" s="3"/>
       <c r="AA94" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB94" s="11"/>
       <c r="AC94" s="6"/>
@@ -6812,15 +7183,21 @@
         <v>31</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
@@ -6842,14 +7219,14 @@
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
       <c r="X95" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y95" s="12">
         <v>0</v>
       </c>
       <c r="Z95" s="3"/>
       <c r="AA95" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB95" s="11"/>
       <c r="AC95" s="6"/>
@@ -6866,15 +7243,21 @@
         <v>31</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
@@ -6896,14 +7279,14 @@
       <c r="V96" s="4"/>
       <c r="W96" s="4"/>
       <c r="X96" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y96" s="12">
         <v>0</v>
       </c>
       <c r="Z96" s="3"/>
       <c r="AA96" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB96" s="11"/>
       <c r="AC96" s="6"/>
@@ -6920,15 +7303,21 @@
         <v>31</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
@@ -6950,14 +7339,14 @@
       <c r="V97" s="4"/>
       <c r="W97" s="4"/>
       <c r="X97" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y97" s="12">
         <v>0</v>
       </c>
       <c r="Z97" s="3"/>
       <c r="AA97" s="13" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="AB97" s="11">
         <v>45</v>
@@ -6976,15 +7365,21 @@
         <v>31</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
@@ -7006,14 +7401,14 @@
       <c r="V98" s="4"/>
       <c r="W98" s="4"/>
       <c r="X98" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y98" s="12">
         <v>0</v>
       </c>
       <c r="Z98" s="3"/>
       <c r="AA98" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB98" s="11"/>
       <c r="AC98" s="6"/>
@@ -7030,13 +7425,15 @@
         <v>31</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E99" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>223</v>
+      </c>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
@@ -7060,14 +7457,14 @@
       <c r="V99" s="4"/>
       <c r="W99" s="4"/>
       <c r="X99" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y99" s="12">
         <v>0</v>
       </c>
       <c r="Z99" s="3"/>
       <c r="AA99" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB99" s="11"/>
       <c r="AC99" s="6"/>
@@ -7084,13 +7481,15 @@
         <v>31</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E100" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>223</v>
+      </c>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
@@ -7114,14 +7513,14 @@
       <c r="V100" s="4"/>
       <c r="W100" s="4"/>
       <c r="X100" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y100" s="12">
         <v>0</v>
       </c>
       <c r="Z100" s="3"/>
       <c r="AA100" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB100" s="11"/>
       <c r="AC100" s="6"/>
@@ -7138,13 +7537,15 @@
         <v>31</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E101" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>226</v>
+      </c>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
@@ -7168,14 +7569,14 @@
       <c r="V101" s="4"/>
       <c r="W101" s="4"/>
       <c r="X101" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y101" s="12">
         <v>0</v>
       </c>
       <c r="Z101" s="3"/>
       <c r="AA101" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB101" s="11"/>
       <c r="AC101" s="6"/>
@@ -7192,13 +7593,15 @@
         <v>31</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E102" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>226</v>
+      </c>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
@@ -7222,14 +7625,14 @@
       <c r="V102" s="4"/>
       <c r="W102" s="4"/>
       <c r="X102" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y102" s="12">
         <v>0</v>
       </c>
       <c r="Z102" s="3"/>
       <c r="AA102" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB102" s="11"/>
       <c r="AC102" s="6"/>
@@ -7246,13 +7649,15 @@
         <v>31</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E103" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>229</v>
+      </c>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
@@ -7276,14 +7681,14 @@
       <c r="V103" s="4"/>
       <c r="W103" s="4"/>
       <c r="X103" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y103" s="12">
         <v>0</v>
       </c>
       <c r="Z103" s="3"/>
       <c r="AA103" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB103" s="11"/>
       <c r="AC103" s="6"/>
@@ -7300,13 +7705,15 @@
         <v>31</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E104" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>231</v>
+      </c>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
@@ -7330,14 +7737,14 @@
       <c r="V104" s="4"/>
       <c r="W104" s="4"/>
       <c r="X104" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y104" s="12">
         <v>0</v>
       </c>
       <c r="Z104" s="3"/>
       <c r="AA104" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB104" s="11"/>
       <c r="AC104" s="6"/>
@@ -7354,13 +7761,15 @@
         <v>31</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E105" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -7384,14 +7793,14 @@
       <c r="V105" s="4"/>
       <c r="W105" s="4"/>
       <c r="X105" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y105" s="12">
         <v>0</v>
       </c>
       <c r="Z105" s="3"/>
       <c r="AA105" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB105" s="11"/>
       <c r="AC105" s="6"/>
@@ -7408,13 +7817,15 @@
         <v>31</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E106" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
@@ -7438,14 +7849,14 @@
       <c r="V106" s="4"/>
       <c r="W106" s="4"/>
       <c r="X106" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y106" s="12">
         <v>0</v>
       </c>
       <c r="Z106" s="3"/>
       <c r="AA106" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB106" s="11"/>
       <c r="AC106" s="6"/>
@@ -7462,13 +7873,15 @@
         <v>31</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E107" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>236</v>
+      </c>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
@@ -7492,14 +7905,14 @@
       <c r="V107" s="4"/>
       <c r="W107" s="4"/>
       <c r="X107" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y107" s="12">
         <v>0</v>
       </c>
       <c r="Z107" s="3"/>
       <c r="AA107" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB107" s="11"/>
       <c r="AC107" s="6"/>
@@ -7516,13 +7929,15 @@
         <v>31</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E108" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
@@ -7546,14 +7961,14 @@
       <c r="V108" s="4"/>
       <c r="W108" s="4"/>
       <c r="X108" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y108" s="12">
         <v>0</v>
       </c>
       <c r="Z108" s="3"/>
       <c r="AA108" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB108" s="11"/>
       <c r="AC108" s="6"/>
@@ -7570,13 +7985,15 @@
         <v>31</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E109" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
@@ -7600,14 +8017,14 @@
       <c r="V109" s="4"/>
       <c r="W109" s="4"/>
       <c r="X109" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y109" s="12">
         <v>0</v>
       </c>
       <c r="Z109" s="3"/>
       <c r="AA109" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB109" s="11"/>
       <c r="AC109" s="6"/>
@@ -7624,13 +8041,15 @@
         <v>31</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E110" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -7654,14 +8073,14 @@
       <c r="V110" s="4"/>
       <c r="W110" s="4"/>
       <c r="X110" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y110" s="12">
         <v>0</v>
       </c>
       <c r="Z110" s="3"/>
       <c r="AA110" s="13" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AB110" s="11"/>
       <c r="AC110" s="6"/>
@@ -7678,11 +8097,11 @@
         <v>31</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>190</v>
+        <v>243</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="s">
-        <v>191</v>
+        <v>244</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -7708,14 +8127,14 @@
       <c r="V111" s="4"/>
       <c r="W111" s="4"/>
       <c r="X111" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y111" s="12">
         <v>0</v>
       </c>
       <c r="Z111" s="3"/>
       <c r="AA111" s="13" t="s">
-        <v>192</v>
+        <v>245</v>
       </c>
       <c r="AB111" s="11"/>
       <c r="AC111" s="6"/>
@@ -7732,11 +8151,11 @@
         <v>31</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="s">
-        <v>191</v>
+        <v>244</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -7762,14 +8181,14 @@
       <c r="V112" s="4"/>
       <c r="W112" s="4"/>
       <c r="X112" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y112" s="12">
         <v>0</v>
       </c>
       <c r="Z112" s="3"/>
       <c r="AA112" s="13" t="s">
-        <v>192</v>
+        <v>245</v>
       </c>
       <c r="AB112" s="11"/>
       <c r="AC112" s="6"/>
@@ -7786,11 +8205,11 @@
         <v>31</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>194</v>
+        <v>247</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="s">
-        <v>191</v>
+        <v>244</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -7816,14 +8235,14 @@
       <c r="V113" s="4"/>
       <c r="W113" s="4"/>
       <c r="X113" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y113" s="12">
         <v>0</v>
       </c>
       <c r="Z113" s="3"/>
       <c r="AA113" s="13" t="s">
-        <v>192</v>
+        <v>245</v>
       </c>
       <c r="AB113" s="11"/>
       <c r="AC113" s="6"/>
@@ -7840,11 +8259,11 @@
         <v>31</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="s">
-        <v>191</v>
+        <v>244</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -7870,14 +8289,14 @@
       <c r="V114" s="4"/>
       <c r="W114" s="4"/>
       <c r="X114" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y114" s="12">
         <v>0</v>
       </c>
       <c r="Z114" s="3"/>
       <c r="AA114" s="13" t="s">
-        <v>192</v>
+        <v>245</v>
       </c>
       <c r="AB114" s="11"/>
       <c r="AC114" s="6"/>
@@ -7891,14 +8310,14 @@
     </row>
     <row r="115" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>197</v>
+        <v>250</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="s">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
@@ -7927,7 +8346,7 @@
       <c r="Y115" s="4"/>
       <c r="Z115" s="5"/>
       <c r="AA115" s="6" t="s">
-        <v>199</v>
+        <v>252</v>
       </c>
       <c r="AB115" s="11"/>
       <c r="AC115" s="6"/>
@@ -7941,14 +8360,14 @@
     </row>
     <row r="116" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="s">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -7977,7 +8396,7 @@
       <c r="Y116" s="4"/>
       <c r="Z116" s="5"/>
       <c r="AA116" s="6" t="s">
-        <v>199</v>
+        <v>252</v>
       </c>
       <c r="AB116" s="11"/>
       <c r="AC116" s="6"/>
@@ -7991,14 +8410,14 @@
     </row>
     <row r="117" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>201</v>
+        <v>254</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="s">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -8027,7 +8446,7 @@
       <c r="Y117" s="4"/>
       <c r="Z117" s="5"/>
       <c r="AA117" s="6" t="s">
-        <v>199</v>
+        <v>252</v>
       </c>
       <c r="AB117" s="11"/>
       <c r="AC117" s="6"/>
@@ -8041,14 +8460,14 @@
     </row>
     <row r="118" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4" t="s">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
@@ -8077,7 +8496,7 @@
       <c r="Y118" s="4"/>
       <c r="Z118" s="5"/>
       <c r="AA118" s="6" t="s">
-        <v>199</v>
+        <v>252</v>
       </c>
       <c r="AB118" s="11"/>
       <c r="AC118" s="6"/>
@@ -8091,14 +8510,14 @@
     </row>
     <row r="119" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>203</v>
+        <v>256</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="s">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -8127,7 +8546,7 @@
       <c r="Y119" s="4"/>
       <c r="Z119" s="5"/>
       <c r="AA119" s="6" t="s">
-        <v>199</v>
+        <v>252</v>
       </c>
       <c r="AB119" s="11"/>
       <c r="AC119" s="6"/>
@@ -8141,14 +8560,14 @@
     </row>
     <row r="120" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="s">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
@@ -8177,7 +8596,7 @@
       <c r="Y120" s="4"/>
       <c r="Z120" s="5"/>
       <c r="AA120" s="6" t="s">
-        <v>199</v>
+        <v>252</v>
       </c>
       <c r="AB120" s="11"/>
       <c r="AC120" s="6"/>
@@ -8191,14 +8610,14 @@
     </row>
     <row r="121" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="s">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
@@ -8227,7 +8646,7 @@
       <c r="Y121" s="4"/>
       <c r="Z121" s="5"/>
       <c r="AA121" s="6" t="s">
-        <v>199</v>
+        <v>252</v>
       </c>
       <c r="AB121" s="11"/>
       <c r="AC121" s="6"/>
@@ -8241,14 +8660,14 @@
     </row>
     <row r="122" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>206</v>
+        <v>259</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="s">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
@@ -8277,7 +8696,7 @@
       <c r="Y122" s="4"/>
       <c r="Z122" s="5"/>
       <c r="AA122" s="6" t="s">
-        <v>199</v>
+        <v>252</v>
       </c>
       <c r="AB122" s="11"/>
       <c r="AC122" s="6"/>
@@ -8291,14 +8710,14 @@
     </row>
     <row r="123" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="s">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -8327,7 +8746,7 @@
       <c r="Y123" s="4"/>
       <c r="Z123" s="5"/>
       <c r="AA123" s="6" t="s">
-        <v>199</v>
+        <v>252</v>
       </c>
       <c r="AB123" s="11"/>
       <c r="AC123" s="6"/>
@@ -8341,14 +8760,14 @@
     </row>
     <row r="124" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>208</v>
+        <v>261</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="s">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
@@ -8377,7 +8796,7 @@
       <c r="Y124" s="4"/>
       <c r="Z124" s="5"/>
       <c r="AA124" s="6" t="s">
-        <v>199</v>
+        <v>252</v>
       </c>
       <c r="AB124" s="11"/>
       <c r="AC124" s="6"/>
@@ -8660,35 +9079,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>211</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>210</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>213</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -8721,21 +9140,21 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/exe/TSV/Excel/TH71_Tsuzaki_UIList.xlsx
+++ b/exe/TSV/Excel/TH71_Tsuzaki_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9633C8-A116-4B5A-8727-8F5F12597E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2A286E-5038-4156-9FC3-483CFCCF4E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="4665" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7890" yWindow="3990" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH71_津崎駅_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="266">
   <si>
     <t>Type</t>
   </si>
@@ -945,6 +945,9 @@
     <t>物理鍵てこ</t>
   </si>
   <si>
+    <t>TH71_81</t>
+  </si>
+  <si>
     <t>-1,1,-11,11</t>
   </si>
   <si>
@@ -1014,7 +1017,7 @@
     <t>TH71_TST_1</t>
   </si>
   <si>
-    <t>TH67_TST</t>
+    <t>TH71_TST</t>
   </si>
   <si>
     <t>TH71_TST_2</t>
@@ -1608,7 +1611,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4917,7 +4920,9 @@
       <c r="D56" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E56" s="4"/>
+      <c r="E56" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -4943,19 +4948,19 @@
         <v>153</v>
       </c>
       <c r="X56" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y56" s="7">
         <v>1</v>
       </c>
       <c r="Z56" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AA56" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AC56" s="6"/>
       <c r="AD56" s="6"/>
@@ -4971,13 +4976,15 @@
         <v>31</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E57" s="4"/>
+        <v>161</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -5025,13 +5032,15 @@
         <v>31</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E58" s="4"/>
+        <v>161</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -5079,14 +5088,14 @@
         <v>31</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -5111,17 +5120,17 @@
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
       <c r="X59" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y59" s="12">
         <v>0</v>
       </c>
       <c r="Z59" s="3"/>
       <c r="AA59" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB59" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AC59" s="6"/>
       <c r="AD59" s="6"/>
@@ -5137,14 +5146,14 @@
         <v>31</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -5169,14 +5178,14 @@
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
       <c r="X60" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y60" s="12">
         <v>0</v>
       </c>
       <c r="Z60" s="3"/>
       <c r="AA60" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB60" s="11"/>
       <c r="AC60" s="6"/>
@@ -5193,14 +5202,14 @@
         <v>31</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -5225,14 +5234,14 @@
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
       <c r="X61" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y61" s="12">
         <v>0</v>
       </c>
       <c r="Z61" s="3"/>
       <c r="AA61" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB61" s="11"/>
       <c r="AC61" s="6"/>
@@ -5249,14 +5258,14 @@
         <v>31</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -5281,14 +5290,14 @@
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
       <c r="X62" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y62" s="12">
         <v>0</v>
       </c>
       <c r="Z62" s="3"/>
       <c r="AA62" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB62" s="11"/>
       <c r="AC62" s="6"/>
@@ -5305,14 +5314,14 @@
         <v>31</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -5337,14 +5346,14 @@
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
       <c r="X63" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y63" s="12">
         <v>0</v>
       </c>
       <c r="Z63" s="3"/>
       <c r="AA63" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB63" s="11"/>
       <c r="AC63" s="6"/>
@@ -5361,14 +5370,14 @@
         <v>31</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -5393,14 +5402,14 @@
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
       <c r="X64" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y64" s="12">
         <v>0</v>
       </c>
       <c r="Z64" s="3"/>
       <c r="AA64" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB64" s="11"/>
       <c r="AC64" s="6"/>
@@ -5417,14 +5426,14 @@
         <v>31</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -5449,14 +5458,14 @@
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
       <c r="X65" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y65" s="12">
         <v>0</v>
       </c>
       <c r="Z65" s="3"/>
       <c r="AA65" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB65" s="11"/>
       <c r="AC65" s="6"/>
@@ -5473,14 +5482,14 @@
         <v>31</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -5505,14 +5514,14 @@
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
       <c r="X66" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y66" s="12">
         <v>0</v>
       </c>
       <c r="Z66" s="3"/>
       <c r="AA66" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB66" s="11"/>
       <c r="AC66" s="6"/>
@@ -5529,14 +5538,14 @@
         <v>31</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>124</v>
@@ -5565,14 +5574,14 @@
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
       <c r="X67" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y67" s="12">
         <v>0</v>
       </c>
       <c r="Z67" s="3"/>
       <c r="AA67" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB67" s="11"/>
       <c r="AC67" s="6"/>
@@ -5589,14 +5598,14 @@
         <v>31</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>124</v>
@@ -5625,14 +5634,14 @@
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
       <c r="X68" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y68" s="12">
         <v>0</v>
       </c>
       <c r="Z68" s="3"/>
       <c r="AA68" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB68" s="11"/>
       <c r="AC68" s="6"/>
@@ -5649,14 +5658,14 @@
         <v>31</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>124</v>
@@ -5685,14 +5694,14 @@
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
       <c r="X69" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y69" s="12">
         <v>0</v>
       </c>
       <c r="Z69" s="3"/>
       <c r="AA69" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB69" s="11"/>
       <c r="AC69" s="6"/>
@@ -5709,14 +5718,14 @@
         <v>31</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>124</v>
@@ -5745,14 +5754,14 @@
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
       <c r="X70" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y70" s="12">
         <v>0</v>
       </c>
       <c r="Z70" s="3"/>
       <c r="AA70" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB70" s="11"/>
       <c r="AC70" s="6"/>
@@ -5769,14 +5778,14 @@
         <v>31</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>124</v>
@@ -5805,14 +5814,14 @@
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
       <c r="X71" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y71" s="12">
         <v>0</v>
       </c>
       <c r="Z71" s="3"/>
       <c r="AA71" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AB71" s="11">
         <v>45</v>
@@ -5831,14 +5840,14 @@
         <v>31</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>124</v>
@@ -5867,14 +5876,14 @@
       <c r="V72" s="4"/>
       <c r="W72" s="4"/>
       <c r="X72" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y72" s="12">
         <v>0</v>
       </c>
       <c r="Z72" s="3"/>
       <c r="AA72" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB72" s="11"/>
       <c r="AC72" s="6"/>
@@ -5891,14 +5900,14 @@
         <v>31</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>135</v>
@@ -5927,14 +5936,14 @@
       <c r="V73" s="4"/>
       <c r="W73" s="4"/>
       <c r="X73" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y73" s="12">
         <v>0</v>
       </c>
       <c r="Z73" s="3"/>
       <c r="AA73" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB73" s="11"/>
       <c r="AC73" s="6"/>
@@ -5951,14 +5960,14 @@
         <v>31</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>135</v>
@@ -5987,14 +5996,14 @@
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
       <c r="X74" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y74" s="12">
         <v>0</v>
       </c>
       <c r="Z74" s="3"/>
       <c r="AA74" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB74" s="11"/>
       <c r="AC74" s="6"/>
@@ -6011,14 +6020,14 @@
         <v>31</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>135</v>
@@ -6047,14 +6056,14 @@
       <c r="V75" s="4"/>
       <c r="W75" s="4"/>
       <c r="X75" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y75" s="12">
         <v>0</v>
       </c>
       <c r="Z75" s="3"/>
       <c r="AA75" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB75" s="11"/>
       <c r="AC75" s="6"/>
@@ -6071,14 +6080,14 @@
         <v>31</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>135</v>
@@ -6107,14 +6116,14 @@
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
       <c r="X76" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y76" s="12">
         <v>0</v>
       </c>
       <c r="Z76" s="3"/>
       <c r="AA76" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB76" s="11"/>
       <c r="AC76" s="6"/>
@@ -6131,14 +6140,14 @@
         <v>31</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>135</v>
@@ -6167,14 +6176,14 @@
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
       <c r="X77" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y77" s="12">
         <v>0</v>
       </c>
       <c r="Z77" s="3"/>
       <c r="AA77" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AB77" s="11">
         <v>135</v>
@@ -6193,14 +6202,14 @@
         <v>31</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>135</v>
@@ -6229,14 +6238,14 @@
       <c r="V78" s="4"/>
       <c r="W78" s="4"/>
       <c r="X78" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y78" s="12">
         <v>0</v>
       </c>
       <c r="Z78" s="3"/>
       <c r="AA78" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB78" s="11"/>
       <c r="AC78" s="6"/>
@@ -6253,14 +6262,14 @@
         <v>31</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
@@ -6285,14 +6294,14 @@
       <c r="V79" s="4"/>
       <c r="W79" s="4"/>
       <c r="X79" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y79" s="12">
         <v>0</v>
       </c>
       <c r="Z79" s="3"/>
       <c r="AA79" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB79" s="11"/>
       <c r="AC79" s="6"/>
@@ -6309,14 +6318,14 @@
         <v>31</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
@@ -6341,14 +6350,14 @@
       <c r="V80" s="4"/>
       <c r="W80" s="4"/>
       <c r="X80" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y80" s="12">
         <v>0</v>
       </c>
       <c r="Z80" s="3"/>
       <c r="AA80" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB80" s="11"/>
       <c r="AC80" s="6"/>
@@ -6365,14 +6374,14 @@
         <v>31</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
@@ -6397,14 +6406,14 @@
       <c r="V81" s="4"/>
       <c r="W81" s="4"/>
       <c r="X81" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y81" s="12">
         <v>0</v>
       </c>
       <c r="Z81" s="3"/>
       <c r="AA81" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB81" s="11"/>
       <c r="AC81" s="6"/>
@@ -6421,14 +6430,14 @@
         <v>31</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -6453,14 +6462,14 @@
       <c r="V82" s="4"/>
       <c r="W82" s="4"/>
       <c r="X82" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y82" s="12">
         <v>0</v>
       </c>
       <c r="Z82" s="3"/>
       <c r="AA82" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB82" s="11"/>
       <c r="AC82" s="6"/>
@@ -6477,14 +6486,14 @@
         <v>31</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
@@ -6509,14 +6518,14 @@
       <c r="V83" s="4"/>
       <c r="W83" s="4"/>
       <c r="X83" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y83" s="12">
         <v>0</v>
       </c>
       <c r="Z83" s="3"/>
       <c r="AA83" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB83" s="11"/>
       <c r="AC83" s="6"/>
@@ -6533,14 +6542,14 @@
         <v>31</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
@@ -6565,14 +6574,14 @@
       <c r="V84" s="4"/>
       <c r="W84" s="4"/>
       <c r="X84" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y84" s="12">
         <v>0</v>
       </c>
       <c r="Z84" s="3"/>
       <c r="AA84" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB84" s="11"/>
       <c r="AC84" s="6"/>
@@ -6589,14 +6598,14 @@
         <v>31</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
@@ -6621,14 +6630,14 @@
       <c r="V85" s="4"/>
       <c r="W85" s="4"/>
       <c r="X85" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y85" s="12">
         <v>0</v>
       </c>
       <c r="Z85" s="3"/>
       <c r="AA85" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB85" s="11"/>
       <c r="AC85" s="6"/>
@@ -6645,14 +6654,14 @@
         <v>31</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
@@ -6677,14 +6686,14 @@
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
       <c r="X86" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y86" s="12">
         <v>0</v>
       </c>
       <c r="Z86" s="3"/>
       <c r="AA86" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB86" s="11"/>
       <c r="AC86" s="6"/>
@@ -6701,14 +6710,14 @@
         <v>31</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>142</v>
@@ -6737,14 +6746,14 @@
       <c r="V87" s="4"/>
       <c r="W87" s="4"/>
       <c r="X87" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y87" s="12">
         <v>0</v>
       </c>
       <c r="Z87" s="3"/>
       <c r="AA87" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB87" s="11"/>
       <c r="AC87" s="6"/>
@@ -6761,14 +6770,14 @@
         <v>31</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>142</v>
@@ -6797,14 +6806,14 @@
       <c r="V88" s="4"/>
       <c r="W88" s="4"/>
       <c r="X88" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y88" s="12">
         <v>0</v>
       </c>
       <c r="Z88" s="3"/>
       <c r="AA88" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB88" s="11"/>
       <c r="AC88" s="6"/>
@@ -6821,14 +6830,14 @@
         <v>31</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>142</v>
@@ -6857,14 +6866,14 @@
       <c r="V89" s="4"/>
       <c r="W89" s="4"/>
       <c r="X89" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y89" s="12">
         <v>0</v>
       </c>
       <c r="Z89" s="3"/>
       <c r="AA89" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB89" s="11"/>
       <c r="AC89" s="6"/>
@@ -6881,14 +6890,14 @@
         <v>31</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>142</v>
@@ -6917,14 +6926,14 @@
       <c r="V90" s="4"/>
       <c r="W90" s="4"/>
       <c r="X90" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y90" s="12">
         <v>0</v>
       </c>
       <c r="Z90" s="3"/>
       <c r="AA90" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB90" s="11"/>
       <c r="AC90" s="6"/>
@@ -6941,14 +6950,14 @@
         <v>31</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>142</v>
@@ -6977,14 +6986,14 @@
       <c r="V91" s="4"/>
       <c r="W91" s="4"/>
       <c r="X91" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y91" s="12">
         <v>0</v>
       </c>
       <c r="Z91" s="3"/>
       <c r="AA91" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AB91" s="11">
         <v>135</v>
@@ -7003,14 +7012,14 @@
         <v>31</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F92" s="7" t="s">
         <v>142</v>
@@ -7039,14 +7048,14 @@
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
       <c r="X92" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y92" s="12">
         <v>0</v>
       </c>
       <c r="Z92" s="3"/>
       <c r="AA92" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB92" s="11"/>
       <c r="AC92" s="6"/>
@@ -7063,14 +7072,14 @@
         <v>31</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>149</v>
@@ -7099,14 +7108,14 @@
       <c r="V93" s="4"/>
       <c r="W93" s="4"/>
       <c r="X93" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y93" s="12">
         <v>0</v>
       </c>
       <c r="Z93" s="3"/>
       <c r="AA93" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB93" s="11"/>
       <c r="AC93" s="6"/>
@@ -7123,14 +7132,14 @@
         <v>31</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>149</v>
@@ -7159,14 +7168,14 @@
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
       <c r="X94" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y94" s="12">
         <v>0</v>
       </c>
       <c r="Z94" s="3"/>
       <c r="AA94" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB94" s="11"/>
       <c r="AC94" s="6"/>
@@ -7183,14 +7192,14 @@
         <v>31</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>149</v>
@@ -7219,14 +7228,14 @@
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
       <c r="X95" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y95" s="12">
         <v>0</v>
       </c>
       <c r="Z95" s="3"/>
       <c r="AA95" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB95" s="11"/>
       <c r="AC95" s="6"/>
@@ -7243,14 +7252,14 @@
         <v>31</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F96" s="7" t="s">
         <v>149</v>
@@ -7279,14 +7288,14 @@
       <c r="V96" s="4"/>
       <c r="W96" s="4"/>
       <c r="X96" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y96" s="12">
         <v>0</v>
       </c>
       <c r="Z96" s="3"/>
       <c r="AA96" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB96" s="11"/>
       <c r="AC96" s="6"/>
@@ -7303,14 +7312,14 @@
         <v>31</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F97" s="7" t="s">
         <v>149</v>
@@ -7339,14 +7348,14 @@
       <c r="V97" s="4"/>
       <c r="W97" s="4"/>
       <c r="X97" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y97" s="12">
         <v>0</v>
       </c>
       <c r="Z97" s="3"/>
       <c r="AA97" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AB97" s="11">
         <v>45</v>
@@ -7365,14 +7374,14 @@
         <v>31</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F98" s="7" t="s">
         <v>149</v>
@@ -7401,14 +7410,14 @@
       <c r="V98" s="4"/>
       <c r="W98" s="4"/>
       <c r="X98" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y98" s="12">
         <v>0</v>
       </c>
       <c r="Z98" s="3"/>
       <c r="AA98" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB98" s="11"/>
       <c r="AC98" s="6"/>
@@ -7425,14 +7434,14 @@
         <v>31</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
@@ -7457,14 +7466,14 @@
       <c r="V99" s="4"/>
       <c r="W99" s="4"/>
       <c r="X99" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y99" s="12">
         <v>0</v>
       </c>
       <c r="Z99" s="3"/>
       <c r="AA99" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB99" s="11"/>
       <c r="AC99" s="6"/>
@@ -7481,14 +7490,14 @@
         <v>31</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
@@ -7513,14 +7522,14 @@
       <c r="V100" s="4"/>
       <c r="W100" s="4"/>
       <c r="X100" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y100" s="12">
         <v>0</v>
       </c>
       <c r="Z100" s="3"/>
       <c r="AA100" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB100" s="11"/>
       <c r="AC100" s="6"/>
@@ -7537,14 +7546,14 @@
         <v>31</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
@@ -7569,14 +7578,14 @@
       <c r="V101" s="4"/>
       <c r="W101" s="4"/>
       <c r="X101" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y101" s="12">
         <v>0</v>
       </c>
       <c r="Z101" s="3"/>
       <c r="AA101" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB101" s="11"/>
       <c r="AC101" s="6"/>
@@ -7593,14 +7602,14 @@
         <v>31</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
@@ -7625,14 +7634,14 @@
       <c r="V102" s="4"/>
       <c r="W102" s="4"/>
       <c r="X102" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y102" s="12">
         <v>0</v>
       </c>
       <c r="Z102" s="3"/>
       <c r="AA102" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB102" s="11"/>
       <c r="AC102" s="6"/>
@@ -7649,14 +7658,14 @@
         <v>31</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
@@ -7681,14 +7690,14 @@
       <c r="V103" s="4"/>
       <c r="W103" s="4"/>
       <c r="X103" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y103" s="12">
         <v>0</v>
       </c>
       <c r="Z103" s="3"/>
       <c r="AA103" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB103" s="11"/>
       <c r="AC103" s="6"/>
@@ -7705,14 +7714,14 @@
         <v>31</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
@@ -7737,14 +7746,14 @@
       <c r="V104" s="4"/>
       <c r="W104" s="4"/>
       <c r="X104" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y104" s="12">
         <v>0</v>
       </c>
       <c r="Z104" s="3"/>
       <c r="AA104" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB104" s="11"/>
       <c r="AC104" s="6"/>
@@ -7761,14 +7770,14 @@
         <v>31</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
@@ -7793,14 +7802,14 @@
       <c r="V105" s="4"/>
       <c r="W105" s="4"/>
       <c r="X105" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y105" s="12">
         <v>0</v>
       </c>
       <c r="Z105" s="3"/>
       <c r="AA105" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB105" s="11"/>
       <c r="AC105" s="6"/>
@@ -7817,14 +7826,14 @@
         <v>31</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
@@ -7849,14 +7858,14 @@
       <c r="V106" s="4"/>
       <c r="W106" s="4"/>
       <c r="X106" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y106" s="12">
         <v>0</v>
       </c>
       <c r="Z106" s="3"/>
       <c r="AA106" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB106" s="11"/>
       <c r="AC106" s="6"/>
@@ -7873,14 +7882,14 @@
         <v>31</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
@@ -7905,14 +7914,14 @@
       <c r="V107" s="4"/>
       <c r="W107" s="4"/>
       <c r="X107" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y107" s="12">
         <v>0</v>
       </c>
       <c r="Z107" s="3"/>
       <c r="AA107" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB107" s="11"/>
       <c r="AC107" s="6"/>
@@ -7929,14 +7938,14 @@
         <v>31</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
@@ -7961,14 +7970,14 @@
       <c r="V108" s="4"/>
       <c r="W108" s="4"/>
       <c r="X108" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y108" s="12">
         <v>0</v>
       </c>
       <c r="Z108" s="3"/>
       <c r="AA108" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB108" s="11"/>
       <c r="AC108" s="6"/>
@@ -7985,14 +7994,14 @@
         <v>31</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
@@ -8017,14 +8026,14 @@
       <c r="V109" s="4"/>
       <c r="W109" s="4"/>
       <c r="X109" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y109" s="12">
         <v>0</v>
       </c>
       <c r="Z109" s="3"/>
       <c r="AA109" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB109" s="11"/>
       <c r="AC109" s="6"/>
@@ -8041,14 +8050,14 @@
         <v>31</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
@@ -8073,14 +8082,14 @@
       <c r="V110" s="4"/>
       <c r="W110" s="4"/>
       <c r="X110" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y110" s="12">
         <v>0</v>
       </c>
       <c r="Z110" s="3"/>
       <c r="AA110" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB110" s="11"/>
       <c r="AC110" s="6"/>
@@ -8097,11 +8106,11 @@
         <v>31</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -8134,7 +8143,7 @@
       </c>
       <c r="Z111" s="3"/>
       <c r="AA111" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AB111" s="11"/>
       <c r="AC111" s="6"/>
@@ -8151,11 +8160,11 @@
         <v>31</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -8188,7 +8197,7 @@
       </c>
       <c r="Z112" s="3"/>
       <c r="AA112" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AB112" s="11"/>
       <c r="AC112" s="6"/>
@@ -8205,11 +8214,11 @@
         <v>31</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -8242,7 +8251,7 @@
       </c>
       <c r="Z113" s="3"/>
       <c r="AA113" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AB113" s="11"/>
       <c r="AC113" s="6"/>
@@ -8259,11 +8268,11 @@
         <v>31</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -8296,7 +8305,7 @@
       </c>
       <c r="Z114" s="3"/>
       <c r="AA114" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AB114" s="11"/>
       <c r="AC114" s="6"/>
@@ -8310,14 +8319,14 @@
     </row>
     <row r="115" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
@@ -8346,7 +8355,7 @@
       <c r="Y115" s="4"/>
       <c r="Z115" s="5"/>
       <c r="AA115" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AB115" s="11"/>
       <c r="AC115" s="6"/>
@@ -8360,14 +8369,14 @@
     </row>
     <row r="116" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -8396,7 +8405,7 @@
       <c r="Y116" s="4"/>
       <c r="Z116" s="5"/>
       <c r="AA116" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AB116" s="11"/>
       <c r="AC116" s="6"/>
@@ -8410,14 +8419,14 @@
     </row>
     <row r="117" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -8446,7 +8455,7 @@
       <c r="Y117" s="4"/>
       <c r="Z117" s="5"/>
       <c r="AA117" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AB117" s="11"/>
       <c r="AC117" s="6"/>
@@ -8460,14 +8469,14 @@
     </row>
     <row r="118" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
@@ -8496,7 +8505,7 @@
       <c r="Y118" s="4"/>
       <c r="Z118" s="5"/>
       <c r="AA118" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AB118" s="11"/>
       <c r="AC118" s="6"/>
@@ -8510,14 +8519,14 @@
     </row>
     <row r="119" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -8546,7 +8555,7 @@
       <c r="Y119" s="4"/>
       <c r="Z119" s="5"/>
       <c r="AA119" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AB119" s="11"/>
       <c r="AC119" s="6"/>
@@ -8560,14 +8569,14 @@
     </row>
     <row r="120" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
@@ -8596,7 +8605,7 @@
       <c r="Y120" s="4"/>
       <c r="Z120" s="5"/>
       <c r="AA120" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AB120" s="11"/>
       <c r="AC120" s="6"/>
@@ -8610,14 +8619,14 @@
     </row>
     <row r="121" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
@@ -8646,7 +8655,7 @@
       <c r="Y121" s="4"/>
       <c r="Z121" s="5"/>
       <c r="AA121" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AB121" s="11"/>
       <c r="AC121" s="6"/>
@@ -8660,14 +8669,14 @@
     </row>
     <row r="122" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
@@ -8696,7 +8705,7 @@
       <c r="Y122" s="4"/>
       <c r="Z122" s="5"/>
       <c r="AA122" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AB122" s="11"/>
       <c r="AC122" s="6"/>
@@ -8710,14 +8719,14 @@
     </row>
     <row r="123" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -8746,7 +8755,7 @@
       <c r="Y123" s="4"/>
       <c r="Z123" s="5"/>
       <c r="AA123" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AB123" s="11"/>
       <c r="AC123" s="6"/>
@@ -8760,14 +8769,14 @@
     </row>
     <row r="124" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
@@ -8796,7 +8805,7 @@
       <c r="Y124" s="4"/>
       <c r="Z124" s="5"/>
       <c r="AA124" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AB124" s="11"/>
       <c r="AC124" s="6"/>
@@ -9079,18 +9088,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>125</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>128</v>
@@ -9154,7 +9163,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/exe/TSV/Excel/TH71_Tsuzaki_UIList.xlsx
+++ b/exe/TSV/Excel/TH71_Tsuzaki_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2A286E-5038-4156-9FC3-483CFCCF4E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8F5825-4C60-46CA-8CDF-D2CF6A3991DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7890" yWindow="3990" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6885" yWindow="4560" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH71_津崎駅_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="282">
   <si>
     <t>Type</t>
   </si>
@@ -1212,24 +1212,42 @@
     <t>下り105T</t>
   </si>
   <si>
+    <t>転てつ不良_R</t>
+  </si>
+  <si>
+    <t>状態表示灯</t>
+  </si>
+  <si>
+    <t>TH71_W-FAILURE</t>
+  </si>
+  <si>
+    <t>Image/Light/N.png,Image/Light/R.png</t>
+  </si>
+  <si>
     <t>停電_R</t>
   </si>
   <si>
-    <t>状態表示灯</t>
-  </si>
-  <si>
-    <t>Image/Light/N.png,Image/Light/R.png</t>
+    <t>TH71_PWR-FAILURE</t>
   </si>
   <si>
     <t>CTC故障_R</t>
   </si>
   <si>
+    <t>TH71_CTC-FAILURE</t>
+  </si>
+  <si>
     <t>鎖錠60秒_R</t>
   </si>
   <si>
+    <t>TH71_60TEK</t>
+  </si>
+  <si>
     <t>鎖錠30秒_R</t>
   </si>
   <si>
+    <t>TH71_30TEK</t>
+  </si>
+  <si>
     <t>Retsuban</t>
   </si>
   <si>
@@ -1239,34 +1257,64 @@
     <t>列車番号</t>
   </si>
   <si>
+    <t>TH71_TTC_Up2</t>
+  </si>
+  <si>
     <t>Image/Retsuban/Retsuban-Window.png</t>
   </si>
   <si>
     <t>列番津崎上り第1接近</t>
   </si>
   <si>
+    <t>TH71_TTC_Up1</t>
+  </si>
+  <si>
     <t>列番津崎1番線</t>
   </si>
   <si>
+    <t>TH71_TTC_Track1</t>
+  </si>
+  <si>
     <t>列番津崎2番線</t>
   </si>
   <si>
+    <t>TH71_TTC_Track2</t>
+  </si>
+  <si>
     <t>列番津崎3番線</t>
   </si>
   <si>
+    <t>TH71_TTC_Track3</t>
+  </si>
+  <si>
     <t>列番津崎4番線</t>
   </si>
   <si>
+    <t>TH71_TTC_Track4</t>
+  </si>
+  <si>
     <t>列番津崎下り第1接近</t>
   </si>
   <si>
+    <t>TH71_TTC_Down1</t>
+  </si>
+  <si>
     <t>列番津崎下り第2接近</t>
   </si>
   <si>
+    <t>TH71_TTC_Down2</t>
+  </si>
+  <si>
     <t>列番浜園2番線</t>
   </si>
   <si>
+    <t>TH70_TTC_Track2</t>
+  </si>
+  <si>
     <t>列番浜園下り第1接近</t>
+  </si>
+  <si>
+    <t>TH70_TTC_Down1</t>
   </si>
   <si>
     <t>Button</t>
@@ -1345,7 +1393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1386,6 +1434,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1605,13 +1656,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ130"/>
+  <dimension ref="A1:AJ131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8112,7 +8163,9 @@
       <c r="D111" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E111" s="4"/>
+      <c r="E111" s="12" t="s">
+        <v>246</v>
+      </c>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
@@ -8120,7 +8173,7 @@
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
       <c r="L111" s="4">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="M111" s="4">
         <v>45</v>
@@ -8143,7 +8196,7 @@
       </c>
       <c r="Z111" s="3"/>
       <c r="AA111" s="13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AB111" s="11"/>
       <c r="AC111" s="6"/>
@@ -8160,13 +8213,15 @@
         <v>31</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E112" s="4"/>
+      <c r="E112" s="12" t="s">
+        <v>249</v>
+      </c>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
@@ -8174,7 +8229,7 @@
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
       <c r="L112" s="4">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="M112" s="4">
         <v>45</v>
@@ -8197,7 +8252,7 @@
       </c>
       <c r="Z112" s="3"/>
       <c r="AA112" s="13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AB112" s="11"/>
       <c r="AC112" s="6"/>
@@ -8214,13 +8269,15 @@
         <v>31</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E113" s="4"/>
+      <c r="E113" s="12" t="s">
+        <v>251</v>
+      </c>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -8228,10 +8285,10 @@
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
       <c r="L113" s="4">
-        <v>696</v>
+        <v>180</v>
       </c>
       <c r="M113" s="4">
-        <v>567</v>
+        <v>45</v>
       </c>
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
@@ -8251,7 +8308,7 @@
       </c>
       <c r="Z113" s="3"/>
       <c r="AA113" s="13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AB113" s="11"/>
       <c r="AC113" s="6"/>
@@ -8268,13 +8325,15 @@
         <v>31</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E114" s="4"/>
+      <c r="E114" s="12" t="s">
+        <v>253</v>
+      </c>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
@@ -8282,7 +8341,7 @@
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
       <c r="L114" s="4">
-        <v>734</v>
+        <v>696</v>
       </c>
       <c r="M114" s="4">
         <v>567</v>
@@ -8305,7 +8364,7 @@
       </c>
       <c r="Z114" s="3"/>
       <c r="AA114" s="13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AB114" s="11"/>
       <c r="AC114" s="6"/>
@@ -8319,16 +8378,18 @@
     </row>
     <row r="115" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>250</v>
+        <v>31</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E115" s="4"/>
+        <v>245</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>255</v>
+      </c>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
@@ -8336,10 +8397,10 @@
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
       <c r="L115" s="4">
-        <v>24</v>
+        <v>734</v>
       </c>
       <c r="M115" s="4">
-        <v>191</v>
+        <v>567</v>
       </c>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
@@ -8351,11 +8412,15 @@
       <c r="U115" s="4"/>
       <c r="V115" s="4"/>
       <c r="W115" s="4"/>
-      <c r="X115" s="4"/>
-      <c r="Y115" s="4"/>
-      <c r="Z115" s="5"/>
-      <c r="AA115" s="6" t="s">
-        <v>253</v>
+      <c r="X115" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y115" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z115" s="3"/>
+      <c r="AA115" s="13" t="s">
+        <v>247</v>
       </c>
       <c r="AB115" s="11"/>
       <c r="AC115" s="6"/>
@@ -8369,16 +8434,18 @@
     </row>
     <row r="116" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E116" s="4"/>
+        <v>258</v>
+      </c>
+      <c r="E116" s="15" t="s">
+        <v>259</v>
+      </c>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -8386,7 +8453,7 @@
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
       <c r="L116" s="4">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="M116" s="4">
         <v>191</v>
@@ -8405,7 +8472,7 @@
       <c r="Y116" s="4"/>
       <c r="Z116" s="5"/>
       <c r="AA116" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="AB116" s="11"/>
       <c r="AC116" s="6"/>
@@ -8419,16 +8486,18 @@
     </row>
     <row r="117" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E117" s="4"/>
+        <v>258</v>
+      </c>
+      <c r="E117" s="15" t="s">
+        <v>262</v>
+      </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
@@ -8436,10 +8505,10 @@
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
       <c r="L117" s="4">
-        <v>569</v>
+        <v>174</v>
       </c>
       <c r="M117" s="4">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
@@ -8455,7 +8524,7 @@
       <c r="Y117" s="4"/>
       <c r="Z117" s="5"/>
       <c r="AA117" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="AB117" s="11"/>
       <c r="AC117" s="6"/>
@@ -8469,16 +8538,18 @@
     </row>
     <row r="118" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E118" s="4"/>
+        <v>258</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>264</v>
+      </c>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
@@ -8489,7 +8560,7 @@
         <v>569</v>
       </c>
       <c r="M118" s="4">
-        <v>278</v>
+        <v>164</v>
       </c>
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
@@ -8505,7 +8576,7 @@
       <c r="Y118" s="4"/>
       <c r="Z118" s="5"/>
       <c r="AA118" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="AB118" s="11"/>
       <c r="AC118" s="6"/>
@@ -8519,16 +8590,18 @@
     </row>
     <row r="119" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E119" s="4"/>
+        <v>258</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>266</v>
+      </c>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
@@ -8539,7 +8612,7 @@
         <v>569</v>
       </c>
       <c r="M119" s="4">
-        <v>338</v>
+        <v>278</v>
       </c>
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
@@ -8555,7 +8628,7 @@
       <c r="Y119" s="4"/>
       <c r="Z119" s="5"/>
       <c r="AA119" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="AB119" s="11"/>
       <c r="AC119" s="6"/>
@@ -8569,16 +8642,18 @@
     </row>
     <row r="120" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E120" s="4"/>
+        <v>258</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>268</v>
+      </c>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
@@ -8589,7 +8664,7 @@
         <v>569</v>
       </c>
       <c r="M120" s="4">
-        <v>452</v>
+        <v>338</v>
       </c>
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
@@ -8605,7 +8680,7 @@
       <c r="Y120" s="4"/>
       <c r="Z120" s="5"/>
       <c r="AA120" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="AB120" s="11"/>
       <c r="AC120" s="6"/>
@@ -8619,16 +8694,18 @@
     </row>
     <row r="121" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E121" s="4"/>
+        <v>258</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>270</v>
+      </c>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
@@ -8636,10 +8713,10 @@
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
       <c r="L121" s="4">
-        <v>985</v>
+        <v>569</v>
       </c>
       <c r="M121" s="4">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
@@ -8655,7 +8732,7 @@
       <c r="Y121" s="4"/>
       <c r="Z121" s="5"/>
       <c r="AA121" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="AB121" s="11"/>
       <c r="AC121" s="6"/>
@@ -8669,16 +8746,18 @@
     </row>
     <row r="122" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B122" s="14" t="s">
-        <v>260</v>
+        <v>256</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E122" s="4"/>
+        <v>258</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>272</v>
+      </c>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
@@ -8689,7 +8768,7 @@
         <v>985</v>
       </c>
       <c r="M122" s="4">
-        <v>471</v>
+        <v>425</v>
       </c>
       <c r="N122" s="4"/>
       <c r="O122" s="4"/>
@@ -8700,12 +8779,12 @@
       <c r="T122" s="4"/>
       <c r="U122" s="4"/>
       <c r="V122" s="4"/>
-      <c r="W122" s="14"/>
+      <c r="W122" s="4"/>
       <c r="X122" s="4"/>
       <c r="Y122" s="4"/>
       <c r="Z122" s="5"/>
       <c r="AA122" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="AB122" s="11"/>
       <c r="AC122" s="6"/>
@@ -8719,16 +8798,18 @@
     </row>
     <row r="123" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>261</v>
+        <v>256</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>273</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E123" s="4"/>
+        <v>258</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>274</v>
+      </c>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
@@ -8736,10 +8817,10 @@
       <c r="J123" s="4"/>
       <c r="K123" s="4"/>
       <c r="L123" s="4">
-        <v>1135</v>
+        <v>985</v>
       </c>
       <c r="M123" s="4">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>
@@ -8750,12 +8831,12 @@
       <c r="T123" s="4"/>
       <c r="U123" s="4"/>
       <c r="V123" s="4"/>
-      <c r="W123" s="4"/>
+      <c r="W123" s="14"/>
       <c r="X123" s="4"/>
       <c r="Y123" s="4"/>
       <c r="Z123" s="5"/>
       <c r="AA123" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="AB123" s="11"/>
       <c r="AC123" s="6"/>
@@ -8769,16 +8850,18 @@
     </row>
     <row r="124" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E124" s="4"/>
+        <v>258</v>
+      </c>
+      <c r="E124" s="15" t="s">
+        <v>276</v>
+      </c>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
@@ -8786,7 +8869,7 @@
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
       <c r="L124" s="4">
-        <v>1285</v>
+        <v>1135</v>
       </c>
       <c r="M124" s="4">
         <v>425</v>
@@ -8805,7 +8888,7 @@
       <c r="Y124" s="4"/>
       <c r="Z124" s="5"/>
       <c r="AA124" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="AB124" s="11"/>
       <c r="AC124" s="6"/>
@@ -8818,19 +8901,31 @@
       <c r="AJ124" s="6"/>
     </row>
     <row r="125" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
+      <c r="A125" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>277</v>
+      </c>
       <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
+      <c r="D125" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E125" s="15" t="s">
+        <v>278</v>
+      </c>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
-      <c r="M125" s="4"/>
+      <c r="L125" s="4">
+        <v>1285</v>
+      </c>
+      <c r="M125" s="4">
+        <v>425</v>
+      </c>
       <c r="N125" s="4"/>
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
@@ -8844,8 +8939,10 @@
       <c r="X125" s="4"/>
       <c r="Y125" s="4"/>
       <c r="Z125" s="5"/>
-      <c r="AA125" s="6"/>
-      <c r="AB125" s="6"/>
+      <c r="AA125" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB125" s="11"/>
       <c r="AC125" s="6"/>
       <c r="AD125" s="6"/>
       <c r="AE125" s="6"/>
@@ -9045,10 +9142,48 @@
       <c r="AI130" s="6"/>
       <c r="AJ130" s="6"/>
     </row>
+    <row r="131" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="4"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="4"/>
+      <c r="O131" s="4"/>
+      <c r="P131" s="4"/>
+      <c r="Q131" s="4"/>
+      <c r="R131" s="4"/>
+      <c r="S131" s="4"/>
+      <c r="T131" s="4"/>
+      <c r="U131" s="4"/>
+      <c r="V131" s="4"/>
+      <c r="W131" s="4"/>
+      <c r="X131" s="4"/>
+      <c r="Y131" s="4"/>
+      <c r="Z131" s="5"/>
+      <c r="AA131" s="6"/>
+      <c r="AB131" s="6"/>
+      <c r="AC131" s="6"/>
+      <c r="AD131" s="6"/>
+      <c r="AE131" s="6"/>
+      <c r="AF131" s="6"/>
+      <c r="AG131" s="6"/>
+      <c r="AH131" s="6"/>
+      <c r="AI131" s="6"/>
+      <c r="AJ131" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A130" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A131" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Button,Label,TextBlock,Image,BackImage,ClockImage,LeverImage,KeyImage,ButtonImage,Retsuban"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9061,13 +9196,13 @@
           <x14:formula1>
             <xm:f>入力規則!$C:$C</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K130</xm:sqref>
+          <xm:sqref>K2:K131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>入力規則!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G130 I2:I130</xm:sqref>
+          <xm:sqref>G2:G131 I2:I131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9088,18 +9223,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>125</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>128</v>
@@ -9163,7 +9298,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
